--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="32">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +173,10 @@
 2、确定项目中的一些细节以及功能点
 3、创建工程，开始第一周的代码任务
 4、人员分工确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发呆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -277,8 +281,36 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -580,20 +612,20 @@
   <dimension ref="A1:F133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
-    <col min="4" max="4" width="43.21875" customWidth="1"/>
-    <col min="5" max="5" width="26.21875" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="43.25" customWidth="1"/>
+    <col min="5" max="5" width="26.25" customWidth="1"/>
+    <col min="6" max="6" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
@@ -603,7 +635,7 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -623,7 +655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>42919</v>
       </c>
@@ -643,7 +675,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="1" t="s">
@@ -653,7 +685,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
@@ -663,17 +695,19 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="1" t="s">
@@ -683,7 +717,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -703,7 +737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>42920</v>
       </c>
@@ -719,7 +753,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="1" t="s">
@@ -729,7 +763,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="1" t="s">
@@ -739,7 +773,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="1" t="s">
@@ -749,7 +783,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1" t="s">
@@ -759,7 +793,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -779,7 +813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>42921</v>
       </c>
@@ -793,7 +827,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="1" t="s">
@@ -803,7 +837,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="1" t="s">
@@ -813,7 +847,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="1" t="s">
@@ -823,7 +857,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="1" t="s">
@@ -833,7 +867,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
@@ -853,7 +887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>42922</v>
       </c>
@@ -867,7 +901,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="1" t="s">
@@ -877,7 +911,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="1" t="s">
@@ -887,7 +921,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="1" t="s">
@@ -897,7 +931,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="1" t="s">
@@ -907,7 +941,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
@@ -927,7 +961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>42923</v>
       </c>
@@ -941,7 +975,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="1" t="s">
@@ -951,7 +985,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="1" t="s">
@@ -961,7 +995,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="1" t="s">
@@ -971,7 +1005,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="1" t="s">
@@ -981,7 +1015,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>5</v>
       </c>
@@ -1001,7 +1035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>42924</v>
       </c>
@@ -1015,7 +1049,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="1" t="s">
@@ -1025,7 +1059,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="1" t="s">
@@ -1035,7 +1069,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="1" t="s">
@@ -1045,7 +1079,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="1" t="s">
@@ -1055,7 +1089,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>5</v>
       </c>
@@ -1075,7 +1109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>42925</v>
       </c>
@@ -1089,7 +1123,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="1" t="s">
@@ -1099,7 +1133,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="1" t="s">
@@ -1109,7 +1143,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="1" t="s">
@@ -1119,7 +1153,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="1" t="s">
@@ -1129,7 +1163,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>5</v>
       </c>
@@ -1149,7 +1183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
         <v>42926</v>
       </c>
@@ -1163,7 +1197,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="1" t="s">
@@ -1173,7 +1207,7 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="1" t="s">
@@ -1183,7 +1217,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="1" t="s">
@@ -1193,7 +1227,7 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="1" t="s">
@@ -1203,7 +1237,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>5</v>
       </c>
@@ -1223,7 +1257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="4">
         <v>42927</v>
       </c>
@@ -1237,7 +1271,7 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="1" t="s">
@@ -1247,7 +1281,7 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="1" t="s">
@@ -1257,7 +1291,7 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="1" t="s">
@@ -1267,7 +1301,7 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
       <c r="C55" s="1" t="s">
@@ -1277,7 +1311,7 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>5</v>
       </c>
@@ -1297,7 +1331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="4">
         <v>42928</v>
       </c>
@@ -1311,7 +1345,7 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="1" t="s">
@@ -1321,7 +1355,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
       <c r="C59" s="1" t="s">
@@ -1331,7 +1365,7 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="1" t="s">
@@ -1341,7 +1375,7 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
       <c r="C61" s="1" t="s">
@@ -1351,7 +1385,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
         <v>5</v>
       </c>
@@ -1371,7 +1405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="4">
         <v>42929</v>
       </c>
@@ -1385,7 +1419,7 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="1" t="s">
@@ -1395,7 +1429,7 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
       <c r="C65" s="1" t="s">
@@ -1405,7 +1439,7 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
       <c r="C66" s="1" t="s">
@@ -1415,7 +1449,7 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
       <c r="C67" s="1" t="s">
@@ -1425,7 +1459,7 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
         <v>5</v>
       </c>
@@ -1445,7 +1479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="4">
         <v>42930</v>
       </c>
@@ -1459,7 +1493,7 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
       <c r="C70" s="1" t="s">
@@ -1469,7 +1503,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="1" t="s">
@@ -1479,7 +1513,7 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
       <c r="C72" s="1" t="s">
@@ -1489,7 +1523,7 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
       <c r="C73" s="1" t="s">
@@ -1499,7 +1533,7 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
         <v>5</v>
       </c>
@@ -1519,7 +1553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="4">
         <v>42931</v>
       </c>
@@ -1533,7 +1567,7 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
       <c r="B76" s="5"/>
       <c r="C76" s="1" t="s">
@@ -1543,7 +1577,7 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
       <c r="B77" s="5"/>
       <c r="C77" s="1" t="s">
@@ -1553,7 +1587,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
       <c r="B78" s="5"/>
       <c r="C78" s="1" t="s">
@@ -1563,7 +1597,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
       <c r="B79" s="5"/>
       <c r="C79" s="1" t="s">
@@ -1573,7 +1607,7 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
         <v>5</v>
       </c>
@@ -1593,7 +1627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="4">
         <v>42932</v>
       </c>
@@ -1607,7 +1641,7 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
       <c r="B82" s="5"/>
       <c r="C82" s="1" t="s">
@@ -1617,7 +1651,7 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
       <c r="C83" s="1" t="s">
@@ -1627,7 +1661,7 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
       <c r="C84" s="1" t="s">
@@ -1637,7 +1671,7 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
       <c r="B85" s="5"/>
       <c r="C85" s="1" t="s">
@@ -1647,7 +1681,7 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="3" t="s">
         <v>5</v>
       </c>
@@ -1667,7 +1701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="4">
         <v>42933</v>
       </c>
@@ -1681,7 +1715,7 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="1" t="s">
@@ -1691,7 +1725,7 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="1" t="s">
@@ -1701,7 +1735,7 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="1" t="s">
@@ -1711,7 +1745,7 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="1" t="s">
@@ -1721,7 +1755,7 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="3" t="s">
         <v>5</v>
       </c>
@@ -1741,7 +1775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="4">
         <v>42934</v>
       </c>
@@ -1755,7 +1789,7 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
       <c r="B94" s="5"/>
       <c r="C94" s="1" t="s">
@@ -1765,7 +1799,7 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
       <c r="C95" s="1" t="s">
@@ -1775,7 +1809,7 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
       <c r="C96" s="1" t="s">
@@ -1785,7 +1819,7 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
       <c r="C97" s="1" t="s">
@@ -1795,7 +1829,7 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="3" t="s">
         <v>5</v>
       </c>
@@ -1815,7 +1849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="4">
         <v>42935</v>
       </c>
@@ -1829,7 +1863,7 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="1" t="s">
@@ -1839,7 +1873,7 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="1" t="s">
@@ -1849,7 +1883,7 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
       <c r="B102" s="5"/>
       <c r="C102" s="1" t="s">
@@ -1859,7 +1893,7 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
       <c r="B103" s="5"/>
       <c r="C103" s="1" t="s">
@@ -1869,7 +1903,7 @@
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" s="3" t="s">
         <v>5</v>
       </c>
@@ -1889,7 +1923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="4">
         <v>42936</v>
       </c>
@@ -1903,7 +1937,7 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
       <c r="C106" s="1" t="s">
@@ -1913,7 +1947,7 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
       <c r="C107" s="1" t="s">
@@ -1923,7 +1957,7 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="1" t="s">
@@ -1933,7 +1967,7 @@
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
       <c r="C109" s="1" t="s">
@@ -1943,7 +1977,7 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="3" t="s">
         <v>5</v>
       </c>
@@ -1963,7 +1997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="4">
         <v>42937</v>
       </c>
@@ -1977,7 +2011,7 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
       <c r="C112" s="1" t="s">
@@ -1987,7 +2021,7 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
       <c r="B113" s="5"/>
       <c r="C113" s="1" t="s">
@@ -1997,7 +2031,7 @@
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
       <c r="B114" s="5"/>
       <c r="C114" s="1" t="s">
@@ -2007,7 +2041,7 @@
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
       <c r="C115" s="1" t="s">
@@ -2017,7 +2051,7 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" s="3" t="s">
         <v>5</v>
       </c>
@@ -2037,7 +2071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" s="4">
         <v>42938</v>
       </c>
@@ -2051,7 +2085,7 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
       <c r="B118" s="5"/>
       <c r="C118" s="1" t="s">
@@ -2061,7 +2095,7 @@
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
       <c r="B119" s="5"/>
       <c r="C119" s="1" t="s">
@@ -2071,7 +2105,7 @@
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
       <c r="B120" s="5"/>
       <c r="C120" s="1" t="s">
@@ -2081,7 +2115,7 @@
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
       <c r="B121" s="5"/>
       <c r="C121" s="1" t="s">
@@ -2091,7 +2125,7 @@
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -2099,7 +2133,7 @@
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
       <c r="B123" s="5"/>
       <c r="C123" s="1"/>
@@ -2107,7 +2141,7 @@
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
       <c r="B124" s="5"/>
       <c r="C124" s="1"/>
@@ -2115,7 +2149,7 @@
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
       <c r="B125" s="5"/>
       <c r="C125" s="1"/>
@@ -2123,7 +2157,7 @@
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
       <c r="B126" s="5"/>
       <c r="C126" s="1"/>
@@ -2131,7 +2165,7 @@
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
       <c r="B127" s="5"/>
       <c r="C127" s="1"/>
@@ -2139,7 +2173,7 @@
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -2147,7 +2181,7 @@
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
       <c r="B129" s="5"/>
       <c r="C129" s="1"/>
@@ -2155,7 +2189,7 @@
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
       <c r="B130" s="5"/>
       <c r="C130" s="1"/>
@@ -2163,7 +2197,7 @@
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
       <c r="B131" s="5"/>
       <c r="C131" s="1"/>
@@ -2171,7 +2205,7 @@
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
       <c r="B132" s="5"/>
       <c r="C132" s="1"/>
@@ -2179,7 +2213,7 @@
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
       <c r="B133" s="5"/>
       <c r="C133" s="1"/>
@@ -2189,6 +2223,43 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -2197,43 +2268,6 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2247,7 +2281,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2260,7 +2294,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="33">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,6 +177,10 @@
   </si>
   <si>
     <t>发呆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怼YJP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -612,20 +616,20 @@
   <dimension ref="A1:F133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
-    <col min="4" max="4" width="43.25" customWidth="1"/>
-    <col min="5" max="5" width="26.25" customWidth="1"/>
-    <col min="6" max="6" width="29.625" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" customWidth="1"/>
+    <col min="5" max="5" width="26.21875" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
@@ -635,7 +639,7 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -655,7 +659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>42919</v>
       </c>
@@ -675,7 +679,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="1" t="s">
@@ -685,17 +689,19 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="1" t="s">
@@ -707,7 +713,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="1" t="s">
@@ -717,7 +723,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -737,7 +743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>42920</v>
       </c>
@@ -753,7 +759,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="1" t="s">
@@ -763,7 +769,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="1" t="s">
@@ -773,7 +779,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="1" t="s">
@@ -783,7 +789,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1" t="s">
@@ -793,7 +799,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -813,7 +819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>42921</v>
       </c>
@@ -827,7 +833,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="1" t="s">
@@ -837,7 +843,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="1" t="s">
@@ -847,7 +853,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="1" t="s">
@@ -857,7 +863,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="1" t="s">
@@ -867,7 +873,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
@@ -887,7 +893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>42922</v>
       </c>
@@ -901,7 +907,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="1" t="s">
@@ -911,7 +917,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="1" t="s">
@@ -921,7 +927,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="1" t="s">
@@ -931,7 +937,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="1" t="s">
@@ -941,7 +947,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
@@ -961,7 +967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>42923</v>
       </c>
@@ -975,7 +981,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="1" t="s">
@@ -985,7 +991,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="1" t="s">
@@ -995,7 +1001,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="1" t="s">
@@ -1005,7 +1011,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="1" t="s">
@@ -1015,7 +1021,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>5</v>
       </c>
@@ -1035,7 +1041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>42924</v>
       </c>
@@ -1049,7 +1055,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="1" t="s">
@@ -1059,7 +1065,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="1" t="s">
@@ -1069,7 +1075,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="1" t="s">
@@ -1079,7 +1085,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="1" t="s">
@@ -1089,7 +1095,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>5</v>
       </c>
@@ -1109,7 +1115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>42925</v>
       </c>
@@ -1123,7 +1129,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="1" t="s">
@@ -1133,7 +1139,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="1" t="s">
@@ -1143,7 +1149,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="1" t="s">
@@ -1153,7 +1159,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="1" t="s">
@@ -1163,7 +1169,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>5</v>
       </c>
@@ -1183,7 +1189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>42926</v>
       </c>
@@ -1197,7 +1203,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="1" t="s">
@@ -1207,7 +1213,7 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="1" t="s">
@@ -1217,7 +1223,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="1" t="s">
@@ -1227,7 +1233,7 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="1" t="s">
@@ -1237,7 +1243,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>5</v>
       </c>
@@ -1257,7 +1263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>42927</v>
       </c>
@@ -1271,7 +1277,7 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="1" t="s">
@@ -1281,7 +1287,7 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="1" t="s">
@@ -1291,7 +1297,7 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="1" t="s">
@@ -1301,7 +1307,7 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
       <c r="C55" s="1" t="s">
@@ -1311,7 +1317,7 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>5</v>
       </c>
@@ -1331,7 +1337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>42928</v>
       </c>
@@ -1345,7 +1351,7 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="1" t="s">
@@ -1355,7 +1361,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
       <c r="C59" s="1" t="s">
@@ -1365,7 +1371,7 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="1" t="s">
@@ -1375,7 +1381,7 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
       <c r="C61" s="1" t="s">
@@ -1385,7 +1391,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>5</v>
       </c>
@@ -1405,7 +1411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>42929</v>
       </c>
@@ -1419,7 +1425,7 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="1" t="s">
@@ -1429,7 +1435,7 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
       <c r="C65" s="1" t="s">
@@ -1439,7 +1445,7 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
       <c r="C66" s="1" t="s">
@@ -1449,7 +1455,7 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
       <c r="C67" s="1" t="s">
@@ -1459,7 +1465,7 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>5</v>
       </c>
@@ -1479,7 +1485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>42930</v>
       </c>
@@ -1493,7 +1499,7 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
       <c r="C70" s="1" t="s">
@@ -1503,7 +1509,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="1" t="s">
@@ -1513,7 +1519,7 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
       <c r="C72" s="1" t="s">
@@ -1523,7 +1529,7 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
       <c r="C73" s="1" t="s">
@@ -1533,7 +1539,7 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>5</v>
       </c>
@@ -1553,7 +1559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>42931</v>
       </c>
@@ -1567,7 +1573,7 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="5"/>
       <c r="C76" s="1" t="s">
@@ -1577,7 +1583,7 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="5"/>
       <c r="C77" s="1" t="s">
@@ -1587,7 +1593,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="5"/>
       <c r="C78" s="1" t="s">
@@ -1597,7 +1603,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="5"/>
       <c r="C79" s="1" t="s">
@@ -1607,7 +1613,7 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>5</v>
       </c>
@@ -1627,7 +1633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>42932</v>
       </c>
@@ -1641,7 +1647,7 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="5"/>
       <c r="C82" s="1" t="s">
@@ -1651,7 +1657,7 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
       <c r="C83" s="1" t="s">
@@ -1661,7 +1667,7 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
       <c r="C84" s="1" t="s">
@@ -1671,7 +1677,7 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="5"/>
       <c r="C85" s="1" t="s">
@@ -1681,7 +1687,7 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>5</v>
       </c>
@@ -1701,7 +1707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>42933</v>
       </c>
@@ -1715,7 +1721,7 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="1" t="s">
@@ -1725,7 +1731,7 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="1" t="s">
@@ -1735,7 +1741,7 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="1" t="s">
@@ -1745,7 +1751,7 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="1" t="s">
@@ -1755,7 +1761,7 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>5</v>
       </c>
@@ -1775,7 +1781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>42934</v>
       </c>
@@ -1789,7 +1795,7 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="5"/>
       <c r="C94" s="1" t="s">
@@ -1799,7 +1805,7 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
       <c r="C95" s="1" t="s">
@@ -1809,7 +1815,7 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
       <c r="C96" s="1" t="s">
@@ -1819,7 +1825,7 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
       <c r="C97" s="1" t="s">
@@ -1829,7 +1835,7 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>5</v>
       </c>
@@ -1849,7 +1855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>42935</v>
       </c>
@@ -1863,7 +1869,7 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="1" t="s">
@@ -1873,7 +1879,7 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="1" t="s">
@@ -1883,7 +1889,7 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="5"/>
       <c r="C102" s="1" t="s">
@@ -1893,7 +1899,7 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="5"/>
       <c r="C103" s="1" t="s">
@@ -1903,7 +1909,7 @@
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>5</v>
       </c>
@@ -1923,7 +1929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>42936</v>
       </c>
@@ -1937,7 +1943,7 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
       <c r="C106" s="1" t="s">
@@ -1947,7 +1953,7 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
       <c r="C107" s="1" t="s">
@@ -1957,7 +1963,7 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="1" t="s">
@@ -1967,7 +1973,7 @@
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
       <c r="C109" s="1" t="s">
@@ -1977,7 +1983,7 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>5</v>
       </c>
@@ -1997,7 +2003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>42937</v>
       </c>
@@ -2011,7 +2017,7 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
       <c r="C112" s="1" t="s">
@@ -2021,7 +2027,7 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="5"/>
       <c r="C113" s="1" t="s">
@@ -2031,7 +2037,7 @@
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="5"/>
       <c r="C114" s="1" t="s">
@@ -2041,7 +2047,7 @@
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
       <c r="C115" s="1" t="s">
@@ -2051,7 +2057,7 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>5</v>
       </c>
@@ -2071,7 +2077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>42938</v>
       </c>
@@ -2085,7 +2091,7 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="5"/>
       <c r="C118" s="1" t="s">
@@ -2095,7 +2101,7 @@
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="5"/>
       <c r="C119" s="1" t="s">
@@ -2105,7 +2111,7 @@
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="5"/>
       <c r="C120" s="1" t="s">
@@ -2115,7 +2121,7 @@
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="5"/>
       <c r="C121" s="1" t="s">
@@ -2125,7 +2131,7 @@
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -2133,7 +2139,7 @@
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="5"/>
       <c r="C123" s="1"/>
@@ -2141,7 +2147,7 @@
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="5"/>
       <c r="C124" s="1"/>
@@ -2149,7 +2155,7 @@
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="5"/>
       <c r="C125" s="1"/>
@@ -2157,7 +2163,7 @@
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="5"/>
       <c r="C126" s="1"/>
@@ -2165,7 +2171,7 @@
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="5"/>
       <c r="C127" s="1"/>
@@ -2173,7 +2179,7 @@
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -2181,7 +2187,7 @@
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="5"/>
       <c r="C129" s="1"/>
@@ -2189,7 +2195,7 @@
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="5"/>
       <c r="C130" s="1"/>
@@ -2197,7 +2203,7 @@
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="5"/>
       <c r="C131" s="1"/>
@@ -2205,7 +2211,7 @@
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="5"/>
       <c r="C132" s="1"/>
@@ -2213,7 +2219,7 @@
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="5"/>
       <c r="C133" s="1"/>
@@ -2223,43 +2229,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -2268,6 +2237,43 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2281,7 +2287,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2294,7 +2300,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="39">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,14 +148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-1、与组员们讨论项目具体细节等
-2、数据库搭建
-3、人员分工确定
-4、创建工程，项目启动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一开始对业务逻辑了解不深，与
 老师多次交流后对项目有了一个整体的把握</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,7 +172,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>怼YJP</t>
+    <t>1、安装开发工具：oracle eclipse等
+2、了解项目需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对需求了解不准确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨浩雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、确定数据库的设计
+2、用powerdesigner实现数据库设计并导出sql
+3、完成部分model的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、实现所有的model
+2、完成dao中的user的设计
+3、编写详细设计报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解项目需求 实现数据库设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库设计花费时间较长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -616,7 +641,7 @@
   <dimension ref="A1:F133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -659,7 +684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="72" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>42919</v>
       </c>
@@ -667,16 +692,16 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -689,17 +714,21 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -708,7 +737,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -751,10 +780,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -769,15 +798,21 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
@@ -2229,6 +2264,43 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -2237,43 +2309,6 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="36">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,19 +124,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>杨浩雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔺熙如</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何威</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1、与组员们讨论项目具体细节等
+2、数据库搭建
+3、人员分工确定
+4、创建工程，项目启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一开始对业务逻辑了解不深，与
+老师多次交流后对项目有了一个整体的把握</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游江平（组长）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发呆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怼YJP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看杨浩雷怼YJP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>彭昱森</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨浩雷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔺熙如</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何威</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -148,27 +177,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-1、与组员们讨论项目具体细节等
-2、数据库搭建
-3、人员分工确定
-4、创建工程，项目启动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一开始对业务逻辑了解不深，与
-老师多次交流后对项目有了一个整体的把握</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游江平（组长）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游江平（组长）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、数据库搭建完成
 2、确定项目中的一些细节以及功能点
 3、创建工程，开始第一周的代码任务
@@ -176,11 +184,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发呆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怼YJP</t>
+    <t>1.设计logo，完成登录界面原型
+2.初步完成主界面原型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有些不懂得知识点，我在学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -616,7 +629,7 @@
   <dimension ref="A1:F133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -667,25 +680,27 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
@@ -693,10 +708,10 @@
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -705,10 +720,10 @@
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -717,7 +732,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -751,29 +766,35 @@
         <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -783,7 +804,7 @@
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -793,7 +814,7 @@
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -827,7 +848,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -837,7 +858,7 @@
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -847,7 +868,7 @@
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -857,7 +878,7 @@
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -867,7 +888,7 @@
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -901,7 +922,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -911,7 +932,7 @@
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -921,7 +942,7 @@
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -931,7 +952,7 @@
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -941,7 +962,7 @@
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -975,7 +996,7 @@
         <v>16</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -985,7 +1006,7 @@
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -995,7 +1016,7 @@
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1005,7 +1026,7 @@
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1015,7 +1036,7 @@
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1049,7 +1070,7 @@
         <v>17</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1059,7 +1080,7 @@
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1069,7 +1090,7 @@
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1079,7 +1100,7 @@
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1089,7 +1110,7 @@
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1123,7 +1144,7 @@
         <v>16</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1133,7 +1154,7 @@
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1143,7 +1164,7 @@
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1153,7 +1174,7 @@
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -1163,7 +1184,7 @@
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -1197,7 +1218,7 @@
         <v>18</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -1207,7 +1228,7 @@
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -1217,7 +1238,7 @@
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -1227,7 +1248,7 @@
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -1237,7 +1258,7 @@
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -1271,7 +1292,7 @@
         <v>17</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -1281,7 +1302,7 @@
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -1291,7 +1312,7 @@
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -1301,7 +1322,7 @@
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -1311,7 +1332,7 @@
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
       <c r="C55" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -1345,7 +1366,7 @@
         <v>19</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -1355,7 +1376,7 @@
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -1365,7 +1386,7 @@
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
       <c r="C59" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -1375,7 +1396,7 @@
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -1385,7 +1406,7 @@
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
       <c r="C61" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -1419,7 +1440,7 @@
         <v>15</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -1429,7 +1450,7 @@
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -1439,7 +1460,7 @@
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
       <c r="C65" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -1449,7 +1470,7 @@
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
       <c r="C66" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -1459,7 +1480,7 @@
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
       <c r="C67" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -2229,6 +2250,43 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -2237,43 +2295,6 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="45">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,14 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发呆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怼YJP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>看杨浩雷怼YJP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,6 +186,55 @@
   </si>
   <si>
     <t>有些不懂得知识点，我在学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、安装开发工具：oracle eclipse等
+2、了解项目需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解项目需求 实现数据库设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对需求了解不准确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成开发环境搭建，安装eclipse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行前端的学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对前端不太熟悉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、确定数据库的设计
+2、用powerdesigner实现数据库设计并导出sql
+3、完成部分model的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、实现所有的model
+2、完成dao中的user的设计
+3、编写详细设计报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库设计花费时间较长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行前端HTML，CSS,JS,AJAX的学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有好多东西要学啊哭哭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,7 +670,7 @@
   <dimension ref="A1:F133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D11" sqref="D11:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -683,7 +724,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
@@ -696,25 +737,29 @@
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="D5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -723,10 +768,14 @@
         <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -769,7 +818,7 @@
         <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -778,27 +827,33 @@
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="D11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
@@ -806,9 +861,15 @@
       <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -858,7 +919,7 @@
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -932,7 +993,7 @@
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1006,7 +1067,7 @@
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1080,7 +1141,7 @@
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1154,7 +1215,7 @@
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1228,7 +1289,7 @@
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -1302,7 +1363,7 @@
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -1376,7 +1437,7 @@
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -1450,7 +1511,7 @@
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -2250,43 +2311,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -2295,6 +2319,43 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="47">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,10 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>看杨浩雷怼YJP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>彭昱森</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,11 +185,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、安装开发工具：oracle eclipse等
-2、了解项目需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>了解项目需求 实现数据库设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -235,6 +226,23 @@
   </si>
   <si>
     <t>有好多东西要学啊哭哭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、安装开发工具：oracle eclipse等
+2、了解项目需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、安装开发工具：oracle </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习需要用到的技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不懂得知识点有点多</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -670,7 +678,7 @@
   <dimension ref="A1:F133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:F12"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -724,7 +732,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
@@ -737,13 +745,17 @@
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="D4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -752,13 +764,13 @@
         <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -768,13 +780,13 @@
         <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -818,7 +830,7 @@
         <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -827,16 +839,16 @@
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
@@ -846,13 +858,13 @@
         <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -862,13 +874,13 @@
         <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -919,7 +931,7 @@
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -993,7 +1005,7 @@
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1067,7 +1079,7 @@
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1141,7 +1153,7 @@
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1215,7 +1227,7 @@
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1289,7 +1301,7 @@
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -1363,7 +1375,7 @@
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -1437,7 +1449,7 @@
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -1511,7 +1523,7 @@
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -2311,6 +2323,43 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -2319,43 +2368,6 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="55">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,10 +193,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成开发环境搭建，安装eclipse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>进行前端的学习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,6 +239,44 @@
   </si>
   <si>
     <t>不懂得知识点有点多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成Model层
+2、完成Util层
+3、完成登录所需的Dao+Service+Action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对数据格式Json不太熟悉 需学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成开发环境搭建，安装eclipse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成开发环境搭建，eclipse、oracle、jdk等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求不够了解，还需与组长沟通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端学习，项目需求理清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理清项目需求，开始画界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面优化，系统程序结构优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理清逻辑结构花时间较长</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -678,7 +712,7 @@
   <dimension ref="A1:F133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -748,13 +782,13 @@
         <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
@@ -764,7 +798,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>33</v>
@@ -780,13 +814,13 @@
         <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -795,9 +829,15 @@
       <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -832,8 +872,12 @@
       <c r="D9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="E9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
@@ -858,13 +902,13 @@
         <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -874,13 +918,13 @@
         <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -889,9 +933,15 @@
       <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -2323,43 +2373,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -2368,6 +2381,43 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="62">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,31 +252,65 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>完成开发环境搭建，eclipse、oracle、jdk等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求不够了解，还需与组长沟通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端学习，项目需求理清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理清项目需求，开始画界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面优化，系统程序结构优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理清逻辑结构花时间较长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">实现dao包
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、实现model包
+2、完成dao中的部分类的实现
+3、完成详细设计报告、原型图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习做原型图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>完成开发环境搭建，安装eclipse</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成开发环境搭建，eclipse、oracle、jdk等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求不够了解，还需与组长沟通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端学习，项目需求理清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>理清项目需求，开始画界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面优化，系统程序结构优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>理清逻辑结构花时间较长</t>
+    <t>1、完成开发环境搭建，安装eclipse
+2、完善具体需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成主界面地图的绘制
+2、学习bootstrap
+3、完成需求规格说明书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成地图的导航功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学的太多，炸了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -709,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F133"/>
+  <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -725,7 +759,7 @@
     <col min="6" max="6" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
@@ -735,7 +769,7 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -755,7 +789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>42919</v>
       </c>
@@ -775,7 +809,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="1" t="s">
@@ -791,7 +825,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
@@ -806,15 +840,18 @@
       <c r="F5" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>48</v>
+      <c r="D6" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>35</v>
@@ -823,23 +860,23 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -859,7 +896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>42920</v>
       </c>
@@ -879,7 +916,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="1" t="s">
@@ -895,7 +932,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="1" t="s">
@@ -911,7 +948,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="1" t="s">
@@ -927,23 +964,23 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -963,7 +1000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>42921</v>
       </c>
@@ -977,7 +1014,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="1" t="s">
@@ -987,25 +1024,37 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="D18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -2373,6 +2422,43 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -2381,43 +2467,6 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="65">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,36 +281,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>学习做原型图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成开发环境搭建，安装eclipse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成开发环境搭建，安装eclipse
+2、完善具体需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成主界面地图的绘制
+2、学习bootstrap
+3、完成需求规格说明书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成地图的导航功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学的太多，炸了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1、实现model包
 2、完成dao中的部分类的实现
 3、完成详细设计报告、原型图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学习做原型图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成开发环境搭建，安装eclipse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、完成开发环境搭建，安装eclipse
-2、完善具体需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、完成主界面地图的绘制
-2、学习bootstrap
-3、完成需求规格说明书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成地图的导航功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学的太多，炸了</t>
+    <t>1、实现基本主界面
+2、完成部分二级界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习AJAX，毕竟我们是贾克斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS遇到了些问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -745,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -841,7 +854,7 @@
         <v>34</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
@@ -851,7 +864,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>35</v>
@@ -1014,15 +1027,21 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="D16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
@@ -1031,13 +1050,13 @@
         <v>21</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
@@ -1047,13 +1066,13 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2422,43 +2441,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -2467,6 +2449,43 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="68">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -324,6 +324,22 @@
   </si>
   <si>
     <t>CSS遇到了些问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成人员管理界面的绘制
+2、为需求分析书绘制流程图，模块图
+3、学习HTML DOM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成翻页功能，查询功能
+2、学习阿贾克斯
+3、完善人员管理界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心好塞，哭哭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -758,21 +774,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
-    <col min="4" max="4" width="43.21875" customWidth="1"/>
-    <col min="5" max="5" width="26.21875" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="43.25" customWidth="1"/>
+    <col min="5" max="5" width="26.25" customWidth="1"/>
+    <col min="6" max="6" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
@@ -782,7 +798,7 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -802,7 +818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>42919</v>
       </c>
@@ -822,7 +838,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="1" t="s">
@@ -838,7 +854,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
@@ -857,7 +873,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="1" t="s">
@@ -873,7 +889,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="1" t="s">
@@ -889,7 +905,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -909,7 +925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>42920</v>
       </c>
@@ -929,7 +945,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="1" t="s">
@@ -945,7 +961,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="1" t="s">
@@ -961,7 +977,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="1" t="s">
@@ -977,7 +993,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1" t="s">
@@ -993,7 +1009,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1013,7 +1029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>42921</v>
       </c>
@@ -1027,7 +1043,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="1" t="s">
@@ -1043,7 +1059,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="1" t="s">
@@ -1059,7 +1075,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="1" t="s">
@@ -1075,7 +1091,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="1" t="s">
@@ -1085,7 +1101,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
@@ -1105,7 +1121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>42922</v>
       </c>
@@ -1119,7 +1135,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="1" t="s">
@@ -1129,7 +1145,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="1" t="s">
@@ -1139,17 +1155,23 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="1" t="s">
@@ -1159,7 +1181,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
@@ -1179,7 +1201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>42923</v>
       </c>
@@ -1193,7 +1215,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="1" t="s">
@@ -1203,7 +1225,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="1" t="s">
@@ -1213,7 +1235,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="1" t="s">
@@ -1223,7 +1245,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="1" t="s">
@@ -1233,7 +1255,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>5</v>
       </c>
@@ -1253,7 +1275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>42924</v>
       </c>
@@ -1267,7 +1289,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="1" t="s">
@@ -1277,7 +1299,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="1" t="s">
@@ -1287,7 +1309,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="1" t="s">
@@ -1297,7 +1319,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="1" t="s">
@@ -1307,7 +1329,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>5</v>
       </c>
@@ -1327,7 +1349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>42925</v>
       </c>
@@ -1341,7 +1363,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="1" t="s">
@@ -1351,7 +1373,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="1" t="s">
@@ -1361,7 +1383,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="1" t="s">
@@ -1371,7 +1393,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="1" t="s">
@@ -1381,7 +1403,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>5</v>
       </c>
@@ -1401,7 +1423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
         <v>42926</v>
       </c>
@@ -1415,7 +1437,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="1" t="s">
@@ -1425,7 +1447,7 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="1" t="s">
@@ -1435,7 +1457,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="1" t="s">
@@ -1445,7 +1467,7 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="1" t="s">
@@ -1455,7 +1477,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>5</v>
       </c>
@@ -1475,7 +1497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="4">
         <v>42927</v>
       </c>
@@ -1489,7 +1511,7 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="1" t="s">
@@ -1499,7 +1521,7 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="1" t="s">
@@ -1509,7 +1531,7 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="1" t="s">
@@ -1519,7 +1541,7 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
       <c r="C55" s="1" t="s">
@@ -1529,7 +1551,7 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>5</v>
       </c>
@@ -1549,7 +1571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="4">
         <v>42928</v>
       </c>
@@ -1563,7 +1585,7 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="1" t="s">
@@ -1573,7 +1595,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
       <c r="C59" s="1" t="s">
@@ -1583,7 +1605,7 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="1" t="s">
@@ -1593,7 +1615,7 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
       <c r="C61" s="1" t="s">
@@ -1603,7 +1625,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
         <v>5</v>
       </c>
@@ -1623,7 +1645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="4">
         <v>42929</v>
       </c>
@@ -1637,7 +1659,7 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="1" t="s">
@@ -1647,7 +1669,7 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
       <c r="C65" s="1" t="s">
@@ -1657,7 +1679,7 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
       <c r="C66" s="1" t="s">
@@ -1667,7 +1689,7 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
       <c r="C67" s="1" t="s">
@@ -1677,7 +1699,7 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
         <v>5</v>
       </c>
@@ -1697,7 +1719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="4">
         <v>42930</v>
       </c>
@@ -1711,7 +1733,7 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
       <c r="C70" s="1" t="s">
@@ -1721,7 +1743,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="1" t="s">
@@ -1731,7 +1753,7 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
       <c r="C72" s="1" t="s">
@@ -1741,7 +1763,7 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
       <c r="C73" s="1" t="s">
@@ -1751,7 +1773,7 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
         <v>5</v>
       </c>
@@ -1771,7 +1793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="4">
         <v>42931</v>
       </c>
@@ -1785,7 +1807,7 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
       <c r="B76" s="5"/>
       <c r="C76" s="1" t="s">
@@ -1795,7 +1817,7 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
       <c r="B77" s="5"/>
       <c r="C77" s="1" t="s">
@@ -1805,7 +1827,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
       <c r="B78" s="5"/>
       <c r="C78" s="1" t="s">
@@ -1815,7 +1837,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
       <c r="B79" s="5"/>
       <c r="C79" s="1" t="s">
@@ -1825,7 +1847,7 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
         <v>5</v>
       </c>
@@ -1845,7 +1867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="4">
         <v>42932</v>
       </c>
@@ -1859,7 +1881,7 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
       <c r="B82" s="5"/>
       <c r="C82" s="1" t="s">
@@ -1869,7 +1891,7 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
       <c r="C83" s="1" t="s">
@@ -1879,7 +1901,7 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
       <c r="C84" s="1" t="s">
@@ -1889,7 +1911,7 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
       <c r="B85" s="5"/>
       <c r="C85" s="1" t="s">
@@ -1899,7 +1921,7 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="3" t="s">
         <v>5</v>
       </c>
@@ -1919,7 +1941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="4">
         <v>42933</v>
       </c>
@@ -1933,7 +1955,7 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="1" t="s">
@@ -1943,7 +1965,7 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="1" t="s">
@@ -1953,7 +1975,7 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="1" t="s">
@@ -1963,7 +1985,7 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="1" t="s">
@@ -1973,7 +1995,7 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="3" t="s">
         <v>5</v>
       </c>
@@ -1993,7 +2015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="4">
         <v>42934</v>
       </c>
@@ -2007,7 +2029,7 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
       <c r="B94" s="5"/>
       <c r="C94" s="1" t="s">
@@ -2017,7 +2039,7 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
       <c r="C95" s="1" t="s">
@@ -2027,7 +2049,7 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
       <c r="C96" s="1" t="s">
@@ -2037,7 +2059,7 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
       <c r="C97" s="1" t="s">
@@ -2047,7 +2069,7 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="3" t="s">
         <v>5</v>
       </c>
@@ -2067,7 +2089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="4">
         <v>42935</v>
       </c>
@@ -2081,7 +2103,7 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="1" t="s">
@@ -2091,7 +2113,7 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="1" t="s">
@@ -2101,7 +2123,7 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
       <c r="B102" s="5"/>
       <c r="C102" s="1" t="s">
@@ -2111,7 +2133,7 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
       <c r="B103" s="5"/>
       <c r="C103" s="1" t="s">
@@ -2121,7 +2143,7 @@
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" s="3" t="s">
         <v>5</v>
       </c>
@@ -2141,7 +2163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="4">
         <v>42936</v>
       </c>
@@ -2155,7 +2177,7 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
       <c r="C106" s="1" t="s">
@@ -2165,7 +2187,7 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
       <c r="C107" s="1" t="s">
@@ -2175,7 +2197,7 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="1" t="s">
@@ -2185,7 +2207,7 @@
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
       <c r="C109" s="1" t="s">
@@ -2195,7 +2217,7 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="3" t="s">
         <v>5</v>
       </c>
@@ -2215,7 +2237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="4">
         <v>42937</v>
       </c>
@@ -2229,7 +2251,7 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
       <c r="C112" s="1" t="s">
@@ -2239,7 +2261,7 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
       <c r="B113" s="5"/>
       <c r="C113" s="1" t="s">
@@ -2249,7 +2271,7 @@
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
       <c r="B114" s="5"/>
       <c r="C114" s="1" t="s">
@@ -2259,7 +2281,7 @@
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
       <c r="C115" s="1" t="s">
@@ -2269,7 +2291,7 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" s="3" t="s">
         <v>5</v>
       </c>
@@ -2289,7 +2311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" s="4">
         <v>42938</v>
       </c>
@@ -2303,7 +2325,7 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
       <c r="B118" s="5"/>
       <c r="C118" s="1" t="s">
@@ -2313,7 +2335,7 @@
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
       <c r="B119" s="5"/>
       <c r="C119" s="1" t="s">
@@ -2323,7 +2345,7 @@
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
       <c r="B120" s="5"/>
       <c r="C120" s="1" t="s">
@@ -2333,7 +2355,7 @@
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
       <c r="B121" s="5"/>
       <c r="C121" s="1" t="s">
@@ -2343,7 +2365,7 @@
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -2351,7 +2373,7 @@
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
       <c r="B123" s="5"/>
       <c r="C123" s="1"/>
@@ -2359,7 +2381,7 @@
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
       <c r="B124" s="5"/>
       <c r="C124" s="1"/>
@@ -2367,7 +2389,7 @@
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
       <c r="B125" s="5"/>
       <c r="C125" s="1"/>
@@ -2375,7 +2397,7 @@
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
       <c r="B126" s="5"/>
       <c r="C126" s="1"/>
@@ -2383,7 +2405,7 @@
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
       <c r="B127" s="5"/>
       <c r="C127" s="1"/>
@@ -2391,7 +2413,7 @@
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -2399,7 +2421,7 @@
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
       <c r="B129" s="5"/>
       <c r="C129" s="1"/>
@@ -2407,7 +2429,7 @@
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
       <c r="B130" s="5"/>
       <c r="C130" s="1"/>
@@ -2415,7 +2437,7 @@
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
       <c r="B131" s="5"/>
       <c r="C131" s="1"/>
@@ -2423,7 +2445,7 @@
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
       <c r="B132" s="5"/>
       <c r="C132" s="1"/>
@@ -2431,7 +2453,7 @@
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
       <c r="B133" s="5"/>
       <c r="C133" s="1"/>
@@ -2441,6 +2463,43 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -2449,43 +2508,6 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2499,7 +2521,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2512,7 +2534,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="71">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -340,6 +340,20 @@
   </si>
   <si>
     <t>心好塞，哭哭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.部门管理树状表界面实现
+2.完成通过列表动态添加节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成背景图
+2.完成部门管理界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div分部出了点问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -775,20 +789,20 @@
   <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
-    <col min="4" max="4" width="43.25" customWidth="1"/>
-    <col min="5" max="5" width="26.25" customWidth="1"/>
-    <col min="6" max="6" width="29.625" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" customWidth="1"/>
+    <col min="5" max="5" width="26.21875" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
@@ -798,7 +812,7 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -818,7 +832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="81" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>42919</v>
       </c>
@@ -838,7 +852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="1" t="s">
@@ -854,7 +868,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
@@ -873,7 +887,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="1" t="s">
@@ -889,7 +903,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="1" t="s">
@@ -905,7 +919,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -925,7 +939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>42920</v>
       </c>
@@ -945,7 +959,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="1" t="s">
@@ -961,7 +975,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="1" t="s">
@@ -977,7 +991,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="1" t="s">
@@ -993,7 +1007,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1" t="s">
@@ -1009,7 +1023,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1029,7 +1043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>42921</v>
       </c>
@@ -1043,7 +1057,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="1" t="s">
@@ -1059,7 +1073,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="1" t="s">
@@ -1075,7 +1089,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="1" t="s">
@@ -1091,7 +1105,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="1" t="s">
@@ -1101,7 +1115,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
@@ -1121,7 +1135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>42922</v>
       </c>
@@ -1135,17 +1149,23 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="1" t="s">
@@ -1155,7 +1175,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="1" t="s">
@@ -1171,7 +1191,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="1" t="s">
@@ -1181,7 +1201,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
@@ -1201,7 +1221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>42923</v>
       </c>
@@ -1215,7 +1235,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="1" t="s">
@@ -1225,7 +1245,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="1" t="s">
@@ -1235,7 +1255,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="1" t="s">
@@ -1245,7 +1265,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="1" t="s">
@@ -1255,7 +1275,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>5</v>
       </c>
@@ -1275,7 +1295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>42924</v>
       </c>
@@ -1289,7 +1309,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="1" t="s">
@@ -1299,7 +1319,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="1" t="s">
@@ -1309,7 +1329,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="1" t="s">
@@ -1319,7 +1339,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="1" t="s">
@@ -1329,7 +1349,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>5</v>
       </c>
@@ -1349,7 +1369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>42925</v>
       </c>
@@ -1363,7 +1383,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="1" t="s">
@@ -1373,7 +1393,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="1" t="s">
@@ -1383,7 +1403,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="1" t="s">
@@ -1393,7 +1413,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="1" t="s">
@@ -1403,7 +1423,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>5</v>
       </c>
@@ -1423,7 +1443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>42926</v>
       </c>
@@ -1437,7 +1457,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="1" t="s">
@@ -1447,7 +1467,7 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="1" t="s">
@@ -1457,7 +1477,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="1" t="s">
@@ -1467,7 +1487,7 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="1" t="s">
@@ -1477,7 +1497,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>5</v>
       </c>
@@ -1497,7 +1517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>42927</v>
       </c>
@@ -1511,7 +1531,7 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="1" t="s">
@@ -1521,7 +1541,7 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="1" t="s">
@@ -1531,7 +1551,7 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="1" t="s">
@@ -1541,7 +1561,7 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
       <c r="C55" s="1" t="s">
@@ -1551,7 +1571,7 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>5</v>
       </c>
@@ -1571,7 +1591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>42928</v>
       </c>
@@ -1585,7 +1605,7 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="1" t="s">
@@ -1595,7 +1615,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
       <c r="C59" s="1" t="s">
@@ -1605,7 +1625,7 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="1" t="s">
@@ -1615,7 +1635,7 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
       <c r="C61" s="1" t="s">
@@ -1625,7 +1645,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>5</v>
       </c>
@@ -1645,7 +1665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>42929</v>
       </c>
@@ -1659,7 +1679,7 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="1" t="s">
@@ -1669,7 +1689,7 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
       <c r="C65" s="1" t="s">
@@ -1679,7 +1699,7 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
       <c r="C66" s="1" t="s">
@@ -1689,7 +1709,7 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
       <c r="C67" s="1" t="s">
@@ -1699,7 +1719,7 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>5</v>
       </c>
@@ -1719,7 +1739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>42930</v>
       </c>
@@ -1733,7 +1753,7 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
       <c r="C70" s="1" t="s">
@@ -1743,7 +1763,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="1" t="s">
@@ -1753,7 +1773,7 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
       <c r="C72" s="1" t="s">
@@ -1763,7 +1783,7 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
       <c r="C73" s="1" t="s">
@@ -1773,7 +1793,7 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>5</v>
       </c>
@@ -1793,7 +1813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>42931</v>
       </c>
@@ -1807,7 +1827,7 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="5"/>
       <c r="C76" s="1" t="s">
@@ -1817,7 +1837,7 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="5"/>
       <c r="C77" s="1" t="s">
@@ -1827,7 +1847,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="5"/>
       <c r="C78" s="1" t="s">
@@ -1837,7 +1857,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="5"/>
       <c r="C79" s="1" t="s">
@@ -1847,7 +1867,7 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>5</v>
       </c>
@@ -1867,7 +1887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>42932</v>
       </c>
@@ -1881,7 +1901,7 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="5"/>
       <c r="C82" s="1" t="s">
@@ -1891,7 +1911,7 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
       <c r="C83" s="1" t="s">
@@ -1901,7 +1921,7 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
       <c r="C84" s="1" t="s">
@@ -1911,7 +1931,7 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="5"/>
       <c r="C85" s="1" t="s">
@@ -1921,7 +1941,7 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>5</v>
       </c>
@@ -1941,7 +1961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>42933</v>
       </c>
@@ -1955,7 +1975,7 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="1" t="s">
@@ -1965,7 +1985,7 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="1" t="s">
@@ -1975,7 +1995,7 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="1" t="s">
@@ -1985,7 +2005,7 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="1" t="s">
@@ -1995,7 +2015,7 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>5</v>
       </c>
@@ -2015,7 +2035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>42934</v>
       </c>
@@ -2029,7 +2049,7 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="5"/>
       <c r="C94" s="1" t="s">
@@ -2039,7 +2059,7 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
       <c r="C95" s="1" t="s">
@@ -2049,7 +2069,7 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
       <c r="C96" s="1" t="s">
@@ -2059,7 +2079,7 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
       <c r="C97" s="1" t="s">
@@ -2069,7 +2089,7 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>5</v>
       </c>
@@ -2089,7 +2109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>42935</v>
       </c>
@@ -2103,7 +2123,7 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="1" t="s">
@@ -2113,7 +2133,7 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="1" t="s">
@@ -2123,7 +2143,7 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="5"/>
       <c r="C102" s="1" t="s">
@@ -2133,7 +2153,7 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="5"/>
       <c r="C103" s="1" t="s">
@@ -2143,7 +2163,7 @@
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>5</v>
       </c>
@@ -2163,7 +2183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>42936</v>
       </c>
@@ -2177,7 +2197,7 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
       <c r="C106" s="1" t="s">
@@ -2187,7 +2207,7 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
       <c r="C107" s="1" t="s">
@@ -2197,7 +2217,7 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="1" t="s">
@@ -2207,7 +2227,7 @@
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
       <c r="C109" s="1" t="s">
@@ -2217,7 +2237,7 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>5</v>
       </c>
@@ -2237,7 +2257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>42937</v>
       </c>
@@ -2251,7 +2271,7 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
       <c r="C112" s="1" t="s">
@@ -2261,7 +2281,7 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="5"/>
       <c r="C113" s="1" t="s">
@@ -2271,7 +2291,7 @@
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="5"/>
       <c r="C114" s="1" t="s">
@@ -2281,7 +2301,7 @@
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
       <c r="C115" s="1" t="s">
@@ -2291,7 +2311,7 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>5</v>
       </c>
@@ -2311,7 +2331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>42938</v>
       </c>
@@ -2325,7 +2345,7 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="5"/>
       <c r="C118" s="1" t="s">
@@ -2335,7 +2355,7 @@
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="5"/>
       <c r="C119" s="1" t="s">
@@ -2345,7 +2365,7 @@
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="5"/>
       <c r="C120" s="1" t="s">
@@ -2355,7 +2375,7 @@
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="5"/>
       <c r="C121" s="1" t="s">
@@ -2365,7 +2385,7 @@
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -2373,7 +2393,7 @@
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="5"/>
       <c r="C123" s="1"/>
@@ -2381,7 +2401,7 @@
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="5"/>
       <c r="C124" s="1"/>
@@ -2389,7 +2409,7 @@
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="5"/>
       <c r="C125" s="1"/>
@@ -2397,7 +2417,7 @@
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="5"/>
       <c r="C126" s="1"/>
@@ -2405,7 +2425,7 @@
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="5"/>
       <c r="C127" s="1"/>
@@ -2413,7 +2433,7 @@
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -2421,7 +2441,7 @@
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="5"/>
       <c r="C129" s="1"/>
@@ -2429,7 +2449,7 @@
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="5"/>
       <c r="C130" s="1"/>
@@ -2437,7 +2457,7 @@
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="5"/>
       <c r="C131" s="1"/>
@@ -2445,7 +2465,7 @@
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="5"/>
       <c r="C132" s="1"/>
@@ -2453,7 +2473,7 @@
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="5"/>
       <c r="C133" s="1"/>
@@ -2463,43 +2483,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -2508,6 +2491,43 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2521,7 +2541,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2534,7 +2554,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="68">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -324,6 +324,19 @@
   </si>
   <si>
     <t>CSS遇到了些问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续写DAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、实现部分类的增删改查
+2、修改完善数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库事先没有设计好</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -758,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1129,15 +1142,21 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="D23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
@@ -2441,6 +2460,43 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -2449,43 +2505,6 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="71">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -337,6 +337,18 @@
   </si>
   <si>
     <t>数据库事先没有设计好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成背景图
+2.完成部门管理界面</t>
+  </si>
+  <si>
+    <t>div分部出了点问题</t>
+  </si>
+  <si>
+    <t>1.部门管理树状表界面实现
+2.完成通过列表动态添加节点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -772,7 +784,7 @@
   <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1132,15 +1144,21 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="D22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
@@ -2460,43 +2478,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -2505,6 +2486,43 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="74">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,10 +217,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进行前端HTML，CSS,JS,AJAX的学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>有好多东西要学啊哭哭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -349,6 +345,27 @@
   <si>
     <t>1.部门管理树状表界面实现
 2.完成通过列表动态添加节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成人员管理界面的绘制
+2、为需求分析书绘制流程图，模块图
+3、学习HTML DOM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成翻页功能，查询功能
+2、学习阿贾克斯
+3、完善人员管理界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心好塞，哭哭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、进行前端html,css,js的学习
+2、学习高德地图的API</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -783,21 +800,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
-    <col min="4" max="4" width="43.21875" customWidth="1"/>
-    <col min="5" max="5" width="26.21875" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="43.25" customWidth="1"/>
+    <col min="5" max="5" width="26.25" customWidth="1"/>
+    <col min="6" max="6" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
@@ -807,7 +824,7 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -827,7 +844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>42919</v>
       </c>
@@ -847,30 +864,30 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>33</v>
@@ -879,17 +896,17 @@
         <v>34</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>35</v>
@@ -898,23 +915,23 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -934,7 +951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>42920</v>
       </c>
@@ -948,13 +965,13 @@
         <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="1" t="s">
@@ -970,7 +987,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="1" t="s">
@@ -986,39 +1003,39 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>40</v>
+      <c r="D12" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1038,7 +1055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>42921</v>
       </c>
@@ -1052,55 +1069,55 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="1" t="s">
@@ -1110,7 +1127,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
@@ -1130,7 +1147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>42922</v>
       </c>
@@ -1144,49 +1161,55 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="1" t="s">
@@ -1196,7 +1219,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
@@ -1216,7 +1239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>42923</v>
       </c>
@@ -1230,7 +1253,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="1" t="s">
@@ -1240,7 +1263,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="1" t="s">
@@ -1250,7 +1273,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="1" t="s">
@@ -1260,7 +1283,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="1" t="s">
@@ -1270,7 +1293,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>5</v>
       </c>
@@ -1290,7 +1313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>42924</v>
       </c>
@@ -1304,7 +1327,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="1" t="s">
@@ -1314,7 +1337,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="1" t="s">
@@ -1324,7 +1347,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="1" t="s">
@@ -1334,7 +1357,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="1" t="s">
@@ -1344,7 +1367,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>5</v>
       </c>
@@ -1364,7 +1387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>42925</v>
       </c>
@@ -1378,7 +1401,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="1" t="s">
@@ -1388,7 +1411,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="1" t="s">
@@ -1398,7 +1421,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="1" t="s">
@@ -1408,7 +1431,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="1" t="s">
@@ -1418,7 +1441,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>5</v>
       </c>
@@ -1438,7 +1461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
         <v>42926</v>
       </c>
@@ -1452,7 +1475,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="1" t="s">
@@ -1462,7 +1485,7 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="1" t="s">
@@ -1472,7 +1495,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="1" t="s">
@@ -1482,7 +1505,7 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="1" t="s">
@@ -1492,7 +1515,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>5</v>
       </c>
@@ -1512,7 +1535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="4">
         <v>42927</v>
       </c>
@@ -1526,7 +1549,7 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="1" t="s">
@@ -1536,7 +1559,7 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="1" t="s">
@@ -1546,7 +1569,7 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="1" t="s">
@@ -1556,7 +1579,7 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
       <c r="C55" s="1" t="s">
@@ -1566,7 +1589,7 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>5</v>
       </c>
@@ -1586,7 +1609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="4">
         <v>42928</v>
       </c>
@@ -1600,7 +1623,7 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="1" t="s">
@@ -1610,7 +1633,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
       <c r="C59" s="1" t="s">
@@ -1620,7 +1643,7 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="1" t="s">
@@ -1630,7 +1653,7 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
       <c r="C61" s="1" t="s">
@@ -1640,7 +1663,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
         <v>5</v>
       </c>
@@ -1660,7 +1683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="4">
         <v>42929</v>
       </c>
@@ -1674,7 +1697,7 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="1" t="s">
@@ -1684,7 +1707,7 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
       <c r="C65" s="1" t="s">
@@ -1694,7 +1717,7 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
       <c r="C66" s="1" t="s">
@@ -1704,7 +1727,7 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
       <c r="C67" s="1" t="s">
@@ -1714,7 +1737,7 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
         <v>5</v>
       </c>
@@ -1734,7 +1757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="4">
         <v>42930</v>
       </c>
@@ -1748,7 +1771,7 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
       <c r="C70" s="1" t="s">
@@ -1758,7 +1781,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="1" t="s">
@@ -1768,7 +1791,7 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
       <c r="C72" s="1" t="s">
@@ -1778,7 +1801,7 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
       <c r="C73" s="1" t="s">
@@ -1788,7 +1811,7 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
         <v>5</v>
       </c>
@@ -1808,7 +1831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="4">
         <v>42931</v>
       </c>
@@ -1822,7 +1845,7 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
       <c r="B76" s="5"/>
       <c r="C76" s="1" t="s">
@@ -1832,7 +1855,7 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
       <c r="B77" s="5"/>
       <c r="C77" s="1" t="s">
@@ -1842,7 +1865,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
       <c r="B78" s="5"/>
       <c r="C78" s="1" t="s">
@@ -1852,7 +1875,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
       <c r="B79" s="5"/>
       <c r="C79" s="1" t="s">
@@ -1862,7 +1885,7 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
         <v>5</v>
       </c>
@@ -1882,7 +1905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="4">
         <v>42932</v>
       </c>
@@ -1896,7 +1919,7 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
       <c r="B82" s="5"/>
       <c r="C82" s="1" t="s">
@@ -1906,7 +1929,7 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
       <c r="C83" s="1" t="s">
@@ -1916,7 +1939,7 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
       <c r="C84" s="1" t="s">
@@ -1926,7 +1949,7 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
       <c r="B85" s="5"/>
       <c r="C85" s="1" t="s">
@@ -1936,7 +1959,7 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="3" t="s">
         <v>5</v>
       </c>
@@ -1956,7 +1979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="4">
         <v>42933</v>
       </c>
@@ -1970,7 +1993,7 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="1" t="s">
@@ -1980,7 +2003,7 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="1" t="s">
@@ -1990,7 +2013,7 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="1" t="s">
@@ -2000,7 +2023,7 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="1" t="s">
@@ -2010,7 +2033,7 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="3" t="s">
         <v>5</v>
       </c>
@@ -2030,7 +2053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="4">
         <v>42934</v>
       </c>
@@ -2044,7 +2067,7 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
       <c r="B94" s="5"/>
       <c r="C94" s="1" t="s">
@@ -2054,7 +2077,7 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
       <c r="C95" s="1" t="s">
@@ -2064,7 +2087,7 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
       <c r="C96" s="1" t="s">
@@ -2074,7 +2097,7 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
       <c r="C97" s="1" t="s">
@@ -2084,7 +2107,7 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="3" t="s">
         <v>5</v>
       </c>
@@ -2104,7 +2127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="4">
         <v>42935</v>
       </c>
@@ -2118,7 +2141,7 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="1" t="s">
@@ -2128,7 +2151,7 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="1" t="s">
@@ -2138,7 +2161,7 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
       <c r="B102" s="5"/>
       <c r="C102" s="1" t="s">
@@ -2148,7 +2171,7 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
       <c r="B103" s="5"/>
       <c r="C103" s="1" t="s">
@@ -2158,7 +2181,7 @@
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" s="3" t="s">
         <v>5</v>
       </c>
@@ -2178,7 +2201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="4">
         <v>42936</v>
       </c>
@@ -2192,7 +2215,7 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
       <c r="C106" s="1" t="s">
@@ -2202,7 +2225,7 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
       <c r="C107" s="1" t="s">
@@ -2212,7 +2235,7 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="1" t="s">
@@ -2222,7 +2245,7 @@
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
       <c r="C109" s="1" t="s">
@@ -2232,7 +2255,7 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="3" t="s">
         <v>5</v>
       </c>
@@ -2252,7 +2275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="4">
         <v>42937</v>
       </c>
@@ -2266,7 +2289,7 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
       <c r="C112" s="1" t="s">
@@ -2276,7 +2299,7 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
       <c r="B113" s="5"/>
       <c r="C113" s="1" t="s">
@@ -2286,7 +2309,7 @@
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
       <c r="B114" s="5"/>
       <c r="C114" s="1" t="s">
@@ -2296,7 +2319,7 @@
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
       <c r="C115" s="1" t="s">
@@ -2306,7 +2329,7 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" s="3" t="s">
         <v>5</v>
       </c>
@@ -2326,7 +2349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" s="4">
         <v>42938</v>
       </c>
@@ -2340,7 +2363,7 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
       <c r="B118" s="5"/>
       <c r="C118" s="1" t="s">
@@ -2350,7 +2373,7 @@
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
       <c r="B119" s="5"/>
       <c r="C119" s="1" t="s">
@@ -2360,7 +2383,7 @@
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
       <c r="B120" s="5"/>
       <c r="C120" s="1" t="s">
@@ -2370,7 +2393,7 @@
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
       <c r="B121" s="5"/>
       <c r="C121" s="1" t="s">
@@ -2380,7 +2403,7 @@
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -2388,7 +2411,7 @@
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
       <c r="B123" s="5"/>
       <c r="C123" s="1"/>
@@ -2396,7 +2419,7 @@
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
       <c r="B124" s="5"/>
       <c r="C124" s="1"/>
@@ -2404,7 +2427,7 @@
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
       <c r="B125" s="5"/>
       <c r="C125" s="1"/>
@@ -2412,7 +2435,7 @@
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
       <c r="B126" s="5"/>
       <c r="C126" s="1"/>
@@ -2420,7 +2443,7 @@
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
       <c r="B127" s="5"/>
       <c r="C127" s="1"/>
@@ -2428,7 +2451,7 @@
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -2436,7 +2459,7 @@
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
       <c r="B129" s="5"/>
       <c r="C129" s="1"/>
@@ -2444,7 +2467,7 @@
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
       <c r="B130" s="5"/>
       <c r="C130" s="1"/>
@@ -2452,7 +2475,7 @@
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
       <c r="B131" s="5"/>
       <c r="C131" s="1"/>
@@ -2460,7 +2483,7 @@
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
       <c r="B132" s="5"/>
       <c r="C132" s="1"/>
@@ -2468,7 +2491,7 @@
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
       <c r="B133" s="5"/>
       <c r="C133" s="1"/>
@@ -2478,6 +2501,43 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -2486,43 +2546,6 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2536,7 +2559,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2549,7 +2572,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="88">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,40 +56,6 @@
   </si>
   <si>
     <t>学生5</t>
-  </si>
-  <si>
-    <r>
-      <t>开发日报(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>注：内容写的要清晰、明确，尽量详细</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发5组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>开发5组</t>
@@ -217,6 +183,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>进行前端HTML，CSS,JS,AJAX的学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>有好多东西要学啊哭哭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -281,10 +251,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成开发环境搭建，安装eclipse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、完成开发环境搭建，安装eclipse
 2、完善具体需求</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -315,36 +281,93 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>CSS遇到了些问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发5组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVA第五小组-贾克斯小组-开发日报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>学习AJAX，毕竟我们是贾克斯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CSS遇到了些问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>1、JQuery+AJAX学习
+2、前端后台数据传输理解
+3、开始部门、人员管理功能
+4、争取实现验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登录功能实现
+2、Util层实现
+3、数据库测试数据插入成功
+4、表单实时验证部分实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登录、主界面优化
+2、学习地图API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成部分二级子菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看高德API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习AJAX部分界面刷新以及实时验证
+虽然大家开心的学会了用了git
+但是网好像不怎么支持 所以还是变成了U盘拷贝- -
+希望明天网更好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭昱森</t>
+  </si>
+  <si>
+    <t>1.完成背景图
+2.完成部门管理界面</t>
+  </si>
+  <si>
+    <t>div分部出了点问题</t>
+  </si>
+  <si>
+    <t>杨浩雷</t>
   </si>
   <si>
     <t>继续写DAO</t>
+  </si>
+  <si>
+    <t>数据库事先没有设计好</t>
+  </si>
+  <si>
+    <t>蔺熙如</t>
+  </si>
+  <si>
+    <t>1、完成翻页功能，查询功能
+2、学习阿贾克斯
+3、完善人员管理界面</t>
+  </si>
+  <si>
+    <t>心好塞，哭哭</t>
+  </si>
+  <si>
+    <t>1.部门管理树状表界面实现
+2.完成通过列表动态添加节点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、实现部分类的增删改查
 2、修改完善数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库事先没有设计好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.完成背景图
-2.完成部门管理界面</t>
-  </si>
-  <si>
-    <t>div分部出了点问题</t>
-  </si>
-  <si>
-    <t>1.部门管理树状表界面实现
-2.完成通过列表动态添加节点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -354,18 +377,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、完成翻页功能，查询功能
-2、学习阿贾克斯
-3、完善人员管理界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>心好塞，哭哭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、进行前端html,css,js的学习
-2、学习高德地图的API</t>
+    <t>1、验证码实现完成
+2、阿贾克斯熟悉了一波，不错
+3、验证功能很舒服
+4、逻辑层+Dao层的部门管理以及人员管理大部分实现
+5、优化用户登录体验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成部分部门管理+人员管理
+2、完成个人资料管理
+3、评审顺利
+4、给组员们放个小假，明儿就不用加班了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交表单的方式多种多样，仍然
+在摸索
+如何更好地部分刷新以及跳转页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、界面成功嵌套
+2、注销实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续界面、体验优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签太多</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,7 +415,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,15 +434,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -448,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -462,6 +495,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -800,31 +836,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
-    <col min="4" max="4" width="43.25" customWidth="1"/>
-    <col min="5" max="5" width="26.25" customWidth="1"/>
-    <col min="6" max="6" width="29.625" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" customWidth="1"/>
+    <col min="5" max="5" width="26.21875" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -844,94 +880,92 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="81" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>42919</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -951,91 +985,91 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>42920</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>73</v>
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1055,79 +1089,91 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>42921</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
@@ -1147,79 +1193,91 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>42922</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="1" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="1" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
@@ -1239,61 +1297,61 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>42923</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>5</v>
       </c>
@@ -1313,61 +1371,61 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>42924</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>5</v>
       </c>
@@ -1387,61 +1445,61 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>42925</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>5</v>
       </c>
@@ -1461,61 +1519,61 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>42926</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>5</v>
       </c>
@@ -1535,61 +1593,61 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>42927</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
       <c r="C55" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>5</v>
       </c>
@@ -1609,61 +1667,61 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>42928</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
       <c r="C59" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
       <c r="C61" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>5</v>
       </c>
@@ -1683,61 +1741,61 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>42929</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
       <c r="C65" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
       <c r="C66" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
       <c r="C67" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>5</v>
       </c>
@@ -1757,12 +1815,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>42930</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>6</v>
@@ -1771,7 +1829,7 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
       <c r="C70" s="1" t="s">
@@ -1781,7 +1839,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="1" t="s">
@@ -1791,7 +1849,7 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
       <c r="C72" s="1" t="s">
@@ -1801,7 +1859,7 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
       <c r="C73" s="1" t="s">
@@ -1811,7 +1869,7 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>5</v>
       </c>
@@ -1831,12 +1889,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>42931</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>6</v>
@@ -1845,7 +1903,7 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="5"/>
       <c r="C76" s="1" t="s">
@@ -1855,7 +1913,7 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="5"/>
       <c r="C77" s="1" t="s">
@@ -1865,7 +1923,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="5"/>
       <c r="C78" s="1" t="s">
@@ -1875,7 +1933,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="5"/>
       <c r="C79" s="1" t="s">
@@ -1885,7 +1943,7 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>5</v>
       </c>
@@ -1905,12 +1963,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>42932</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>6</v>
@@ -1919,7 +1977,7 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="5"/>
       <c r="C82" s="1" t="s">
@@ -1929,7 +1987,7 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
       <c r="C83" s="1" t="s">
@@ -1939,7 +1997,7 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
       <c r="C84" s="1" t="s">
@@ -1949,7 +2007,7 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="5"/>
       <c r="C85" s="1" t="s">
@@ -1959,7 +2017,7 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>5</v>
       </c>
@@ -1979,12 +2037,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>42933</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>6</v>
@@ -1993,7 +2051,7 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="1" t="s">
@@ -2003,7 +2061,7 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="1" t="s">
@@ -2013,7 +2071,7 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="1" t="s">
@@ -2023,7 +2081,7 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="1" t="s">
@@ -2033,7 +2091,7 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>5</v>
       </c>
@@ -2053,12 +2111,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>42934</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>6</v>
@@ -2067,7 +2125,7 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="5"/>
       <c r="C94" s="1" t="s">
@@ -2077,7 +2135,7 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
       <c r="C95" s="1" t="s">
@@ -2087,7 +2145,7 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
       <c r="C96" s="1" t="s">
@@ -2097,7 +2155,7 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
       <c r="C97" s="1" t="s">
@@ -2107,7 +2165,7 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>5</v>
       </c>
@@ -2127,12 +2185,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>42935</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>6</v>
@@ -2141,7 +2199,7 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="1" t="s">
@@ -2151,7 +2209,7 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="1" t="s">
@@ -2161,7 +2219,7 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="5"/>
       <c r="C102" s="1" t="s">
@@ -2171,7 +2229,7 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="5"/>
       <c r="C103" s="1" t="s">
@@ -2181,7 +2239,7 @@
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>5</v>
       </c>
@@ -2201,12 +2259,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>42936</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>6</v>
@@ -2215,7 +2273,7 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
       <c r="C106" s="1" t="s">
@@ -2225,7 +2283,7 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
       <c r="C107" s="1" t="s">
@@ -2235,7 +2293,7 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="1" t="s">
@@ -2245,7 +2303,7 @@
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
       <c r="C109" s="1" t="s">
@@ -2255,7 +2313,7 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>5</v>
       </c>
@@ -2275,12 +2333,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>42937</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>6</v>
@@ -2289,7 +2347,7 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
       <c r="C112" s="1" t="s">
@@ -2299,7 +2357,7 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="5"/>
       <c r="C113" s="1" t="s">
@@ -2309,7 +2367,7 @@
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="5"/>
       <c r="C114" s="1" t="s">
@@ -2319,7 +2377,7 @@
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
       <c r="C115" s="1" t="s">
@@ -2329,7 +2387,7 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>5</v>
       </c>
@@ -2349,12 +2407,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>42938</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>6</v>
@@ -2363,7 +2421,7 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="5"/>
       <c r="C118" s="1" t="s">
@@ -2373,7 +2431,7 @@
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="5"/>
       <c r="C119" s="1" t="s">
@@ -2383,7 +2441,7 @@
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="5"/>
       <c r="C120" s="1" t="s">
@@ -2393,7 +2451,7 @@
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="5"/>
       <c r="C121" s="1" t="s">
@@ -2403,7 +2461,7 @@
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -2411,7 +2469,7 @@
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="5"/>
       <c r="C123" s="1"/>
@@ -2419,7 +2477,7 @@
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="5"/>
       <c r="C124" s="1"/>
@@ -2427,7 +2485,7 @@
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="5"/>
       <c r="C125" s="1"/>
@@ -2435,7 +2493,7 @@
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="5"/>
       <c r="C126" s="1"/>
@@ -2443,7 +2501,7 @@
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="5"/>
       <c r="C127" s="1"/>
@@ -2451,7 +2509,7 @@
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -2459,7 +2517,7 @@
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="5"/>
       <c r="C129" s="1"/>
@@ -2467,7 +2525,7 @@
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="5"/>
       <c r="C130" s="1"/>
@@ -2475,7 +2533,7 @@
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="5"/>
       <c r="C131" s="1"/>
@@ -2483,7 +2541,7 @@
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="5"/>
       <c r="C132" s="1"/>
@@ -2491,7 +2549,7 @@
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="5"/>
       <c r="C133" s="1"/>
@@ -2501,43 +2559,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -2546,6 +2567,43 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2559,7 +2617,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2572,7 +2630,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="91">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -408,6 +408,22 @@
   </si>
   <si>
     <t>标签太多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、实现tab换页技术
+2、实现人员管理，角色管理的界面
+3、实现JSP分离技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、将传入的数据结构写进界面
+2、实现翻页技术
+3、实现查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天感觉蛮开森~~~</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -836,21 +852,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
-    <col min="4" max="4" width="43.21875" customWidth="1"/>
-    <col min="5" max="5" width="26.21875" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="43.25" customWidth="1"/>
+    <col min="5" max="5" width="26.25" customWidth="1"/>
+    <col min="6" max="6" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>62</v>
       </c>
@@ -860,7 +876,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -880,7 +896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>42919</v>
       </c>
@@ -900,7 +916,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="1" t="s">
@@ -916,7 +932,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
@@ -933,7 +949,7 @@
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="1" t="s">
@@ -949,7 +965,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="1" t="s">
@@ -965,7 +981,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -985,7 +1001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>42920</v>
       </c>
@@ -1005,7 +1021,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="1" t="s">
@@ -1021,7 +1037,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="1" t="s">
@@ -1037,7 +1053,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="1" t="s">
@@ -1053,7 +1069,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1" t="s">
@@ -1069,7 +1085,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1089,7 +1105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="81" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>42921</v>
       </c>
@@ -1109,7 +1125,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="1" t="s">
@@ -1125,7 +1141,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="1" t="s">
@@ -1141,7 +1157,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="1" t="s">
@@ -1157,7 +1173,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="1" t="s">
@@ -1173,7 +1189,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
@@ -1193,7 +1209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>42922</v>
       </c>
@@ -1213,7 +1229,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="1" t="s">
@@ -1229,7 +1245,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="1" t="s">
@@ -1245,7 +1261,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="1" t="s">
@@ -1261,7 +1277,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="1" t="s">
@@ -1277,7 +1293,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
@@ -1297,7 +1313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>42923</v>
       </c>
@@ -1311,7 +1327,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="1" t="s">
@@ -1321,7 +1337,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="1" t="s">
@@ -1331,17 +1347,23 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="1" t="s">
@@ -1351,7 +1373,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>5</v>
       </c>
@@ -1371,7 +1393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>42924</v>
       </c>
@@ -1385,7 +1407,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="1" t="s">
@@ -1395,7 +1417,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="1" t="s">
@@ -1405,7 +1427,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="1" t="s">
@@ -1415,7 +1437,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="1" t="s">
@@ -1425,7 +1447,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>5</v>
       </c>
@@ -1445,7 +1467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>42925</v>
       </c>
@@ -1459,7 +1481,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="1" t="s">
@@ -1469,7 +1491,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="1" t="s">
@@ -1479,7 +1501,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="1" t="s">
@@ -1489,7 +1511,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="1" t="s">
@@ -1499,7 +1521,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>5</v>
       </c>
@@ -1519,7 +1541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
         <v>42926</v>
       </c>
@@ -1533,7 +1555,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="1" t="s">
@@ -1543,7 +1565,7 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="1" t="s">
@@ -1553,7 +1575,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="1" t="s">
@@ -1563,7 +1585,7 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="1" t="s">
@@ -1573,7 +1595,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>5</v>
       </c>
@@ -1593,7 +1615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="4">
         <v>42927</v>
       </c>
@@ -1607,7 +1629,7 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="1" t="s">
@@ -1617,7 +1639,7 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="1" t="s">
@@ -1627,7 +1649,7 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="1" t="s">
@@ -1637,7 +1659,7 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
       <c r="C55" s="1" t="s">
@@ -1647,7 +1669,7 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>5</v>
       </c>
@@ -1667,7 +1689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="4">
         <v>42928</v>
       </c>
@@ -1681,7 +1703,7 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="1" t="s">
@@ -1691,7 +1713,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
       <c r="C59" s="1" t="s">
@@ -1701,7 +1723,7 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="1" t="s">
@@ -1711,7 +1733,7 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
       <c r="C61" s="1" t="s">
@@ -1721,7 +1743,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
         <v>5</v>
       </c>
@@ -1741,7 +1763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="4">
         <v>42929</v>
       </c>
@@ -1755,7 +1777,7 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="1" t="s">
@@ -1765,7 +1787,7 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
       <c r="C65" s="1" t="s">
@@ -1775,7 +1797,7 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
       <c r="C66" s="1" t="s">
@@ -1785,7 +1807,7 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
       <c r="C67" s="1" t="s">
@@ -1795,7 +1817,7 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
         <v>5</v>
       </c>
@@ -1815,7 +1837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="4">
         <v>42930</v>
       </c>
@@ -1829,7 +1851,7 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
       <c r="C70" s="1" t="s">
@@ -1839,7 +1861,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="1" t="s">
@@ -1849,7 +1871,7 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
       <c r="C72" s="1" t="s">
@@ -1859,7 +1881,7 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
       <c r="C73" s="1" t="s">
@@ -1869,7 +1891,7 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
         <v>5</v>
       </c>
@@ -1889,7 +1911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="4">
         <v>42931</v>
       </c>
@@ -1903,7 +1925,7 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
       <c r="B76" s="5"/>
       <c r="C76" s="1" t="s">
@@ -1913,7 +1935,7 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
       <c r="B77" s="5"/>
       <c r="C77" s="1" t="s">
@@ -1923,7 +1945,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
       <c r="B78" s="5"/>
       <c r="C78" s="1" t="s">
@@ -1933,7 +1955,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
       <c r="B79" s="5"/>
       <c r="C79" s="1" t="s">
@@ -1943,7 +1965,7 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
         <v>5</v>
       </c>
@@ -1963,7 +1985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="4">
         <v>42932</v>
       </c>
@@ -1977,7 +1999,7 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
       <c r="B82" s="5"/>
       <c r="C82" s="1" t="s">
@@ -1987,7 +2009,7 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
       <c r="C83" s="1" t="s">
@@ -1997,7 +2019,7 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
       <c r="C84" s="1" t="s">
@@ -2007,7 +2029,7 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
       <c r="B85" s="5"/>
       <c r="C85" s="1" t="s">
@@ -2017,7 +2039,7 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="3" t="s">
         <v>5</v>
       </c>
@@ -2037,7 +2059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="4">
         <v>42933</v>
       </c>
@@ -2051,7 +2073,7 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="1" t="s">
@@ -2061,7 +2083,7 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="1" t="s">
@@ -2071,7 +2093,7 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="1" t="s">
@@ -2081,7 +2103,7 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="1" t="s">
@@ -2091,7 +2113,7 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="3" t="s">
         <v>5</v>
       </c>
@@ -2111,7 +2133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="4">
         <v>42934</v>
       </c>
@@ -2125,7 +2147,7 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
       <c r="B94" s="5"/>
       <c r="C94" s="1" t="s">
@@ -2135,7 +2157,7 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
       <c r="C95" s="1" t="s">
@@ -2145,7 +2167,7 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
       <c r="C96" s="1" t="s">
@@ -2155,7 +2177,7 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
       <c r="C97" s="1" t="s">
@@ -2165,7 +2187,7 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="3" t="s">
         <v>5</v>
       </c>
@@ -2185,7 +2207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="4">
         <v>42935</v>
       </c>
@@ -2199,7 +2221,7 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="1" t="s">
@@ -2209,7 +2231,7 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="1" t="s">
@@ -2219,7 +2241,7 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
       <c r="B102" s="5"/>
       <c r="C102" s="1" t="s">
@@ -2229,7 +2251,7 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
       <c r="B103" s="5"/>
       <c r="C103" s="1" t="s">
@@ -2239,7 +2261,7 @@
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" s="3" t="s">
         <v>5</v>
       </c>
@@ -2259,7 +2281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="4">
         <v>42936</v>
       </c>
@@ -2273,7 +2295,7 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
       <c r="C106" s="1" t="s">
@@ -2283,7 +2305,7 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
       <c r="C107" s="1" t="s">
@@ -2293,7 +2315,7 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="1" t="s">
@@ -2303,7 +2325,7 @@
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
       <c r="C109" s="1" t="s">
@@ -2313,7 +2335,7 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="3" t="s">
         <v>5</v>
       </c>
@@ -2333,7 +2355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="4">
         <v>42937</v>
       </c>
@@ -2347,7 +2369,7 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
       <c r="C112" s="1" t="s">
@@ -2357,7 +2379,7 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
       <c r="B113" s="5"/>
       <c r="C113" s="1" t="s">
@@ -2367,7 +2389,7 @@
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
       <c r="B114" s="5"/>
       <c r="C114" s="1" t="s">
@@ -2377,7 +2399,7 @@
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
       <c r="C115" s="1" t="s">
@@ -2387,7 +2409,7 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" s="3" t="s">
         <v>5</v>
       </c>
@@ -2407,7 +2429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" s="4">
         <v>42938</v>
       </c>
@@ -2421,7 +2443,7 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
       <c r="B118" s="5"/>
       <c r="C118" s="1" t="s">
@@ -2431,7 +2453,7 @@
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
       <c r="B119" s="5"/>
       <c r="C119" s="1" t="s">
@@ -2441,7 +2463,7 @@
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
       <c r="B120" s="5"/>
       <c r="C120" s="1" t="s">
@@ -2451,7 +2473,7 @@
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
       <c r="B121" s="5"/>
       <c r="C121" s="1" t="s">
@@ -2461,7 +2483,7 @@
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -2469,7 +2491,7 @@
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
       <c r="B123" s="5"/>
       <c r="C123" s="1"/>
@@ -2477,7 +2499,7 @@
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
       <c r="B124" s="5"/>
       <c r="C124" s="1"/>
@@ -2485,7 +2507,7 @@
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
       <c r="B125" s="5"/>
       <c r="C125" s="1"/>
@@ -2493,7 +2515,7 @@
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
       <c r="B126" s="5"/>
       <c r="C126" s="1"/>
@@ -2501,7 +2523,7 @@
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
       <c r="B127" s="5"/>
       <c r="C127" s="1"/>
@@ -2509,7 +2531,7 @@
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -2517,7 +2539,7 @@
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
       <c r="B129" s="5"/>
       <c r="C129" s="1"/>
@@ -2525,7 +2547,7 @@
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
       <c r="B130" s="5"/>
       <c r="C130" s="1"/>
@@ -2533,7 +2555,7 @@
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
       <c r="B131" s="5"/>
       <c r="C131" s="1"/>
@@ -2541,7 +2563,7 @@
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
       <c r="B132" s="5"/>
       <c r="C132" s="1"/>
@@ -2549,7 +2571,7 @@
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
       <c r="B133" s="5"/>
       <c r="C133" s="1"/>
@@ -2559,6 +2581,43 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -2567,43 +2626,6 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2617,7 +2639,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2630,7 +2652,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="94">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -424,6 +424,21 @@
   </si>
   <si>
     <t>今天感觉蛮开森~~~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成部门管理界面
+2、实现iframe功能
+3、美化界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、实现弹窗
+2、实现按钮功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组长强迫症严重，界面需求很饥渴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -856,17 +871,17 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
-    <col min="4" max="4" width="43.25" customWidth="1"/>
-    <col min="5" max="5" width="26.25" customWidth="1"/>
-    <col min="6" max="6" width="29.625" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" customWidth="1"/>
+    <col min="5" max="5" width="26.21875" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>62</v>
       </c>
@@ -876,7 +891,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -896,7 +911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="81" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>42919</v>
       </c>
@@ -916,7 +931,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="1" t="s">
@@ -932,7 +947,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
@@ -949,7 +964,7 @@
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="1" t="s">
@@ -965,7 +980,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="1" t="s">
@@ -981,7 +996,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1001,7 +1016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>42920</v>
       </c>
@@ -1021,7 +1036,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="1" t="s">
@@ -1037,7 +1052,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="1" t="s">
@@ -1053,7 +1068,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="1" t="s">
@@ -1069,7 +1084,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1" t="s">
@@ -1085,7 +1100,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1105,7 +1120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="81" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>42921</v>
       </c>
@@ -1125,7 +1140,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="1" t="s">
@@ -1141,7 +1156,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="1" t="s">
@@ -1157,7 +1172,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="1" t="s">
@@ -1173,7 +1188,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="1" t="s">
@@ -1189,7 +1204,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
@@ -1209,7 +1224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>42922</v>
       </c>
@@ -1229,7 +1244,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="1" t="s">
@@ -1245,7 +1260,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="1" t="s">
@@ -1261,7 +1276,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="1" t="s">
@@ -1277,7 +1292,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="1" t="s">
@@ -1293,7 +1308,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
@@ -1313,7 +1328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>42923</v>
       </c>
@@ -1327,17 +1342,23 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="1" t="s">
@@ -1347,7 +1368,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="1" t="s">
@@ -1363,7 +1384,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="1" t="s">
@@ -1373,7 +1394,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>5</v>
       </c>
@@ -1393,7 +1414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>42924</v>
       </c>
@@ -1407,7 +1428,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="1" t="s">
@@ -1417,7 +1438,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="1" t="s">
@@ -1427,7 +1448,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="1" t="s">
@@ -1437,7 +1458,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="1" t="s">
@@ -1447,7 +1468,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>5</v>
       </c>
@@ -1467,7 +1488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>42925</v>
       </c>
@@ -1481,7 +1502,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="1" t="s">
@@ -1491,7 +1512,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="1" t="s">
@@ -1501,7 +1522,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="1" t="s">
@@ -1511,7 +1532,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="1" t="s">
@@ -1521,7 +1542,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>5</v>
       </c>
@@ -1541,7 +1562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>42926</v>
       </c>
@@ -1555,7 +1576,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="1" t="s">
@@ -1565,7 +1586,7 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="1" t="s">
@@ -1575,7 +1596,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="1" t="s">
@@ -1585,7 +1606,7 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="1" t="s">
@@ -1595,7 +1616,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>5</v>
       </c>
@@ -1615,7 +1636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>42927</v>
       </c>
@@ -1629,7 +1650,7 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="1" t="s">
@@ -1639,7 +1660,7 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="1" t="s">
@@ -1649,7 +1670,7 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="1" t="s">
@@ -1659,7 +1680,7 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
       <c r="C55" s="1" t="s">
@@ -1669,7 +1690,7 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>5</v>
       </c>
@@ -1689,7 +1710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>42928</v>
       </c>
@@ -1703,7 +1724,7 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="1" t="s">
@@ -1713,7 +1734,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
       <c r="C59" s="1" t="s">
@@ -1723,7 +1744,7 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="1" t="s">
@@ -1733,7 +1754,7 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
       <c r="C61" s="1" t="s">
@@ -1743,7 +1764,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>5</v>
       </c>
@@ -1763,7 +1784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>42929</v>
       </c>
@@ -1777,7 +1798,7 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="1" t="s">
@@ -1787,7 +1808,7 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
       <c r="C65" s="1" t="s">
@@ -1797,7 +1818,7 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
       <c r="C66" s="1" t="s">
@@ -1807,7 +1828,7 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
       <c r="C67" s="1" t="s">
@@ -1817,7 +1838,7 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>5</v>
       </c>
@@ -1837,7 +1858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>42930</v>
       </c>
@@ -1851,7 +1872,7 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
       <c r="C70" s="1" t="s">
@@ -1861,7 +1882,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="1" t="s">
@@ -1871,7 +1892,7 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
       <c r="C72" s="1" t="s">
@@ -1881,7 +1902,7 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
       <c r="C73" s="1" t="s">
@@ -1891,7 +1912,7 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>5</v>
       </c>
@@ -1911,7 +1932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>42931</v>
       </c>
@@ -1925,7 +1946,7 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="5"/>
       <c r="C76" s="1" t="s">
@@ -1935,7 +1956,7 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="5"/>
       <c r="C77" s="1" t="s">
@@ -1945,7 +1966,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="5"/>
       <c r="C78" s="1" t="s">
@@ -1955,7 +1976,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="5"/>
       <c r="C79" s="1" t="s">
@@ -1965,7 +1986,7 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>5</v>
       </c>
@@ -1985,7 +2006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>42932</v>
       </c>
@@ -1999,7 +2020,7 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="5"/>
       <c r="C82" s="1" t="s">
@@ -2009,7 +2030,7 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
       <c r="C83" s="1" t="s">
@@ -2019,7 +2040,7 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
       <c r="C84" s="1" t="s">
@@ -2029,7 +2050,7 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="5"/>
       <c r="C85" s="1" t="s">
@@ -2039,7 +2060,7 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>5</v>
       </c>
@@ -2059,7 +2080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>42933</v>
       </c>
@@ -2073,7 +2094,7 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="1" t="s">
@@ -2083,7 +2104,7 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="1" t="s">
@@ -2093,7 +2114,7 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="1" t="s">
@@ -2103,7 +2124,7 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="1" t="s">
@@ -2113,7 +2134,7 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>5</v>
       </c>
@@ -2133,7 +2154,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>42934</v>
       </c>
@@ -2147,7 +2168,7 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="5"/>
       <c r="C94" s="1" t="s">
@@ -2157,7 +2178,7 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
       <c r="C95" s="1" t="s">
@@ -2167,7 +2188,7 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
       <c r="C96" s="1" t="s">
@@ -2177,7 +2198,7 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
       <c r="C97" s="1" t="s">
@@ -2187,7 +2208,7 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>5</v>
       </c>
@@ -2207,7 +2228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>42935</v>
       </c>
@@ -2221,7 +2242,7 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="1" t="s">
@@ -2231,7 +2252,7 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="1" t="s">
@@ -2241,7 +2262,7 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="5"/>
       <c r="C102" s="1" t="s">
@@ -2251,7 +2272,7 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="5"/>
       <c r="C103" s="1" t="s">
@@ -2261,7 +2282,7 @@
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>5</v>
       </c>
@@ -2281,7 +2302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>42936</v>
       </c>
@@ -2295,7 +2316,7 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
       <c r="C106" s="1" t="s">
@@ -2305,7 +2326,7 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
       <c r="C107" s="1" t="s">
@@ -2315,7 +2336,7 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="1" t="s">
@@ -2325,7 +2346,7 @@
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
       <c r="C109" s="1" t="s">
@@ -2335,7 +2356,7 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>5</v>
       </c>
@@ -2355,7 +2376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>42937</v>
       </c>
@@ -2369,7 +2390,7 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
       <c r="C112" s="1" t="s">
@@ -2379,7 +2400,7 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="5"/>
       <c r="C113" s="1" t="s">
@@ -2389,7 +2410,7 @@
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="5"/>
       <c r="C114" s="1" t="s">
@@ -2399,7 +2420,7 @@
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
       <c r="C115" s="1" t="s">
@@ -2409,7 +2430,7 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>5</v>
       </c>
@@ -2429,7 +2450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>42938</v>
       </c>
@@ -2443,7 +2464,7 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="5"/>
       <c r="C118" s="1" t="s">
@@ -2453,7 +2474,7 @@
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="5"/>
       <c r="C119" s="1" t="s">
@@ -2463,7 +2484,7 @@
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="5"/>
       <c r="C120" s="1" t="s">
@@ -2473,7 +2494,7 @@
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="5"/>
       <c r="C121" s="1" t="s">
@@ -2483,7 +2504,7 @@
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -2491,7 +2512,7 @@
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="5"/>
       <c r="C123" s="1"/>
@@ -2499,7 +2520,7 @@
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="5"/>
       <c r="C124" s="1"/>
@@ -2507,7 +2528,7 @@
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="5"/>
       <c r="C125" s="1"/>
@@ -2515,7 +2536,7 @@
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="5"/>
       <c r="C126" s="1"/>
@@ -2523,7 +2544,7 @@
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="5"/>
       <c r="C127" s="1"/>
@@ -2531,7 +2552,7 @@
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -2539,7 +2560,7 @@
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="5"/>
       <c r="C129" s="1"/>
@@ -2547,7 +2568,7 @@
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="5"/>
       <c r="C130" s="1"/>
@@ -2555,7 +2576,7 @@
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="5"/>
       <c r="C131" s="1"/>
@@ -2563,7 +2584,7 @@
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="5"/>
       <c r="C132" s="1"/>
@@ -2571,7 +2592,7 @@
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="5"/>
       <c r="C133" s="1"/>
@@ -2581,43 +2602,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -2626,6 +2610,43 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2639,7 +2660,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2652,7 +2673,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="103">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,28 +417,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>今天感觉蛮开森~~~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成部门管理界面
+2、实现iframe功能
+3、美化界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、实现弹窗
+2、实现按钮功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组长强迫症严重，界面需求很饥渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、部门管理+人员管理逻辑层实现，正在与界面
+合并ing
+2、完善注销、个人资料
+3、完成答辩。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、部门管理+人员管理实现
+2、个人资料修改实现
+3、角色管理实现（希望）
+明天又是肝代码的一天！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面层与逻辑层数据传输与部分
+刷新还需斟酌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成组长定的dao
+2、优化数据库、Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、实现模糊查询功能
+2、继续写dao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询这种功能还是需要提前定好需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、地图研究
+2、主界面优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1、将传入的数据结构写进界面
 2、实现翻页技术
 3、实现查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今天感觉蛮开森~~~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、完成部门管理界面
-2、实现iframe功能
-3、美化界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、实现弹窗
-2、实现按钮功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组长强迫症严重，界面需求很饥渴</t>
+    <t>实现地图插标签功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>css有些时候太不灵性..</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -867,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1328,7 +1374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>42923</v>
       </c>
@@ -1338,9 +1384,15 @@
       <c r="C27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="D27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
@@ -1349,24 +1401,30 @@
         <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="D29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
@@ -1378,21 +1436,27 @@
         <v>88</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="D31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
@@ -2602,6 +2666,43 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -2610,43 +2711,6 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="106">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -485,6 +485,19 @@
   </si>
   <si>
     <t>css有些时候太不灵性..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、继续写dao
+2、修改数据库的整体设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现role、point、road的DAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大规模修改数据库太痛苦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -913,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1502,15 +1515,21 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="D35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
@@ -2666,43 +2685,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -2711,6 +2693,43 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="109">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -498,6 +498,19 @@
   </si>
   <si>
     <t>大规模修改数据库太痛苦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、实现点位显示功能
+2、实现部门管理界面弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现点位添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没啥问题，我爱代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -927,7 +940,7 @@
   <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1505,15 +1518,21 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="D34" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
@@ -2685,6 +2704,43 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -2693,43 +2749,6 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="112">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -511,6 +511,20 @@
   </si>
   <si>
     <t>没啥问题，我爱代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、研究换页技术
+2、实现修改信息，黑名单报警的界面
+3、实现JSP分离技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续做界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组长好口怕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -939,21 +953,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
-    <col min="4" max="4" width="43.21875" customWidth="1"/>
-    <col min="5" max="5" width="26.21875" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="43.25" customWidth="1"/>
+    <col min="5" max="5" width="26.25" customWidth="1"/>
+    <col min="6" max="6" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>62</v>
       </c>
@@ -963,7 +977,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -983,7 +997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>42919</v>
       </c>
@@ -1003,7 +1017,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="1" t="s">
@@ -1019,7 +1033,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
@@ -1036,7 +1050,7 @@
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="1" t="s">
@@ -1052,7 +1066,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="1" t="s">
@@ -1068,7 +1082,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1088,7 +1102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>42920</v>
       </c>
@@ -1108,7 +1122,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="1" t="s">
@@ -1124,7 +1138,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="1" t="s">
@@ -1140,7 +1154,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="1" t="s">
@@ -1156,7 +1170,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1" t="s">
@@ -1172,7 +1186,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1192,7 +1206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="81" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>42921</v>
       </c>
@@ -1212,7 +1226,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="1" t="s">
@@ -1228,7 +1242,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="1" t="s">
@@ -1244,7 +1258,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="1" t="s">
@@ -1260,7 +1274,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="1" t="s">
@@ -1276,7 +1290,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
@@ -1296,7 +1310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>42922</v>
       </c>
@@ -1316,7 +1330,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="1" t="s">
@@ -1332,7 +1346,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="1" t="s">
@@ -1348,7 +1362,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="1" t="s">
@@ -1364,7 +1378,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="1" t="s">
@@ -1380,7 +1394,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
@@ -1400,7 +1414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>42923</v>
       </c>
@@ -1420,7 +1434,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="1" t="s">
@@ -1436,7 +1450,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="1" t="s">
@@ -1452,7 +1466,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="1" t="s">
@@ -1468,7 +1482,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="1" t="s">
@@ -1484,7 +1498,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>5</v>
       </c>
@@ -1504,7 +1518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>42924</v>
       </c>
@@ -1518,7 +1532,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="1" t="s">
@@ -1534,7 +1548,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="1" t="s">
@@ -1550,17 +1564,23 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="1" t="s">
@@ -1570,7 +1590,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>5</v>
       </c>
@@ -1590,7 +1610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>42925</v>
       </c>
@@ -1604,7 +1624,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="1" t="s">
@@ -1614,7 +1634,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="1" t="s">
@@ -1624,7 +1644,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="1" t="s">
@@ -1634,7 +1654,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="1" t="s">
@@ -1644,7 +1664,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>5</v>
       </c>
@@ -1664,7 +1684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
         <v>42926</v>
       </c>
@@ -1678,7 +1698,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="1" t="s">
@@ -1688,7 +1708,7 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="1" t="s">
@@ -1698,7 +1718,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="1" t="s">
@@ -1708,7 +1728,7 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="1" t="s">
@@ -1718,7 +1738,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>5</v>
       </c>
@@ -1738,7 +1758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="4">
         <v>42927</v>
       </c>
@@ -1752,7 +1772,7 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="1" t="s">
@@ -1762,7 +1782,7 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="1" t="s">
@@ -1772,7 +1792,7 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="1" t="s">
@@ -1782,7 +1802,7 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
       <c r="C55" s="1" t="s">
@@ -1792,7 +1812,7 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>5</v>
       </c>
@@ -1812,7 +1832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="4">
         <v>42928</v>
       </c>
@@ -1826,7 +1846,7 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="1" t="s">
@@ -1836,7 +1856,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
       <c r="C59" s="1" t="s">
@@ -1846,7 +1866,7 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="1" t="s">
@@ -1856,7 +1876,7 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
       <c r="C61" s="1" t="s">
@@ -1866,7 +1886,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
         <v>5</v>
       </c>
@@ -1886,7 +1906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="4">
         <v>42929</v>
       </c>
@@ -1900,7 +1920,7 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="1" t="s">
@@ -1910,7 +1930,7 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
       <c r="C65" s="1" t="s">
@@ -1920,7 +1940,7 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
       <c r="C66" s="1" t="s">
@@ -1930,7 +1950,7 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
       <c r="C67" s="1" t="s">
@@ -1940,7 +1960,7 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
         <v>5</v>
       </c>
@@ -1960,7 +1980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="4">
         <v>42930</v>
       </c>
@@ -1974,7 +1994,7 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
       <c r="C70" s="1" t="s">
@@ -1984,7 +2004,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="1" t="s">
@@ -1994,7 +2014,7 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
       <c r="C72" s="1" t="s">
@@ -2004,7 +2024,7 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
       <c r="C73" s="1" t="s">
@@ -2014,7 +2034,7 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
         <v>5</v>
       </c>
@@ -2034,7 +2054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="4">
         <v>42931</v>
       </c>
@@ -2048,7 +2068,7 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
       <c r="B76" s="5"/>
       <c r="C76" s="1" t="s">
@@ -2058,7 +2078,7 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
       <c r="B77" s="5"/>
       <c r="C77" s="1" t="s">
@@ -2068,7 +2088,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
       <c r="B78" s="5"/>
       <c r="C78" s="1" t="s">
@@ -2078,7 +2098,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
       <c r="B79" s="5"/>
       <c r="C79" s="1" t="s">
@@ -2088,7 +2108,7 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
         <v>5</v>
       </c>
@@ -2108,7 +2128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="4">
         <v>42932</v>
       </c>
@@ -2122,7 +2142,7 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
       <c r="B82" s="5"/>
       <c r="C82" s="1" t="s">
@@ -2132,7 +2152,7 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
       <c r="C83" s="1" t="s">
@@ -2142,7 +2162,7 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
       <c r="C84" s="1" t="s">
@@ -2152,7 +2172,7 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
       <c r="B85" s="5"/>
       <c r="C85" s="1" t="s">
@@ -2162,7 +2182,7 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="3" t="s">
         <v>5</v>
       </c>
@@ -2182,7 +2202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="4">
         <v>42933</v>
       </c>
@@ -2196,7 +2216,7 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="1" t="s">
@@ -2206,7 +2226,7 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="1" t="s">
@@ -2216,7 +2236,7 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="1" t="s">
@@ -2226,7 +2246,7 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="1" t="s">
@@ -2236,7 +2256,7 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="3" t="s">
         <v>5</v>
       </c>
@@ -2256,7 +2276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="4">
         <v>42934</v>
       </c>
@@ -2270,7 +2290,7 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
       <c r="B94" s="5"/>
       <c r="C94" s="1" t="s">
@@ -2280,7 +2300,7 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
       <c r="C95" s="1" t="s">
@@ -2290,7 +2310,7 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
       <c r="C96" s="1" t="s">
@@ -2300,7 +2320,7 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
       <c r="C97" s="1" t="s">
@@ -2310,7 +2330,7 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="3" t="s">
         <v>5</v>
       </c>
@@ -2330,7 +2350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="4">
         <v>42935</v>
       </c>
@@ -2344,7 +2364,7 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="1" t="s">
@@ -2354,7 +2374,7 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="1" t="s">
@@ -2364,7 +2384,7 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
       <c r="B102" s="5"/>
       <c r="C102" s="1" t="s">
@@ -2374,7 +2394,7 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
       <c r="B103" s="5"/>
       <c r="C103" s="1" t="s">
@@ -2384,7 +2404,7 @@
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" s="3" t="s">
         <v>5</v>
       </c>
@@ -2404,7 +2424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="4">
         <v>42936</v>
       </c>
@@ -2418,7 +2438,7 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
       <c r="C106" s="1" t="s">
@@ -2428,7 +2448,7 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
       <c r="C107" s="1" t="s">
@@ -2438,7 +2458,7 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="1" t="s">
@@ -2448,7 +2468,7 @@
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
       <c r="C109" s="1" t="s">
@@ -2458,7 +2478,7 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="3" t="s">
         <v>5</v>
       </c>
@@ -2478,7 +2498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="4">
         <v>42937</v>
       </c>
@@ -2492,7 +2512,7 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
       <c r="C112" s="1" t="s">
@@ -2502,7 +2522,7 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
       <c r="B113" s="5"/>
       <c r="C113" s="1" t="s">
@@ -2512,7 +2532,7 @@
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
       <c r="B114" s="5"/>
       <c r="C114" s="1" t="s">
@@ -2522,7 +2542,7 @@
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
       <c r="C115" s="1" t="s">
@@ -2532,7 +2552,7 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" s="3" t="s">
         <v>5</v>
       </c>
@@ -2552,7 +2572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" s="4">
         <v>42938</v>
       </c>
@@ -2566,7 +2586,7 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
       <c r="B118" s="5"/>
       <c r="C118" s="1" t="s">
@@ -2576,7 +2596,7 @@
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
       <c r="B119" s="5"/>
       <c r="C119" s="1" t="s">
@@ -2586,7 +2606,7 @@
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
       <c r="B120" s="5"/>
       <c r="C120" s="1" t="s">
@@ -2596,7 +2616,7 @@
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
       <c r="B121" s="5"/>
       <c r="C121" s="1" t="s">
@@ -2606,7 +2626,7 @@
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -2614,7 +2634,7 @@
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
       <c r="B123" s="5"/>
       <c r="C123" s="1"/>
@@ -2622,7 +2642,7 @@
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
       <c r="B124" s="5"/>
       <c r="C124" s="1"/>
@@ -2630,7 +2650,7 @@
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
       <c r="B125" s="5"/>
       <c r="C125" s="1"/>
@@ -2638,7 +2658,7 @@
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
       <c r="B126" s="5"/>
       <c r="C126" s="1"/>
@@ -2646,7 +2666,7 @@
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
       <c r="B127" s="5"/>
       <c r="C127" s="1"/>
@@ -2654,7 +2674,7 @@
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -2662,7 +2682,7 @@
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
       <c r="B129" s="5"/>
       <c r="C129" s="1"/>
@@ -2670,7 +2690,7 @@
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
       <c r="B130" s="5"/>
       <c r="C130" s="1"/>
@@ -2678,7 +2698,7 @@
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
       <c r="B131" s="5"/>
       <c r="C131" s="1"/>
@@ -2686,7 +2706,7 @@
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
       <c r="B132" s="5"/>
       <c r="C132" s="1"/>
@@ -2694,7 +2714,7 @@
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
       <c r="B133" s="5"/>
       <c r="C133" s="1"/>
@@ -2704,43 +2724,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -2749,6 +2732,43 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2762,7 +2782,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2775,7 +2795,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="121">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -525,6 +525,48 @@
   </si>
   <si>
     <t>组长好口怕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成卡口设备管理、道路代码管理、点位信息管理、个人信息管理、黑名单布控申请、黑名单布控审核的界面实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成逻辑实现
+2、完善界面
+3、实现JSP分离技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觉太少、要猝死感觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、实现role的分页
+2、实现department、user的Dao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成department、user的Dao
+2、实现role的分页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成过车表的Dao
+2、实现其他的分页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成role、point、road的Dao
+2、实现user的分页                                 3、学习主键生成策略并修改之前的自增长模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键生成策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没啥问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -953,21 +995,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
-    <col min="4" max="4" width="43.25" customWidth="1"/>
-    <col min="5" max="5" width="26.25" customWidth="1"/>
-    <col min="6" max="6" width="29.625" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" customWidth="1"/>
+    <col min="5" max="5" width="26.21875" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>62</v>
       </c>
@@ -977,7 +1019,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -997,7 +1039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="81" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>42919</v>
       </c>
@@ -1017,7 +1059,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="1" t="s">
@@ -1033,7 +1075,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
@@ -1050,7 +1092,7 @@
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="1" t="s">
@@ -1066,7 +1108,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="1" t="s">
@@ -1082,7 +1124,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1102,7 +1144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>42920</v>
       </c>
@@ -1122,7 +1164,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="1" t="s">
@@ -1138,7 +1180,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="1" t="s">
@@ -1154,7 +1196,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="1" t="s">
@@ -1170,7 +1212,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1" t="s">
@@ -1186,7 +1228,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1206,7 +1248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="81" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>42921</v>
       </c>
@@ -1226,7 +1268,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="1" t="s">
@@ -1242,7 +1284,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="1" t="s">
@@ -1258,7 +1300,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="1" t="s">
@@ -1274,7 +1316,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="1" t="s">
@@ -1290,7 +1332,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
@@ -1310,7 +1352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>42922</v>
       </c>
@@ -1330,7 +1372,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="1" t="s">
@@ -1346,7 +1388,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="1" t="s">
@@ -1362,7 +1404,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="1" t="s">
@@ -1378,7 +1420,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="1" t="s">
@@ -1394,7 +1436,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
@@ -1414,7 +1456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>42923</v>
       </c>
@@ -1434,7 +1476,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="1" t="s">
@@ -1450,7 +1492,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="1" t="s">
@@ -1466,7 +1508,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="1" t="s">
@@ -1482,7 +1524,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="1" t="s">
@@ -1498,7 +1540,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>5</v>
       </c>
@@ -1518,7 +1560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>42924</v>
       </c>
@@ -1532,7 +1574,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="1" t="s">
@@ -1548,7 +1590,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="1" t="s">
@@ -1564,7 +1606,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="1" t="s">
@@ -1580,7 +1622,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="1" t="s">
@@ -1590,7 +1632,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>5</v>
       </c>
@@ -1610,7 +1652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>42925</v>
       </c>
@@ -1624,7 +1666,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="1" t="s">
@@ -1634,27 +1676,39 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D41" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D42" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="1" t="s">
@@ -1664,7 +1718,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>5</v>
       </c>
@@ -1684,7 +1738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>42926</v>
       </c>
@@ -1698,7 +1752,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="1" t="s">
@@ -1708,17 +1762,23 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D47" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="1" t="s">
@@ -1728,7 +1788,7 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="1" t="s">
@@ -1738,7 +1798,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>5</v>
       </c>
@@ -1758,7 +1818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>42927</v>
       </c>
@@ -1772,7 +1832,7 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="1" t="s">
@@ -1782,7 +1842,7 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="1" t="s">
@@ -1792,7 +1852,7 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="1" t="s">
@@ -1802,7 +1862,7 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
       <c r="C55" s="1" t="s">
@@ -1812,7 +1872,7 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>5</v>
       </c>
@@ -1832,7 +1892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>42928</v>
       </c>
@@ -1846,7 +1906,7 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="1" t="s">
@@ -1856,7 +1916,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
       <c r="C59" s="1" t="s">
@@ -1866,7 +1926,7 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="1" t="s">
@@ -1876,7 +1936,7 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
       <c r="C61" s="1" t="s">
@@ -1886,7 +1946,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>5</v>
       </c>
@@ -1906,7 +1966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>42929</v>
       </c>
@@ -1920,7 +1980,7 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="1" t="s">
@@ -1930,7 +1990,7 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
       <c r="C65" s="1" t="s">
@@ -1940,7 +2000,7 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
       <c r="C66" s="1" t="s">
@@ -1950,7 +2010,7 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
       <c r="C67" s="1" t="s">
@@ -1960,7 +2020,7 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>5</v>
       </c>
@@ -1980,7 +2040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>42930</v>
       </c>
@@ -1994,7 +2054,7 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
       <c r="C70" s="1" t="s">
@@ -2004,7 +2064,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="1" t="s">
@@ -2014,7 +2074,7 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
       <c r="C72" s="1" t="s">
@@ -2024,7 +2084,7 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
       <c r="C73" s="1" t="s">
@@ -2034,7 +2094,7 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>5</v>
       </c>
@@ -2054,7 +2114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>42931</v>
       </c>
@@ -2068,7 +2128,7 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="5"/>
       <c r="C76" s="1" t="s">
@@ -2078,7 +2138,7 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="5"/>
       <c r="C77" s="1" t="s">
@@ -2088,7 +2148,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="5"/>
       <c r="C78" s="1" t="s">
@@ -2098,7 +2158,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="5"/>
       <c r="C79" s="1" t="s">
@@ -2108,7 +2168,7 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>5</v>
       </c>
@@ -2128,7 +2188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>42932</v>
       </c>
@@ -2142,7 +2202,7 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="5"/>
       <c r="C82" s="1" t="s">
@@ -2152,7 +2212,7 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
       <c r="C83" s="1" t="s">
@@ -2162,7 +2222,7 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
       <c r="C84" s="1" t="s">
@@ -2172,7 +2232,7 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="5"/>
       <c r="C85" s="1" t="s">
@@ -2182,7 +2242,7 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>5</v>
       </c>
@@ -2202,7 +2262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>42933</v>
       </c>
@@ -2216,7 +2276,7 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="1" t="s">
@@ -2226,7 +2286,7 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="1" t="s">
@@ -2236,7 +2296,7 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="1" t="s">
@@ -2246,7 +2306,7 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="1" t="s">
@@ -2256,7 +2316,7 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>5</v>
       </c>
@@ -2276,7 +2336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>42934</v>
       </c>
@@ -2290,7 +2350,7 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="5"/>
       <c r="C94" s="1" t="s">
@@ -2300,7 +2360,7 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
       <c r="C95" s="1" t="s">
@@ -2310,7 +2370,7 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
       <c r="C96" s="1" t="s">
@@ -2320,7 +2380,7 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
       <c r="C97" s="1" t="s">
@@ -2330,7 +2390,7 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>5</v>
       </c>
@@ -2350,7 +2410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>42935</v>
       </c>
@@ -2364,7 +2424,7 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="1" t="s">
@@ -2374,7 +2434,7 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="1" t="s">
@@ -2384,7 +2444,7 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="5"/>
       <c r="C102" s="1" t="s">
@@ -2394,7 +2454,7 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="5"/>
       <c r="C103" s="1" t="s">
@@ -2404,7 +2464,7 @@
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>5</v>
       </c>
@@ -2424,7 +2484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>42936</v>
       </c>
@@ -2438,7 +2498,7 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
       <c r="C106" s="1" t="s">
@@ -2448,7 +2508,7 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
       <c r="C107" s="1" t="s">
@@ -2458,7 +2518,7 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="1" t="s">
@@ -2468,7 +2528,7 @@
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
       <c r="C109" s="1" t="s">
@@ -2478,7 +2538,7 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>5</v>
       </c>
@@ -2498,7 +2558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>42937</v>
       </c>
@@ -2512,7 +2572,7 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
       <c r="C112" s="1" t="s">
@@ -2522,7 +2582,7 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="5"/>
       <c r="C113" s="1" t="s">
@@ -2532,7 +2592,7 @@
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="5"/>
       <c r="C114" s="1" t="s">
@@ -2542,7 +2602,7 @@
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
       <c r="C115" s="1" t="s">
@@ -2552,7 +2612,7 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>5</v>
       </c>
@@ -2572,7 +2632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>42938</v>
       </c>
@@ -2586,7 +2646,7 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="5"/>
       <c r="C118" s="1" t="s">
@@ -2596,7 +2656,7 @@
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="5"/>
       <c r="C119" s="1" t="s">
@@ -2606,7 +2666,7 @@
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="5"/>
       <c r="C120" s="1" t="s">
@@ -2616,7 +2676,7 @@
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="5"/>
       <c r="C121" s="1" t="s">
@@ -2626,7 +2686,7 @@
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -2634,7 +2694,7 @@
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="5"/>
       <c r="C123" s="1"/>
@@ -2642,7 +2702,7 @@
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="5"/>
       <c r="C124" s="1"/>
@@ -2650,7 +2710,7 @@
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="5"/>
       <c r="C125" s="1"/>
@@ -2658,7 +2718,7 @@
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="5"/>
       <c r="C126" s="1"/>
@@ -2666,7 +2726,7 @@
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="5"/>
       <c r="C127" s="1"/>
@@ -2674,7 +2734,7 @@
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -2682,7 +2742,7 @@
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="5"/>
       <c r="C129" s="1"/>
@@ -2690,7 +2750,7 @@
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="5"/>
       <c r="C130" s="1"/>
@@ -2698,7 +2758,7 @@
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="5"/>
       <c r="C131" s="1"/>
@@ -2706,7 +2766,7 @@
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="5"/>
       <c r="C132" s="1"/>
@@ -2714,7 +2774,7 @@
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="5"/>
       <c r="C133" s="1"/>
@@ -2724,6 +2784,43 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -2732,43 +2829,6 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2782,7 +2842,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2795,7 +2855,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="127">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -567,6 +567,33 @@
   </si>
   <si>
     <t>没啥问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成部分界面弹窗
+2、完成地图标记绘制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现添加点位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹窗中无法加载地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、实现点位添加界面（超酷）
+2、优化界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完善轨迹回放界面
+2、试一试高德API的其他好玩的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我爱代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -995,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1666,15 +1693,21 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="D40" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="41" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
@@ -1752,15 +1785,21 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
+      <c r="D46" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
@@ -2784,43 +2823,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -2829,6 +2831,43 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="148">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -289,10 +289,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JAVA第五小组-贾克斯小组-开发日报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学习AJAX，毕竟我们是贾克斯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -528,7 +524,148 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成卡口设备管理、道路代码管理、点位信息管理、个人信息管理、黑名单布控申请、黑名单布控审核的界面实现</t>
+    <t>1、部门管理实现
+2、个人资料修改实现
+3、稍熟练使用js、ajax、jquery等与后台交互(与自己交互)
+4、熟练使用验证功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午效率不是很高，犯困
+明儿尝试尝试咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、研究分页技术
+2、研究查询功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、人员管理实现
+2、角色管理实现
+3、提高效率，再肝一点，快一点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑缓存中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现添加点位</t>
+  </si>
+  <si>
+    <t>弹窗中无法加载地图</t>
+  </si>
+  <si>
+    <t>1、实现role的分页
+2、实现department、user的Dao</t>
+  </si>
+  <si>
+    <t>主键生成策略</t>
+  </si>
+  <si>
+    <t>觉太少、要猝死感觉</t>
+  </si>
+  <si>
+    <t>1、完成部分界面弹窗
+2、完成地图标记绘制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成role、point、road的Dao
+2、实现user的分页                                 3、学习主键生成策略并修改之前的自增长模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成卡口设备管理、道路代码管理、点位信息管
+理、个人信息管理、黑名单布控申请、黑名单布
+控审核的界面实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、人员管理实现
+2、角色管理实现部分
+3、翻页实现
+4、查询实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、角色管理实现
+2、道路管理实现
+3、点位管理实现（尽力）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很多功能要自己实现起来才发现
+逻辑得考虑很多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我爱代码</t>
+  </si>
+  <si>
+    <t>没啥问题</t>
+  </si>
+  <si>
+    <t>1、完善轨迹回放界面
+2、试一试高德API的其他好玩的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成department、user的Dao
+2、实现role的分页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成过车表的Dao
+2、实现其他的分页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、分页实现
+2、界面优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现部分逻辑层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑还需多多考虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、实现点位添加界面（超酷）
+2、优化界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、角色管理实现
+2、道路管理实现
+3、点位管理部分实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点位管理实现
+2、优化此阶段完成任务
+3、进入黑名单实现阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好像。。开始。。重复做功了。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组长真棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成黑名单所有界面的实现，加入开车小游戏，
+优化现阶段界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -538,62 +675,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>觉太少、要猝死感觉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、实现role的分页
-2、实现department、user的Dao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、完成department、user的Dao
-2、实现role的分页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、完成过车表的Dao
-2、实现其他的分页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、完成role、point、road的Dao
-2、实现user的分页                                 3、学习主键生成策略并修改之前的自增长模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键生成策略</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没啥问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、完成部分界面弹窗
-2、完成地图标记绘制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现添加点位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹窗中无法加载地图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、实现点位添加界面（超酷）
-2、优化界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、完善轨迹回放界面
-2、试一试高德API的其他好玩的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我爱代码</t>
+    <t>研究饼状图、柱状图，搜集欢迎页+小游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、实现部分逻辑
+2、优化查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断容错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试，考虑边界问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVA第五小组-肝死队小组-开发日报</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -667,7 +766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -687,6 +786,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1022,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1038,7 +1140,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1286,13 +1388,13 @@
         <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
@@ -1305,7 +1407,7 @@
         <v>59</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>60</v>
@@ -1350,13 +1452,13 @@
         <v>21</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1390,61 +1492,61 @@
         <v>24</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
@@ -1454,13 +1556,13 @@
         <v>21</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1494,13 +1596,13 @@
         <v>24</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
@@ -1510,13 +1612,13 @@
         <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
@@ -1526,13 +1628,13 @@
         <v>19</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
@@ -1542,13 +1644,13 @@
         <v>20</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
@@ -1558,13 +1660,13 @@
         <v>21</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1587,7 +1689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="72" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>42924</v>
       </c>
@@ -1597,9 +1699,15 @@
       <c r="C33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="D33" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
@@ -1608,13 +1716,13 @@
         <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
@@ -1624,13 +1732,13 @@
         <v>19</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
@@ -1640,24 +1748,30 @@
         <v>20</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="D37" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
@@ -1679,7 +1793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>42925</v>
       </c>
@@ -1689,9 +1803,15 @@
       <c r="C39" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="D39" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
@@ -1700,13 +1820,13 @@
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
@@ -1716,13 +1836,13 @@
         <v>19</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
@@ -1732,24 +1852,30 @@
         <v>20</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+      <c r="D43" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
@@ -1771,7 +1897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>42926</v>
       </c>
@@ -1781,9 +1907,15 @@
       <c r="C45" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="D45" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="46" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
@@ -1792,13 +1924,13 @@
         <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
@@ -1808,34 +1940,46 @@
         <v>19</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D48" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
+      <c r="D49" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
@@ -2823,6 +2967,43 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -2831,43 +3012,6 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="157">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -693,6 +693,48 @@
   </si>
   <si>
     <t>JAVA第五小组-肝死队小组-开发日报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、实现轨迹回放界面
+2、实现黑名单部分弹窗
+3、实现点位添加部分功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现点位添加部分功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傻逼组长又要改界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、实现点位分页
+2、继续写Dao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、黑名单分页
+2、过车表分页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、做欢迎界面
+2、做小游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、研究饼图
+2、研究柱状图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组长太变态，老淫魔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -775,6 +817,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -786,9 +831,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1124,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1139,14 +1181,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1169,10 +1211,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>42919</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1189,8 +1231,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
@@ -1205,8 +1247,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1222,8 +1264,8 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1238,8 +1280,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1274,10 +1316,10 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>42920</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1294,8 +1336,8 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1310,8 +1352,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1326,8 +1368,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1342,8 +1384,8 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1378,10 +1420,10 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>42921</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1398,8 +1440,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1414,8 +1456,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
@@ -1430,8 +1472,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1446,8 +1488,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="1" t="s">
         <v>21</v>
       </c>
@@ -1482,10 +1524,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="5">
         <v>42922</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1502,8 +1544,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="1" t="s">
         <v>69</v>
       </c>
@@ -1518,8 +1560,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="1" t="s">
         <v>72</v>
       </c>
@@ -1534,8 +1576,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="1" t="s">
         <v>75</v>
       </c>
@@ -1550,8 +1592,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="1" t="s">
         <v>21</v>
       </c>
@@ -1586,10 +1628,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="A27" s="5">
         <v>42923</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1606,8 +1648,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="1" t="s">
         <v>25</v>
       </c>
@@ -1622,8 +1664,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="1" t="s">
         <v>19</v>
       </c>
@@ -1638,8 +1680,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="1" t="s">
         <v>20</v>
       </c>
@@ -1654,8 +1696,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
       <c r="C31" s="1" t="s">
         <v>21</v>
       </c>
@@ -1690,10 +1732,10 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="72" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="A33" s="5">
         <v>42924</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1710,8 +1752,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
       <c r="C34" s="1" t="s">
         <v>25</v>
       </c>
@@ -1726,8 +1768,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
       <c r="C35" s="1" t="s">
         <v>19</v>
       </c>
@@ -1742,8 +1784,8 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="5"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="6"/>
       <c r="C36" s="1" t="s">
         <v>20</v>
       </c>
@@ -1758,8 +1800,8 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
       <c r="C37" s="1" t="s">
         <v>21</v>
       </c>
@@ -1794,10 +1836,10 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+      <c r="A39" s="5">
         <v>42925</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -1814,8 +1856,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="5"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
       <c r="C40" s="1" t="s">
         <v>25</v>
       </c>
@@ -1830,8 +1872,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="6"/>
       <c r="C41" s="1" t="s">
         <v>19</v>
       </c>
@@ -1846,8 +1888,8 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="5"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="6"/>
       <c r="C42" s="1" t="s">
         <v>20</v>
       </c>
@@ -1862,8 +1904,8 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="5"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="6"/>
       <c r="C43" s="1" t="s">
         <v>21</v>
       </c>
@@ -1898,16 +1940,16 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+      <c r="A45" s="5">
         <v>42926</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="4" t="s">
         <v>137</v>
       </c>
       <c r="E45" s="2" t="s">
@@ -1918,8 +1960,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="5"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="6"/>
       <c r="C46" s="1" t="s">
         <v>25</v>
       </c>
@@ -1934,8 +1976,8 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="5"/>
+      <c r="A47" s="5"/>
+      <c r="B47" s="6"/>
       <c r="C47" s="1" t="s">
         <v>19</v>
       </c>
@@ -1950,8 +1992,8 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="5"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="6"/>
       <c r="C48" s="1" t="s">
         <v>20</v>
       </c>
@@ -1966,8 +2008,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="5"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="6"/>
       <c r="C49" s="1" t="s">
         <v>21</v>
       </c>
@@ -2002,10 +2044,10 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+      <c r="A51" s="5">
         <v>42927</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -2015,39 +2057,57 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="5"/>
+    <row r="52" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+      <c r="B52" s="6"/>
       <c r="C52" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="5"/>
+      <c r="D52" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+      <c r="B53" s="6"/>
       <c r="C53" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="5"/>
+      <c r="D53" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="B54" s="6"/>
       <c r="C54" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
+      <c r="D54" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="5"/>
+      <c r="A55" s="5"/>
+      <c r="B55" s="6"/>
       <c r="C55" s="1" t="s">
         <v>21</v>
       </c>
@@ -2076,10 +2136,10 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
+      <c r="A57" s="5">
         <v>42928</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -2090,8 +2150,8 @@
       <c r="F57" s="1"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="5"/>
+      <c r="A58" s="5"/>
+      <c r="B58" s="6"/>
       <c r="C58" s="1" t="s">
         <v>25</v>
       </c>
@@ -2100,8 +2160,8 @@
       <c r="F58" s="1"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="5"/>
+      <c r="A59" s="5"/>
+      <c r="B59" s="6"/>
       <c r="C59" s="1" t="s">
         <v>19</v>
       </c>
@@ -2110,8 +2170,8 @@
       <c r="F59" s="1"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="5"/>
+      <c r="A60" s="5"/>
+      <c r="B60" s="6"/>
       <c r="C60" s="1" t="s">
         <v>20</v>
       </c>
@@ -2120,8 +2180,8 @@
       <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="5"/>
+      <c r="A61" s="5"/>
+      <c r="B61" s="6"/>
       <c r="C61" s="1" t="s">
         <v>21</v>
       </c>
@@ -2150,10 +2210,10 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
+      <c r="A63" s="5">
         <v>42929</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -2164,8 +2224,8 @@
       <c r="F63" s="1"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="5"/>
+      <c r="A64" s="5"/>
+      <c r="B64" s="6"/>
       <c r="C64" s="1" t="s">
         <v>25</v>
       </c>
@@ -2174,8 +2234,8 @@
       <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="5"/>
+      <c r="A65" s="5"/>
+      <c r="B65" s="6"/>
       <c r="C65" s="1" t="s">
         <v>19</v>
       </c>
@@ -2184,8 +2244,8 @@
       <c r="F65" s="1"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="5"/>
+      <c r="A66" s="5"/>
+      <c r="B66" s="6"/>
       <c r="C66" s="1" t="s">
         <v>20</v>
       </c>
@@ -2194,8 +2254,8 @@
       <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="5"/>
+      <c r="A67" s="5"/>
+      <c r="B67" s="6"/>
       <c r="C67" s="1" t="s">
         <v>21</v>
       </c>
@@ -2224,10 +2284,10 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
+      <c r="A69" s="5">
         <v>42930</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -2238,8 +2298,8 @@
       <c r="F69" s="1"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="B70" s="5"/>
+      <c r="A70" s="5"/>
+      <c r="B70" s="6"/>
       <c r="C70" s="1" t="s">
         <v>7</v>
       </c>
@@ -2248,8 +2308,8 @@
       <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="B71" s="5"/>
+      <c r="A71" s="5"/>
+      <c r="B71" s="6"/>
       <c r="C71" s="1" t="s">
         <v>8</v>
       </c>
@@ -2258,8 +2318,8 @@
       <c r="F71" s="1"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-      <c r="B72" s="5"/>
+      <c r="A72" s="5"/>
+      <c r="B72" s="6"/>
       <c r="C72" s="1" t="s">
         <v>9</v>
       </c>
@@ -2268,8 +2328,8 @@
       <c r="F72" s="1"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-      <c r="B73" s="5"/>
+      <c r="A73" s="5"/>
+      <c r="B73" s="6"/>
       <c r="C73" s="1" t="s">
         <v>10</v>
       </c>
@@ -2298,10 +2358,10 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
+      <c r="A75" s="5">
         <v>42931</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -2312,8 +2372,8 @@
       <c r="F75" s="1"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-      <c r="B76" s="5"/>
+      <c r="A76" s="5"/>
+      <c r="B76" s="6"/>
       <c r="C76" s="1" t="s">
         <v>7</v>
       </c>
@@ -2322,8 +2382,8 @@
       <c r="F76" s="1"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
-      <c r="B77" s="5"/>
+      <c r="A77" s="5"/>
+      <c r="B77" s="6"/>
       <c r="C77" s="1" t="s">
         <v>8</v>
       </c>
@@ -2332,8 +2392,8 @@
       <c r="F77" s="1"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
-      <c r="B78" s="5"/>
+      <c r="A78" s="5"/>
+      <c r="B78" s="6"/>
       <c r="C78" s="1" t="s">
         <v>9</v>
       </c>
@@ -2342,8 +2402,8 @@
       <c r="F78" s="1"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
-      <c r="B79" s="5"/>
+      <c r="A79" s="5"/>
+      <c r="B79" s="6"/>
       <c r="C79" s="1" t="s">
         <v>10</v>
       </c>
@@ -2372,10 +2432,10 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="4">
+      <c r="A81" s="5">
         <v>42932</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -2386,8 +2446,8 @@
       <c r="F81" s="1"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
-      <c r="B82" s="5"/>
+      <c r="A82" s="5"/>
+      <c r="B82" s="6"/>
       <c r="C82" s="1" t="s">
         <v>7</v>
       </c>
@@ -2396,8 +2456,8 @@
       <c r="F82" s="1"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
-      <c r="B83" s="5"/>
+      <c r="A83" s="5"/>
+      <c r="B83" s="6"/>
       <c r="C83" s="1" t="s">
         <v>8</v>
       </c>
@@ -2406,8 +2466,8 @@
       <c r="F83" s="1"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
-      <c r="B84" s="5"/>
+      <c r="A84" s="5"/>
+      <c r="B84" s="6"/>
       <c r="C84" s="1" t="s">
         <v>9</v>
       </c>
@@ -2416,8 +2476,8 @@
       <c r="F84" s="1"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
-      <c r="B85" s="5"/>
+      <c r="A85" s="5"/>
+      <c r="B85" s="6"/>
       <c r="C85" s="1" t="s">
         <v>10</v>
       </c>
@@ -2446,10 +2506,10 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="4">
+      <c r="A87" s="5">
         <v>42933</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -2460,8 +2520,8 @@
       <c r="F87" s="1"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
-      <c r="B88" s="5"/>
+      <c r="A88" s="5"/>
+      <c r="B88" s="6"/>
       <c r="C88" s="1" t="s">
         <v>7</v>
       </c>
@@ -2470,8 +2530,8 @@
       <c r="F88" s="1"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
-      <c r="B89" s="5"/>
+      <c r="A89" s="5"/>
+      <c r="B89" s="6"/>
       <c r="C89" s="1" t="s">
         <v>8</v>
       </c>
@@ -2480,8 +2540,8 @@
       <c r="F89" s="1"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
-      <c r="B90" s="5"/>
+      <c r="A90" s="5"/>
+      <c r="B90" s="6"/>
       <c r="C90" s="1" t="s">
         <v>9</v>
       </c>
@@ -2490,8 +2550,8 @@
       <c r="F90" s="1"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
-      <c r="B91" s="5"/>
+      <c r="A91" s="5"/>
+      <c r="B91" s="6"/>
       <c r="C91" s="1" t="s">
         <v>10</v>
       </c>
@@ -2520,10 +2580,10 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="4">
+      <c r="A93" s="5">
         <v>42934</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -2534,8 +2594,8 @@
       <c r="F93" s="1"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="4"/>
-      <c r="B94" s="5"/>
+      <c r="A94" s="5"/>
+      <c r="B94" s="6"/>
       <c r="C94" s="1" t="s">
         <v>7</v>
       </c>
@@ -2544,8 +2604,8 @@
       <c r="F94" s="1"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
-      <c r="B95" s="5"/>
+      <c r="A95" s="5"/>
+      <c r="B95" s="6"/>
       <c r="C95" s="1" t="s">
         <v>8</v>
       </c>
@@ -2554,8 +2614,8 @@
       <c r="F95" s="1"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="4"/>
-      <c r="B96" s="5"/>
+      <c r="A96" s="5"/>
+      <c r="B96" s="6"/>
       <c r="C96" s="1" t="s">
         <v>9</v>
       </c>
@@ -2564,8 +2624,8 @@
       <c r="F96" s="1"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
-      <c r="B97" s="5"/>
+      <c r="A97" s="5"/>
+      <c r="B97" s="6"/>
       <c r="C97" s="1" t="s">
         <v>10</v>
       </c>
@@ -2594,10 +2654,10 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="4">
+      <c r="A99" s="5">
         <v>42935</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C99" s="1" t="s">
@@ -2608,8 +2668,8 @@
       <c r="F99" s="1"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="4"/>
-      <c r="B100" s="5"/>
+      <c r="A100" s="5"/>
+      <c r="B100" s="6"/>
       <c r="C100" s="1" t="s">
         <v>7</v>
       </c>
@@ -2618,8 +2678,8 @@
       <c r="F100" s="1"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
-      <c r="B101" s="5"/>
+      <c r="A101" s="5"/>
+      <c r="B101" s="6"/>
       <c r="C101" s="1" t="s">
         <v>8</v>
       </c>
@@ -2628,8 +2688,8 @@
       <c r="F101" s="1"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="4"/>
-      <c r="B102" s="5"/>
+      <c r="A102" s="5"/>
+      <c r="B102" s="6"/>
       <c r="C102" s="1" t="s">
         <v>9</v>
       </c>
@@ -2638,8 +2698,8 @@
       <c r="F102" s="1"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="4"/>
-      <c r="B103" s="5"/>
+      <c r="A103" s="5"/>
+      <c r="B103" s="6"/>
       <c r="C103" s="1" t="s">
         <v>10</v>
       </c>
@@ -2668,10 +2728,10 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="4">
+      <c r="A105" s="5">
         <v>42936</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C105" s="1" t="s">
@@ -2682,8 +2742,8 @@
       <c r="F105" s="1"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="4"/>
-      <c r="B106" s="5"/>
+      <c r="A106" s="5"/>
+      <c r="B106" s="6"/>
       <c r="C106" s="1" t="s">
         <v>7</v>
       </c>
@@ -2692,8 +2752,8 @@
       <c r="F106" s="1"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="4"/>
-      <c r="B107" s="5"/>
+      <c r="A107" s="5"/>
+      <c r="B107" s="6"/>
       <c r="C107" s="1" t="s">
         <v>8</v>
       </c>
@@ -2702,8 +2762,8 @@
       <c r="F107" s="1"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="4"/>
-      <c r="B108" s="5"/>
+      <c r="A108" s="5"/>
+      <c r="B108" s="6"/>
       <c r="C108" s="1" t="s">
         <v>9</v>
       </c>
@@ -2712,8 +2772,8 @@
       <c r="F108" s="1"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="4"/>
-      <c r="B109" s="5"/>
+      <c r="A109" s="5"/>
+      <c r="B109" s="6"/>
       <c r="C109" s="1" t="s">
         <v>10</v>
       </c>
@@ -2742,10 +2802,10 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="4">
+      <c r="A111" s="5">
         <v>42937</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C111" s="1" t="s">
@@ -2756,8 +2816,8 @@
       <c r="F111" s="1"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="4"/>
-      <c r="B112" s="5"/>
+      <c r="A112" s="5"/>
+      <c r="B112" s="6"/>
       <c r="C112" s="1" t="s">
         <v>7</v>
       </c>
@@ -2766,8 +2826,8 @@
       <c r="F112" s="1"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="4"/>
-      <c r="B113" s="5"/>
+      <c r="A113" s="5"/>
+      <c r="B113" s="6"/>
       <c r="C113" s="1" t="s">
         <v>8</v>
       </c>
@@ -2776,8 +2836,8 @@
       <c r="F113" s="1"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="4"/>
-      <c r="B114" s="5"/>
+      <c r="A114" s="5"/>
+      <c r="B114" s="6"/>
       <c r="C114" s="1" t="s">
         <v>9</v>
       </c>
@@ -2786,8 +2846,8 @@
       <c r="F114" s="1"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="4"/>
-      <c r="B115" s="5"/>
+      <c r="A115" s="5"/>
+      <c r="B115" s="6"/>
       <c r="C115" s="1" t="s">
         <v>10</v>
       </c>
@@ -2816,10 +2876,10 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="4">
+      <c r="A117" s="5">
         <v>42938</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -2830,8 +2890,8 @@
       <c r="F117" s="1"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="4"/>
-      <c r="B118" s="5"/>
+      <c r="A118" s="5"/>
+      <c r="B118" s="6"/>
       <c r="C118" s="1" t="s">
         <v>7</v>
       </c>
@@ -2840,8 +2900,8 @@
       <c r="F118" s="1"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="4"/>
-      <c r="B119" s="5"/>
+      <c r="A119" s="5"/>
+      <c r="B119" s="6"/>
       <c r="C119" s="1" t="s">
         <v>8</v>
       </c>
@@ -2850,8 +2910,8 @@
       <c r="F119" s="1"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="4"/>
-      <c r="B120" s="5"/>
+      <c r="A120" s="5"/>
+      <c r="B120" s="6"/>
       <c r="C120" s="1" t="s">
         <v>9</v>
       </c>
@@ -2860,8 +2920,8 @@
       <c r="F120" s="1"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="4"/>
-      <c r="B121" s="5"/>
+      <c r="A121" s="5"/>
+      <c r="B121" s="6"/>
       <c r="C121" s="1" t="s">
         <v>10</v>
       </c>
@@ -2878,40 +2938,40 @@
       <c r="F122" s="3"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="4"/>
-      <c r="B123" s="5"/>
+      <c r="A123" s="5"/>
+      <c r="B123" s="6"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="4"/>
-      <c r="B124" s="5"/>
+      <c r="A124" s="5"/>
+      <c r="B124" s="6"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="4"/>
-      <c r="B125" s="5"/>
+      <c r="A125" s="5"/>
+      <c r="B125" s="6"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="4"/>
-      <c r="B126" s="5"/>
+      <c r="A126" s="5"/>
+      <c r="B126" s="6"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="4"/>
-      <c r="B127" s="5"/>
+      <c r="A127" s="5"/>
+      <c r="B127" s="6"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -2926,40 +2986,40 @@
       <c r="F128" s="3"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="4"/>
-      <c r="B129" s="5"/>
+      <c r="A129" s="5"/>
+      <c r="B129" s="6"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="4"/>
-      <c r="B130" s="5"/>
+      <c r="A130" s="5"/>
+      <c r="B130" s="6"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="4"/>
-      <c r="B131" s="5"/>
+      <c r="A131" s="5"/>
+      <c r="B131" s="6"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="4"/>
-      <c r="B132" s="5"/>
+      <c r="A132" s="5"/>
+      <c r="B132" s="6"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="4"/>
-      <c r="B133" s="5"/>
+      <c r="A133" s="5"/>
+      <c r="B133" s="6"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -2967,43 +3027,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -3012,6 +3035,43 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="163">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -735,6 +735,35 @@
   </si>
   <si>
     <t>组长太变态，老淫魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点位管理实现
+2、现阶段任务测试、优化通过
+3、黑名单阶段启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、黑名单完成(肝肝肝)
+2、完成修改密码
+3、答辩顺利。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一些细节需要考虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、现阶段完成功能测试
+2、细节优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没啥问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入黑名单实现阶段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1167,7 +1196,7 @@
   <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2043,7 +2072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>42927</v>
       </c>
@@ -2053,9 +2082,15 @@
       <c r="C51" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
+      <c r="D51" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="52" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
@@ -2105,15 +2140,21 @@
         <v>156</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="6"/>
       <c r="C55" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
+      <c r="D55" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
@@ -3027,6 +3068,43 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -3035,43 +3113,6 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="166">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -764,6 +764,20 @@
   </si>
   <si>
     <t>进入黑名单实现阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、实现卡口设备管理部分功能
+2、实现了一些地图的小功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、把黑名单弹窗全部完成
+2、完善点位管理功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没太多事，美滋滋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1195,8 +1209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2190,15 +2204,21 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="6"/>
       <c r="C58" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
+      <c r="D58" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
@@ -3068,43 +3088,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -3113,6 +3096,43 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="173">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -778,6 +778,42 @@
   </si>
   <si>
     <t>没太多事，美滋滋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、研究日志管理
+2、继续写分页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、黑名单分页
+2、过车表分页
+3、研究套牌车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、研究日志管理
+2、修改部分分页
+3、修改一波数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、写饼图的底层函数
+2、继续研究日志管理和套牌车的实现问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咦咦咦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、实现饼图功能
+2、实现柱状图功能
+3、实现条形图功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1209,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2220,23 +2256,31 @@
         <v>165</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="6"/>
       <c r="C59" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D59" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="6"/>
       <c r="C60" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D60" s="1"/>
+      <c r="D60" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
@@ -2294,15 +2338,21 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" s="6"/>
       <c r="C65" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
+      <c r="D65" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
@@ -2310,7 +2360,7 @@
       <c r="C66" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D66" s="1"/>
+      <c r="D66" s="2"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
@@ -3088,6 +3138,43 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -3096,43 +3183,6 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="176">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -814,6 +814,19 @@
     <t>1、实现饼图功能
 2、实现柱状图功能
 3、实现条形图功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、实现地图右键蛇皮功能
+2、优化界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究套牌车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舒服</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1246,7 +1259,7 @@
   <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2328,15 +2341,21 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="6"/>
       <c r="C64" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
+      <c r="D64" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="65" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
@@ -3138,43 +3157,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -3183,6 +3165,43 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="188">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -798,11 +798,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、写饼图的底层函数
-2、继续研究日志管理和套牌车的实现问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>咦咦咦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -817,8 +812,72 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1、实现黑名单部分功能
+2、修改密码完成
+3、点位管理优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、黑名单大部分实现
+2、优化分页
+3、设计布控细节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真是因缺思厅，还可以提升很多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、黑名单实现部分
+2、过车部分实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、地图优化
+2、界面细节优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面部分刷新还需仔细考虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、黑名单基本实现
+2、布控细节设计，安排日志管理及套牌车任务
+3、准备进入过车管理阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成黑名单布控
+2、完成卡口管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面还可优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、地图部分功能优化
+2、界面部分优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、过车部分完成
+2、研究套牌车算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法有点复杂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1、实现地图右键蛇皮功能
 2、优化界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、写饼图的底层函数
+2、继续研究日志管理和套牌车的实现问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1258,8 +1317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2239,7 +2298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>42928</v>
       </c>
@@ -2249,9 +2308,15 @@
       <c r="C57" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
+      <c r="D57" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="58" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
@@ -2282,7 +2347,7 @@
         <v>166</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
@@ -2292,20 +2357,26 @@
         <v>20</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="6"/>
       <c r="C61" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
+      <c r="D61" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
@@ -2327,7 +2398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>42929</v>
       </c>
@@ -2337,9 +2408,15 @@
       <c r="C63" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
+      <c r="D63" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="64" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
@@ -2348,13 +2425,13 @@
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
@@ -2367,10 +2444,10 @@
         <v>168</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2383,15 +2460,21 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="6"/>
       <c r="C67" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
+      <c r="D67" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
@@ -3157,6 +3240,43 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -3165,43 +3285,6 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="193">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -886,6 +886,30 @@
   </si>
   <si>
     <t>舒服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、优化流量统计
+2、选主界面
+3、学习新知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续学习新知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、增加最拥堵道路排行模块
+2、增加查看实时天气时间
+3、优化主界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1318,20 +1342,20 @@
   <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
-    <col min="4" max="4" width="43.21875" customWidth="1"/>
-    <col min="5" max="5" width="26.21875" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="43.25" customWidth="1"/>
+    <col min="5" max="5" width="26.25" customWidth="1"/>
+    <col min="6" max="6" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>147</v>
       </c>
@@ -1341,7 +1365,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1361,7 +1385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>42919</v>
       </c>
@@ -1381,7 +1405,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="1" t="s">
@@ -1397,7 +1421,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="1" t="s">
@@ -1414,7 +1438,7 @@
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="1" t="s">
@@ -1430,7 +1454,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="1" t="s">
@@ -1446,7 +1470,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1466,7 +1490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>42920</v>
       </c>
@@ -1486,7 +1510,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="1" t="s">
@@ -1502,7 +1526,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="1" t="s">
@@ -1518,7 +1542,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="1" t="s">
@@ -1534,7 +1558,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="1" t="s">
@@ -1550,7 +1574,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1570,7 +1594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="81" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>42921</v>
       </c>
@@ -1590,7 +1614,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="1" t="s">
@@ -1606,7 +1630,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="1" t="s">
@@ -1622,7 +1646,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="1" t="s">
@@ -1638,7 +1662,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="1" t="s">
@@ -1654,7 +1678,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
@@ -1674,7 +1698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>42922</v>
       </c>
@@ -1694,7 +1718,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="1" t="s">
@@ -1710,7 +1734,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="1" t="s">
@@ -1726,7 +1750,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="1" t="s">
@@ -1742,7 +1766,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="1" t="s">
@@ -1758,7 +1782,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
@@ -1778,7 +1802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>42923</v>
       </c>
@@ -1798,7 +1822,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="1" t="s">
@@ -1814,7 +1838,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="1" t="s">
@@ -1830,7 +1854,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="1" t="s">
@@ -1846,7 +1870,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="1" t="s">
@@ -1862,7 +1886,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>5</v>
       </c>
@@ -1882,7 +1906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="72" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A33" s="5">
         <v>42924</v>
       </c>
@@ -1902,7 +1926,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" s="1" t="s">
@@ -1918,7 +1942,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="1" t="s">
@@ -1934,7 +1958,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="1" t="s">
@@ -1950,7 +1974,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="1" t="s">
@@ -1966,7 +1990,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>5</v>
       </c>
@@ -1986,7 +2010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A39" s="5">
         <v>42925</v>
       </c>
@@ -2006,7 +2030,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="1" t="s">
@@ -2022,7 +2046,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="1" t="s">
@@ -2038,7 +2062,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
       <c r="C42" s="1" t="s">
@@ -2054,7 +2078,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="1" t="s">
@@ -2070,7 +2094,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>5</v>
       </c>
@@ -2090,7 +2114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A45" s="5">
         <v>42926</v>
       </c>
@@ -2110,7 +2134,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A46" s="5"/>
       <c r="B46" s="6"/>
       <c r="C46" s="1" t="s">
@@ -2126,7 +2150,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="5"/>
       <c r="B47" s="6"/>
       <c r="C47" s="1" t="s">
@@ -2142,7 +2166,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
       <c r="C48" s="1" t="s">
@@ -2158,7 +2182,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A49" s="5"/>
       <c r="B49" s="6"/>
       <c r="C49" s="1" t="s">
@@ -2174,7 +2198,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>5</v>
       </c>
@@ -2194,7 +2218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A51" s="5">
         <v>42927</v>
       </c>
@@ -2214,7 +2238,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A52" s="5"/>
       <c r="B52" s="6"/>
       <c r="C52" s="1" t="s">
@@ -2230,7 +2254,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="5"/>
       <c r="B53" s="6"/>
       <c r="C53" s="1" t="s">
@@ -2246,7 +2270,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="5"/>
       <c r="B54" s="6"/>
       <c r="C54" s="1" t="s">
@@ -2262,7 +2286,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="5"/>
       <c r="B55" s="6"/>
       <c r="C55" s="1" t="s">
@@ -2278,7 +2302,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>5</v>
       </c>
@@ -2298,7 +2322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A57" s="5">
         <v>42928</v>
       </c>
@@ -2318,7 +2342,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="5"/>
       <c r="B58" s="6"/>
       <c r="C58" s="1" t="s">
@@ -2334,7 +2358,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A59" s="5"/>
       <c r="B59" s="6"/>
       <c r="C59" s="1" t="s">
@@ -2350,7 +2374,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A60" s="5"/>
       <c r="B60" s="6"/>
       <c r="C60" s="1" t="s">
@@ -2359,10 +2383,14 @@
       <c r="D60" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="E60" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="5"/>
       <c r="B61" s="6"/>
       <c r="C61" s="1" t="s">
@@ -2378,7 +2406,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
         <v>5</v>
       </c>
@@ -2398,7 +2426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A63" s="5">
         <v>42929</v>
       </c>
@@ -2418,7 +2446,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="5"/>
       <c r="B64" s="6"/>
       <c r="C64" s="1" t="s">
@@ -2434,7 +2462,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A65" s="5"/>
       <c r="B65" s="6"/>
       <c r="C65" s="1" t="s">
@@ -2450,17 +2478,23 @@
         <v>170</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A66" s="5"/>
       <c r="B66" s="6"/>
       <c r="C66" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D66" s="2"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="D66" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="5"/>
       <c r="B67" s="6"/>
       <c r="C67" s="1" t="s">
@@ -2476,7 +2510,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
         <v>5</v>
       </c>
@@ -2496,7 +2530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="5">
         <v>42930</v>
       </c>
@@ -2510,7 +2544,7 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="5"/>
       <c r="B70" s="6"/>
       <c r="C70" s="1" t="s">
@@ -2520,7 +2554,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="5"/>
       <c r="B71" s="6"/>
       <c r="C71" s="1" t="s">
@@ -2530,7 +2564,7 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="6"/>
       <c r="C72" s="1" t="s">
@@ -2540,7 +2574,7 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="5"/>
       <c r="B73" s="6"/>
       <c r="C73" s="1" t="s">
@@ -2550,7 +2584,7 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
         <v>5</v>
       </c>
@@ -2570,7 +2604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="5">
         <v>42931</v>
       </c>
@@ -2584,7 +2618,7 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="5"/>
       <c r="B76" s="6"/>
       <c r="C76" s="1" t="s">
@@ -2594,7 +2628,7 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="5"/>
       <c r="B77" s="6"/>
       <c r="C77" s="1" t="s">
@@ -2604,7 +2638,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="5"/>
       <c r="B78" s="6"/>
       <c r="C78" s="1" t="s">
@@ -2614,7 +2648,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="5"/>
       <c r="B79" s="6"/>
       <c r="C79" s="1" t="s">
@@ -2624,7 +2658,7 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
         <v>5</v>
       </c>
@@ -2644,7 +2678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="5">
         <v>42932</v>
       </c>
@@ -2658,7 +2692,7 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="5"/>
       <c r="B82" s="6"/>
       <c r="C82" s="1" t="s">
@@ -2668,7 +2702,7 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="5"/>
       <c r="B83" s="6"/>
       <c r="C83" s="1" t="s">
@@ -2678,7 +2712,7 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="5"/>
       <c r="B84" s="6"/>
       <c r="C84" s="1" t="s">
@@ -2688,7 +2722,7 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="5"/>
       <c r="B85" s="6"/>
       <c r="C85" s="1" t="s">
@@ -2698,7 +2732,7 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="3" t="s">
         <v>5</v>
       </c>
@@ -2718,7 +2752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="5">
         <v>42933</v>
       </c>
@@ -2732,7 +2766,7 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="5"/>
       <c r="B88" s="6"/>
       <c r="C88" s="1" t="s">
@@ -2742,7 +2776,7 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="5"/>
       <c r="B89" s="6"/>
       <c r="C89" s="1" t="s">
@@ -2752,7 +2786,7 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="5"/>
       <c r="B90" s="6"/>
       <c r="C90" s="1" t="s">
@@ -2762,7 +2796,7 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="5"/>
       <c r="B91" s="6"/>
       <c r="C91" s="1" t="s">
@@ -2772,7 +2806,7 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="3" t="s">
         <v>5</v>
       </c>
@@ -2792,7 +2826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="5">
         <v>42934</v>
       </c>
@@ -2806,7 +2840,7 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="5"/>
       <c r="B94" s="6"/>
       <c r="C94" s="1" t="s">
@@ -2816,7 +2850,7 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="5"/>
       <c r="B95" s="6"/>
       <c r="C95" s="1" t="s">
@@ -2826,7 +2860,7 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="5"/>
       <c r="B96" s="6"/>
       <c r="C96" s="1" t="s">
@@ -2836,7 +2870,7 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="5"/>
       <c r="B97" s="6"/>
       <c r="C97" s="1" t="s">
@@ -2846,7 +2880,7 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="3" t="s">
         <v>5</v>
       </c>
@@ -2866,7 +2900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="5">
         <v>42935</v>
       </c>
@@ -2880,7 +2914,7 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="5"/>
       <c r="B100" s="6"/>
       <c r="C100" s="1" t="s">
@@ -2890,7 +2924,7 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="5"/>
       <c r="B101" s="6"/>
       <c r="C101" s="1" t="s">
@@ -2900,7 +2934,7 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="5"/>
       <c r="B102" s="6"/>
       <c r="C102" s="1" t="s">
@@ -2910,7 +2944,7 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" s="5"/>
       <c r="B103" s="6"/>
       <c r="C103" s="1" t="s">
@@ -2920,7 +2954,7 @@
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" s="3" t="s">
         <v>5</v>
       </c>
@@ -2940,7 +2974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="5">
         <v>42936</v>
       </c>
@@ -2954,7 +2988,7 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="5"/>
       <c r="B106" s="6"/>
       <c r="C106" s="1" t="s">
@@ -2964,7 +2998,7 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="5"/>
       <c r="B107" s="6"/>
       <c r="C107" s="1" t="s">
@@ -2974,7 +3008,7 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" s="5"/>
       <c r="B108" s="6"/>
       <c r="C108" s="1" t="s">
@@ -2984,7 +3018,7 @@
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="5"/>
       <c r="B109" s="6"/>
       <c r="C109" s="1" t="s">
@@ -2994,7 +3028,7 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="3" t="s">
         <v>5</v>
       </c>
@@ -3014,7 +3048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="5">
         <v>42937</v>
       </c>
@@ -3028,7 +3062,7 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" s="5"/>
       <c r="B112" s="6"/>
       <c r="C112" s="1" t="s">
@@ -3038,7 +3072,7 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="5"/>
       <c r="B113" s="6"/>
       <c r="C113" s="1" t="s">
@@ -3048,7 +3082,7 @@
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" s="5"/>
       <c r="B114" s="6"/>
       <c r="C114" s="1" t="s">
@@ -3058,7 +3092,7 @@
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" s="5"/>
       <c r="B115" s="6"/>
       <c r="C115" s="1" t="s">
@@ -3068,7 +3102,7 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" s="3" t="s">
         <v>5</v>
       </c>
@@ -3088,7 +3122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" s="5">
         <v>42938</v>
       </c>
@@ -3102,7 +3136,7 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" s="5"/>
       <c r="B118" s="6"/>
       <c r="C118" s="1" t="s">
@@ -3112,7 +3146,7 @@
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" s="5"/>
       <c r="B119" s="6"/>
       <c r="C119" s="1" t="s">
@@ -3122,7 +3156,7 @@
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" s="5"/>
       <c r="B120" s="6"/>
       <c r="C120" s="1" t="s">
@@ -3132,7 +3166,7 @@
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" s="5"/>
       <c r="B121" s="6"/>
       <c r="C121" s="1" t="s">
@@ -3142,7 +3176,7 @@
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -3150,7 +3184,7 @@
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" s="5"/>
       <c r="B123" s="6"/>
       <c r="C123" s="1"/>
@@ -3158,7 +3192,7 @@
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" s="5"/>
       <c r="B124" s="6"/>
       <c r="C124" s="1"/>
@@ -3166,7 +3200,7 @@
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" s="5"/>
       <c r="B125" s="6"/>
       <c r="C125" s="1"/>
@@ -3174,7 +3208,7 @@
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" s="5"/>
       <c r="B126" s="6"/>
       <c r="C126" s="1"/>
@@ -3182,7 +3216,7 @@
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" s="5"/>
       <c r="B127" s="6"/>
       <c r="C127" s="1"/>
@@ -3190,7 +3224,7 @@
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -3198,7 +3232,7 @@
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" s="5"/>
       <c r="B129" s="6"/>
       <c r="C129" s="1"/>
@@ -3206,7 +3240,7 @@
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" s="5"/>
       <c r="B130" s="6"/>
       <c r="C130" s="1"/>
@@ -3214,7 +3248,7 @@
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" s="5"/>
       <c r="B131" s="6"/>
       <c r="C131" s="1"/>
@@ -3222,7 +3256,7 @@
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" s="5"/>
       <c r="B132" s="6"/>
       <c r="C132" s="1"/>
@@ -3230,7 +3264,7 @@
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" s="5"/>
       <c r="B133" s="6"/>
       <c r="C133" s="1"/>
@@ -3240,43 +3274,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -3285,6 +3282,43 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3298,7 +3332,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3311,7 +3345,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="192">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,22 +40,6 @@
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生2</t>
-  </si>
-  <si>
-    <t>学生3</t>
-  </si>
-  <si>
-    <t>学生4</t>
-  </si>
-  <si>
-    <t>学生5</t>
   </si>
   <si>
     <t>开发5组</t>
@@ -910,6 +894,23 @@
     <t>1、增加最拥堵道路排行模块
 2、增加查看实时天气时间
 3、优化主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何威</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、优化界面
+2、研究套牌车算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续研究。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没啥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1342,22 +1343,22 @@
   <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
-    <col min="4" max="4" width="43.25" customWidth="1"/>
-    <col min="5" max="5" width="26.25" customWidth="1"/>
-    <col min="6" max="6" width="29.625" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" customWidth="1"/>
+    <col min="5" max="5" width="26.21875" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -1365,7 +1366,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1385,92 +1386,92 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="81" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>42919</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1490,91 +1491,91 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>42920</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1594,91 +1595,91 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="81" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>42921</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
@@ -1698,91 +1699,91 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>42922</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
@@ -1802,91 +1803,91 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>42923</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>5</v>
       </c>
@@ -1906,91 +1907,91 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" ht="72" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>42924</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>5</v>
       </c>
@@ -2010,91 +2011,91 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>42925</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
       <c r="C42" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>5</v>
       </c>
@@ -2114,91 +2115,91 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>42926</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="6"/>
       <c r="C46" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="6"/>
       <c r="C47" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
       <c r="C48" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="6"/>
       <c r="C49" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>5</v>
       </c>
@@ -2218,91 +2219,91 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>42927</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="6"/>
       <c r="C52" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="6"/>
       <c r="C53" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="6"/>
       <c r="C54" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="6"/>
       <c r="C55" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>5</v>
       </c>
@@ -2322,91 +2323,91 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>42928</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="6"/>
       <c r="C58" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="6"/>
       <c r="C59" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="6"/>
       <c r="C60" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="6"/>
       <c r="C61" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>5</v>
       </c>
@@ -2426,91 +2427,91 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>42929</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="6"/>
       <c r="C64" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" s="6"/>
       <c r="C65" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="6"/>
       <c r="C66" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="6"/>
       <c r="C67" s="1" t="s">
-        <v>21</v>
+        <v>188</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>5</v>
       </c>
@@ -2530,61 +2531,67 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>42930</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="6"/>
       <c r="C70" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="6"/>
       <c r="C71" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="6"/>
       <c r="C72" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="6"/>
       <c r="C73" s="1" t="s">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>5</v>
       </c>
@@ -2604,61 +2611,61 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>42931</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="B76" s="6"/>
       <c r="C76" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="6"/>
       <c r="C77" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" s="6"/>
       <c r="C78" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="6"/>
       <c r="C79" s="1" t="s">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>5</v>
       </c>
@@ -2678,61 +2685,61 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>42932</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" s="6"/>
       <c r="C82" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="6"/>
       <c r="C83" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="B84" s="6"/>
       <c r="C84" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" s="6"/>
       <c r="C85" s="1" t="s">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>5</v>
       </c>
@@ -2752,61 +2759,61 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>42933</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="6"/>
       <c r="C88" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="B89" s="6"/>
       <c r="C89" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="B90" s="6"/>
       <c r="C90" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="B91" s="6"/>
       <c r="C91" s="1" t="s">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>5</v>
       </c>
@@ -2826,61 +2833,61 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>42934</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="B94" s="6"/>
       <c r="C94" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="B95" s="6"/>
       <c r="C95" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="B96" s="6"/>
       <c r="C96" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="B97" s="6"/>
       <c r="C97" s="1" t="s">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>5</v>
       </c>
@@ -2900,61 +2907,61 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>42935</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
       <c r="B100" s="6"/>
       <c r="C100" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="B101" s="6"/>
       <c r="C101" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
       <c r="B102" s="6"/>
       <c r="C102" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
       <c r="B103" s="6"/>
       <c r="C103" s="1" t="s">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>5</v>
       </c>
@@ -2974,61 +2981,61 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>42936</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
       <c r="B106" s="6"/>
       <c r="C106" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
       <c r="B107" s="6"/>
       <c r="C107" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
       <c r="B108" s="6"/>
       <c r="C108" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
       <c r="B109" s="6"/>
       <c r="C109" s="1" t="s">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>5</v>
       </c>
@@ -3048,61 +3055,61 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>42937</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
       <c r="B112" s="6"/>
       <c r="C112" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
       <c r="B113" s="6"/>
       <c r="C113" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
       <c r="B114" s="6"/>
       <c r="C114" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
       <c r="B115" s="6"/>
       <c r="C115" s="1" t="s">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>5</v>
       </c>
@@ -3122,61 +3129,61 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
         <v>42938</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
       <c r="B118" s="6"/>
       <c r="C118" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
       <c r="B119" s="6"/>
       <c r="C119" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
       <c r="B120" s="6"/>
       <c r="C120" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
       <c r="B121" s="6"/>
       <c r="C121" s="1" t="s">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -3184,7 +3191,7 @@
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
       <c r="B123" s="6"/>
       <c r="C123" s="1"/>
@@ -3192,7 +3199,7 @@
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>
       <c r="B124" s="6"/>
       <c r="C124" s="1"/>
@@ -3200,7 +3207,7 @@
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
       <c r="B125" s="6"/>
       <c r="C125" s="1"/>
@@ -3208,7 +3215,7 @@
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
       <c r="B126" s="6"/>
       <c r="C126" s="1"/>
@@ -3216,7 +3223,7 @@
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="5"/>
       <c r="B127" s="6"/>
       <c r="C127" s="1"/>
@@ -3224,7 +3231,7 @@
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -3232,7 +3239,7 @@
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
       <c r="B129" s="6"/>
       <c r="C129" s="1"/>
@@ -3240,7 +3247,7 @@
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
       <c r="B130" s="6"/>
       <c r="C130" s="1"/>
@@ -3248,7 +3255,7 @@
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
       <c r="B131" s="6"/>
       <c r="C131" s="1"/>
@@ -3256,7 +3263,7 @@
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="5"/>
       <c r="B132" s="6"/>
       <c r="C132" s="1"/>
@@ -3264,7 +3271,7 @@
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="5"/>
       <c r="B133" s="6"/>
       <c r="C133" s="1"/>
@@ -3274,6 +3281,43 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -3282,43 +3326,6 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3332,7 +3339,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3345,7 +3352,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="195">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -911,6 +911,20 @@
   </si>
   <si>
     <t>没啥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、研究换头像功能
+2、研究华为云
+3、继续优化界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做日志管理的界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组长可能工作量很大</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1342,21 +1356,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
-    <col min="4" max="4" width="43.21875" customWidth="1"/>
-    <col min="5" max="5" width="26.21875" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="43.25" customWidth="1"/>
+    <col min="5" max="5" width="26.25" customWidth="1"/>
+    <col min="6" max="6" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>142</v>
       </c>
@@ -1366,7 +1380,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1386,7 +1400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>42919</v>
       </c>
@@ -1406,7 +1420,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="1" t="s">
@@ -1422,7 +1436,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="1" t="s">
@@ -1439,7 +1453,7 @@
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="1" t="s">
@@ -1455,7 +1469,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="1" t="s">
@@ -1471,7 +1485,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1491,7 +1505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>42920</v>
       </c>
@@ -1511,7 +1525,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="1" t="s">
@@ -1527,7 +1541,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="1" t="s">
@@ -1543,7 +1557,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="1" t="s">
@@ -1559,7 +1573,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="1" t="s">
@@ -1575,7 +1589,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1595,7 +1609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="81" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>42921</v>
       </c>
@@ -1615,7 +1629,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="1" t="s">
@@ -1631,7 +1645,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="1" t="s">
@@ -1647,7 +1661,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="1" t="s">
@@ -1663,7 +1677,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="1" t="s">
@@ -1679,7 +1693,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
@@ -1699,7 +1713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>42922</v>
       </c>
@@ -1719,7 +1733,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="1" t="s">
@@ -1735,7 +1749,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="1" t="s">
@@ -1751,7 +1765,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="1" t="s">
@@ -1767,7 +1781,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="1" t="s">
@@ -1783,7 +1797,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
@@ -1803,7 +1817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>42923</v>
       </c>
@@ -1823,7 +1837,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="1" t="s">
@@ -1839,7 +1853,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="1" t="s">
@@ -1855,7 +1869,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="1" t="s">
@@ -1871,7 +1885,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="1" t="s">
@@ -1887,7 +1901,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>5</v>
       </c>
@@ -1907,7 +1921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="72" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A33" s="5">
         <v>42924</v>
       </c>
@@ -1927,7 +1941,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" s="1" t="s">
@@ -1943,7 +1957,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="1" t="s">
@@ -1959,7 +1973,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="1" t="s">
@@ -1975,7 +1989,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="1" t="s">
@@ -1991,7 +2005,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>5</v>
       </c>
@@ -2011,7 +2025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A39" s="5">
         <v>42925</v>
       </c>
@@ -2031,7 +2045,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="1" t="s">
@@ -2047,7 +2061,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="1" t="s">
@@ -2063,7 +2077,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
       <c r="C42" s="1" t="s">
@@ -2079,7 +2093,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="1" t="s">
@@ -2095,7 +2109,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>5</v>
       </c>
@@ -2115,7 +2129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A45" s="5">
         <v>42926</v>
       </c>
@@ -2135,7 +2149,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A46" s="5"/>
       <c r="B46" s="6"/>
       <c r="C46" s="1" t="s">
@@ -2151,7 +2165,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="5"/>
       <c r="B47" s="6"/>
       <c r="C47" s="1" t="s">
@@ -2167,7 +2181,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
       <c r="C48" s="1" t="s">
@@ -2183,7 +2197,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A49" s="5"/>
       <c r="B49" s="6"/>
       <c r="C49" s="1" t="s">
@@ -2199,7 +2213,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>5</v>
       </c>
@@ -2219,7 +2233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A51" s="5">
         <v>42927</v>
       </c>
@@ -2239,7 +2253,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A52" s="5"/>
       <c r="B52" s="6"/>
       <c r="C52" s="1" t="s">
@@ -2255,7 +2269,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="5"/>
       <c r="B53" s="6"/>
       <c r="C53" s="1" t="s">
@@ -2271,7 +2285,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="5"/>
       <c r="B54" s="6"/>
       <c r="C54" s="1" t="s">
@@ -2287,7 +2301,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="5"/>
       <c r="B55" s="6"/>
       <c r="C55" s="1" t="s">
@@ -2303,7 +2317,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>5</v>
       </c>
@@ -2323,7 +2337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A57" s="5">
         <v>42928</v>
       </c>
@@ -2343,7 +2357,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="5"/>
       <c r="B58" s="6"/>
       <c r="C58" s="1" t="s">
@@ -2359,7 +2373,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A59" s="5"/>
       <c r="B59" s="6"/>
       <c r="C59" s="1" t="s">
@@ -2375,7 +2389,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A60" s="5"/>
       <c r="B60" s="6"/>
       <c r="C60" s="1" t="s">
@@ -2391,7 +2405,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="5"/>
       <c r="B61" s="6"/>
       <c r="C61" s="1" t="s">
@@ -2407,7 +2421,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
         <v>5</v>
       </c>
@@ -2427,7 +2441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A63" s="5">
         <v>42929</v>
       </c>
@@ -2447,7 +2461,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="5"/>
       <c r="B64" s="6"/>
       <c r="C64" s="1" t="s">
@@ -2463,7 +2477,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A65" s="5"/>
       <c r="B65" s="6"/>
       <c r="C65" s="1" t="s">
@@ -2479,7 +2493,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A66" s="5"/>
       <c r="B66" s="6"/>
       <c r="C66" s="1" t="s">
@@ -2495,7 +2509,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="5"/>
       <c r="B67" s="6"/>
       <c r="C67" s="1" t="s">
@@ -2511,7 +2525,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
         <v>5</v>
       </c>
@@ -2531,7 +2545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="5">
         <v>42930</v>
       </c>
@@ -2545,7 +2559,7 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A70" s="5"/>
       <c r="B70" s="6"/>
       <c r="C70" s="1" t="s">
@@ -2561,7 +2575,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="5"/>
       <c r="B71" s="6"/>
       <c r="C71" s="1" t="s">
@@ -2571,17 +2585,23 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="6"/>
       <c r="C72" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D72" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="5"/>
       <c r="B73" s="6"/>
       <c r="C73" s="1" t="s">
@@ -2591,7 +2611,7 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
         <v>5</v>
       </c>
@@ -2611,7 +2631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="5">
         <v>42931</v>
       </c>
@@ -2625,7 +2645,7 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="5"/>
       <c r="B76" s="6"/>
       <c r="C76" s="1" t="s">
@@ -2635,7 +2655,7 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="5"/>
       <c r="B77" s="6"/>
       <c r="C77" s="1" t="s">
@@ -2645,7 +2665,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="5"/>
       <c r="B78" s="6"/>
       <c r="C78" s="1" t="s">
@@ -2655,7 +2675,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="5"/>
       <c r="B79" s="6"/>
       <c r="C79" s="1" t="s">
@@ -2665,7 +2685,7 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
         <v>5</v>
       </c>
@@ -2685,7 +2705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="5">
         <v>42932</v>
       </c>
@@ -2699,7 +2719,7 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="5"/>
       <c r="B82" s="6"/>
       <c r="C82" s="1" t="s">
@@ -2709,7 +2729,7 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="5"/>
       <c r="B83" s="6"/>
       <c r="C83" s="1" t="s">
@@ -2719,7 +2739,7 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="5"/>
       <c r="B84" s="6"/>
       <c r="C84" s="1" t="s">
@@ -2729,7 +2749,7 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="5"/>
       <c r="B85" s="6"/>
       <c r="C85" s="1" t="s">
@@ -2739,7 +2759,7 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="3" t="s">
         <v>5</v>
       </c>
@@ -2759,7 +2779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="5">
         <v>42933</v>
       </c>
@@ -2773,7 +2793,7 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="5"/>
       <c r="B88" s="6"/>
       <c r="C88" s="1" t="s">
@@ -2783,7 +2803,7 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="5"/>
       <c r="B89" s="6"/>
       <c r="C89" s="1" t="s">
@@ -2793,7 +2813,7 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="5"/>
       <c r="B90" s="6"/>
       <c r="C90" s="1" t="s">
@@ -2803,7 +2823,7 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="5"/>
       <c r="B91" s="6"/>
       <c r="C91" s="1" t="s">
@@ -2813,7 +2833,7 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="3" t="s">
         <v>5</v>
       </c>
@@ -2833,7 +2853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="5">
         <v>42934</v>
       </c>
@@ -2847,7 +2867,7 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="5"/>
       <c r="B94" s="6"/>
       <c r="C94" s="1" t="s">
@@ -2857,7 +2877,7 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="5"/>
       <c r="B95" s="6"/>
       <c r="C95" s="1" t="s">
@@ -2867,7 +2887,7 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="5"/>
       <c r="B96" s="6"/>
       <c r="C96" s="1" t="s">
@@ -2877,7 +2897,7 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="5"/>
       <c r="B97" s="6"/>
       <c r="C97" s="1" t="s">
@@ -2887,7 +2907,7 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="3" t="s">
         <v>5</v>
       </c>
@@ -2907,7 +2927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="5">
         <v>42935</v>
       </c>
@@ -2921,7 +2941,7 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="5"/>
       <c r="B100" s="6"/>
       <c r="C100" s="1" t="s">
@@ -2931,7 +2951,7 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="5"/>
       <c r="B101" s="6"/>
       <c r="C101" s="1" t="s">
@@ -2941,7 +2961,7 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="5"/>
       <c r="B102" s="6"/>
       <c r="C102" s="1" t="s">
@@ -2951,7 +2971,7 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" s="5"/>
       <c r="B103" s="6"/>
       <c r="C103" s="1" t="s">
@@ -2961,7 +2981,7 @@
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" s="3" t="s">
         <v>5</v>
       </c>
@@ -2981,7 +3001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="5">
         <v>42936</v>
       </c>
@@ -2995,7 +3015,7 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="5"/>
       <c r="B106" s="6"/>
       <c r="C106" s="1" t="s">
@@ -3005,7 +3025,7 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="5"/>
       <c r="B107" s="6"/>
       <c r="C107" s="1" t="s">
@@ -3015,7 +3035,7 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" s="5"/>
       <c r="B108" s="6"/>
       <c r="C108" s="1" t="s">
@@ -3025,7 +3045,7 @@
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="5"/>
       <c r="B109" s="6"/>
       <c r="C109" s="1" t="s">
@@ -3035,7 +3055,7 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="3" t="s">
         <v>5</v>
       </c>
@@ -3055,7 +3075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="5">
         <v>42937</v>
       </c>
@@ -3069,7 +3089,7 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" s="5"/>
       <c r="B112" s="6"/>
       <c r="C112" s="1" t="s">
@@ -3079,7 +3099,7 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="5"/>
       <c r="B113" s="6"/>
       <c r="C113" s="1" t="s">
@@ -3089,7 +3109,7 @@
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" s="5"/>
       <c r="B114" s="6"/>
       <c r="C114" s="1" t="s">
@@ -3099,7 +3119,7 @@
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" s="5"/>
       <c r="B115" s="6"/>
       <c r="C115" s="1" t="s">
@@ -3109,7 +3129,7 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" s="3" t="s">
         <v>5</v>
       </c>
@@ -3129,7 +3149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" s="5">
         <v>42938</v>
       </c>
@@ -3143,7 +3163,7 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" s="5"/>
       <c r="B118" s="6"/>
       <c r="C118" s="1" t="s">
@@ -3153,7 +3173,7 @@
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" s="5"/>
       <c r="B119" s="6"/>
       <c r="C119" s="1" t="s">
@@ -3163,7 +3183,7 @@
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" s="5"/>
       <c r="B120" s="6"/>
       <c r="C120" s="1" t="s">
@@ -3173,7 +3193,7 @@
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" s="5"/>
       <c r="B121" s="6"/>
       <c r="C121" s="1" t="s">
@@ -3183,7 +3203,7 @@
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -3191,7 +3211,7 @@
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" s="5"/>
       <c r="B123" s="6"/>
       <c r="C123" s="1"/>
@@ -3199,7 +3219,7 @@
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" s="5"/>
       <c r="B124" s="6"/>
       <c r="C124" s="1"/>
@@ -3207,7 +3227,7 @@
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" s="5"/>
       <c r="B125" s="6"/>
       <c r="C125" s="1"/>
@@ -3215,7 +3235,7 @@
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" s="5"/>
       <c r="B126" s="6"/>
       <c r="C126" s="1"/>
@@ -3223,7 +3243,7 @@
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" s="5"/>
       <c r="B127" s="6"/>
       <c r="C127" s="1"/>
@@ -3231,7 +3251,7 @@
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -3239,7 +3259,7 @@
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" s="5"/>
       <c r="B129" s="6"/>
       <c r="C129" s="1"/>
@@ -3247,7 +3267,7 @@
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" s="5"/>
       <c r="B130" s="6"/>
       <c r="C130" s="1"/>
@@ -3255,7 +3275,7 @@
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" s="5"/>
       <c r="B131" s="6"/>
       <c r="C131" s="1"/>
@@ -3263,7 +3283,7 @@
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" s="5"/>
       <c r="B132" s="6"/>
       <c r="C132" s="1"/>
@@ -3271,7 +3291,7 @@
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" s="5"/>
       <c r="B133" s="6"/>
       <c r="C133" s="1"/>
@@ -3281,43 +3301,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -3326,6 +3309,43 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3339,7 +3359,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3352,7 +3372,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="198">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -883,10 +883,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -925,6 +921,24 @@
   </si>
   <si>
     <t>组长可能工作量很大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成日志管理的界面
+2、提交资料，研究华为云
+3、优化文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现流量管理功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组长今天说我坏话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我有一个小秘密我就不告诉你就不告诉你</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1356,8 +1370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2402,7 +2416,7 @@
         <v>183</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -2500,20 +2514,20 @@
         <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>184</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="5"/>
       <c r="B67" s="6"/>
       <c r="C67" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>176</v>
@@ -2566,13 +2580,13 @@
         <v>20</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
@@ -2592,20 +2606,20 @@
         <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="F72" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="5"/>
       <c r="B73" s="6"/>
       <c r="C73" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -2665,21 +2679,27 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A78" s="5"/>
       <c r="B78" s="6"/>
       <c r="C78" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
+      <c r="D78" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="5"/>
       <c r="B79" s="6"/>
       <c r="C79" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -2753,7 +2773,7 @@
       <c r="A85" s="5"/>
       <c r="B85" s="6"/>
       <c r="C85" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -2827,7 +2847,7 @@
       <c r="A91" s="5"/>
       <c r="B91" s="6"/>
       <c r="C91" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -2901,7 +2921,7 @@
       <c r="A97" s="5"/>
       <c r="B97" s="6"/>
       <c r="C97" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -2975,7 +2995,7 @@
       <c r="A103" s="5"/>
       <c r="B103" s="6"/>
       <c r="C103" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -3049,7 +3069,7 @@
       <c r="A109" s="5"/>
       <c r="B109" s="6"/>
       <c r="C109" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -3123,7 +3143,7 @@
       <c r="A115" s="5"/>
       <c r="B115" s="6"/>
       <c r="C115" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -3197,7 +3217,7 @@
       <c r="A121" s="5"/>
       <c r="B121" s="6"/>
       <c r="C121" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -3301,6 +3321,43 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -3309,43 +3366,6 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="201">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -939,6 +939,20 @@
   </si>
   <si>
     <t>我有一个小秘密我就不告诉你就不告诉你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成套牌车的界面
+2、完成开发团队的界面
+3、做界面做界面各种做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续做各种界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小可爱是谁呢</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1371,7 +1385,7 @@
   <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2759,15 +2773,21 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A84" s="5"/>
       <c r="B84" s="6"/>
       <c r="C84" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
+      <c r="D84" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="5"/>
@@ -3321,43 +3341,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -3366,6 +3349,43 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="207">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -953,6 +953,32 @@
   </si>
   <si>
     <t>小可爱是谁呢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、优化界面
+2、实现地图小功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套牌车算法代码实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听说有个小秘密？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、套牌车代码部分实现
+2、实现头像上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善套牌车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>争做套牌车大佬哈哈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1385,20 +1411,20 @@
   <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
-    <col min="4" max="4" width="43.25" customWidth="1"/>
-    <col min="5" max="5" width="26.25" customWidth="1"/>
-    <col min="6" max="6" width="29.625" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" customWidth="1"/>
+    <col min="5" max="5" width="26.21875" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>142</v>
       </c>
@@ -1408,7 +1434,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1428,7 +1454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="81" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>42919</v>
       </c>
@@ -1448,7 +1474,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="1" t="s">
@@ -1464,7 +1490,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="1" t="s">
@@ -1481,7 +1507,7 @@
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="1" t="s">
@@ -1497,7 +1523,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="1" t="s">
@@ -1513,7 +1539,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1533,7 +1559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>42920</v>
       </c>
@@ -1553,7 +1579,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="1" t="s">
@@ -1569,7 +1595,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="1" t="s">
@@ -1585,7 +1611,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="1" t="s">
@@ -1601,7 +1627,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="1" t="s">
@@ -1617,7 +1643,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1637,7 +1663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="81" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>42921</v>
       </c>
@@ -1657,7 +1683,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="1" t="s">
@@ -1673,7 +1699,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="1" t="s">
@@ -1689,7 +1715,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="1" t="s">
@@ -1705,7 +1731,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="1" t="s">
@@ -1721,7 +1747,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
@@ -1741,7 +1767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>42922</v>
       </c>
@@ -1761,7 +1787,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="1" t="s">
@@ -1777,7 +1803,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="1" t="s">
@@ -1793,7 +1819,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="1" t="s">
@@ -1809,7 +1835,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="1" t="s">
@@ -1825,7 +1851,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
@@ -1845,7 +1871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>42923</v>
       </c>
@@ -1865,7 +1891,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="1" t="s">
@@ -1881,7 +1907,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="1" t="s">
@@ -1897,7 +1923,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="1" t="s">
@@ -1913,7 +1939,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="1" t="s">
@@ -1929,7 +1955,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>5</v>
       </c>
@@ -1949,7 +1975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" ht="72" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>42924</v>
       </c>
@@ -1969,7 +1995,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" s="1" t="s">
@@ -1985,7 +2011,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="1" t="s">
@@ -2001,7 +2027,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="1" t="s">
@@ -2017,7 +2043,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="1" t="s">
@@ -2033,7 +2059,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>5</v>
       </c>
@@ -2053,7 +2079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>42925</v>
       </c>
@@ -2073,7 +2099,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="1" t="s">
@@ -2089,7 +2115,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="1" t="s">
@@ -2105,7 +2131,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
       <c r="C42" s="1" t="s">
@@ -2121,7 +2147,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="1" t="s">
@@ -2137,7 +2163,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>5</v>
       </c>
@@ -2157,7 +2183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>42926</v>
       </c>
@@ -2177,7 +2203,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="6"/>
       <c r="C46" s="1" t="s">
@@ -2193,7 +2219,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="6"/>
       <c r="C47" s="1" t="s">
@@ -2209,7 +2235,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
       <c r="C48" s="1" t="s">
@@ -2225,7 +2251,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="6"/>
       <c r="C49" s="1" t="s">
@@ -2241,7 +2267,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>5</v>
       </c>
@@ -2261,7 +2287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>42927</v>
       </c>
@@ -2281,7 +2307,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="6"/>
       <c r="C52" s="1" t="s">
@@ -2297,7 +2323,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="6"/>
       <c r="C53" s="1" t="s">
@@ -2313,7 +2339,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="6"/>
       <c r="C54" s="1" t="s">
@@ -2329,7 +2355,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="6"/>
       <c r="C55" s="1" t="s">
@@ -2345,7 +2371,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>5</v>
       </c>
@@ -2365,7 +2391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>42928</v>
       </c>
@@ -2385,7 +2411,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="6"/>
       <c r="C58" s="1" t="s">
@@ -2401,7 +2427,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="6"/>
       <c r="C59" s="1" t="s">
@@ -2417,7 +2443,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="6"/>
       <c r="C60" s="1" t="s">
@@ -2433,7 +2459,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="6"/>
       <c r="C61" s="1" t="s">
@@ -2449,7 +2475,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>5</v>
       </c>
@@ -2469,7 +2495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>42929</v>
       </c>
@@ -2489,7 +2515,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="6"/>
       <c r="C64" s="1" t="s">
@@ -2505,7 +2531,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" s="6"/>
       <c r="C65" s="1" t="s">
@@ -2521,7 +2547,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="6"/>
       <c r="C66" s="1" t="s">
@@ -2537,7 +2563,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="6"/>
       <c r="C67" s="1" t="s">
@@ -2553,7 +2579,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>5</v>
       </c>
@@ -2573,7 +2599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>42930</v>
       </c>
@@ -2587,7 +2613,7 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="6"/>
       <c r="C70" s="1" t="s">
@@ -2603,7 +2629,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="6"/>
       <c r="C71" s="1" t="s">
@@ -2613,7 +2639,7 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="6"/>
       <c r="C72" s="1" t="s">
@@ -2629,7 +2655,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="6"/>
       <c r="C73" s="1" t="s">
@@ -2639,7 +2665,7 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>5</v>
       </c>
@@ -2659,7 +2685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>42931</v>
       </c>
@@ -2673,17 +2699,23 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="B76" s="6"/>
       <c r="C76" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D76" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="6"/>
       <c r="C77" s="1" t="s">
@@ -2693,7 +2725,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" s="6"/>
       <c r="C78" s="1" t="s">
@@ -2709,7 +2741,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="6"/>
       <c r="C79" s="1" t="s">
@@ -2719,7 +2751,7 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>5</v>
       </c>
@@ -2739,7 +2771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>42932</v>
       </c>
@@ -2753,17 +2785,23 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" s="6"/>
       <c r="C82" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D82" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="6"/>
       <c r="C83" s="1" t="s">
@@ -2773,7 +2811,7 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="B84" s="6"/>
       <c r="C84" s="1" t="s">
@@ -2789,7 +2827,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" s="6"/>
       <c r="C85" s="1" t="s">
@@ -2799,7 +2837,7 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>5</v>
       </c>
@@ -2819,7 +2857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>42933</v>
       </c>
@@ -2833,7 +2871,7 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="6"/>
       <c r="C88" s="1" t="s">
@@ -2843,7 +2881,7 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="B89" s="6"/>
       <c r="C89" s="1" t="s">
@@ -2853,7 +2891,7 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="B90" s="6"/>
       <c r="C90" s="1" t="s">
@@ -2863,7 +2901,7 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="B91" s="6"/>
       <c r="C91" s="1" t="s">
@@ -2873,7 +2911,7 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>5</v>
       </c>
@@ -2893,7 +2931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>42934</v>
       </c>
@@ -2907,7 +2945,7 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="B94" s="6"/>
       <c r="C94" s="1" t="s">
@@ -2917,7 +2955,7 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="B95" s="6"/>
       <c r="C95" s="1" t="s">
@@ -2927,7 +2965,7 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="B96" s="6"/>
       <c r="C96" s="1" t="s">
@@ -2937,7 +2975,7 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="B97" s="6"/>
       <c r="C97" s="1" t="s">
@@ -2947,7 +2985,7 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>5</v>
       </c>
@@ -2967,7 +3005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>42935</v>
       </c>
@@ -2981,7 +3019,7 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
       <c r="B100" s="6"/>
       <c r="C100" s="1" t="s">
@@ -2991,7 +3029,7 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="B101" s="6"/>
       <c r="C101" s="1" t="s">
@@ -3001,7 +3039,7 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
       <c r="B102" s="6"/>
       <c r="C102" s="1" t="s">
@@ -3011,7 +3049,7 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
       <c r="B103" s="6"/>
       <c r="C103" s="1" t="s">
@@ -3021,7 +3059,7 @@
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>5</v>
       </c>
@@ -3041,7 +3079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>42936</v>
       </c>
@@ -3055,7 +3093,7 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
       <c r="B106" s="6"/>
       <c r="C106" s="1" t="s">
@@ -3065,7 +3103,7 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
       <c r="B107" s="6"/>
       <c r="C107" s="1" t="s">
@@ -3075,7 +3113,7 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
       <c r="B108" s="6"/>
       <c r="C108" s="1" t="s">
@@ -3085,7 +3123,7 @@
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
       <c r="B109" s="6"/>
       <c r="C109" s="1" t="s">
@@ -3095,7 +3133,7 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>5</v>
       </c>
@@ -3115,7 +3153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>42937</v>
       </c>
@@ -3129,7 +3167,7 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
       <c r="B112" s="6"/>
       <c r="C112" s="1" t="s">
@@ -3139,7 +3177,7 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
       <c r="B113" s="6"/>
       <c r="C113" s="1" t="s">
@@ -3149,7 +3187,7 @@
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
       <c r="B114" s="6"/>
       <c r="C114" s="1" t="s">
@@ -3159,7 +3197,7 @@
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
       <c r="B115" s="6"/>
       <c r="C115" s="1" t="s">
@@ -3169,7 +3207,7 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>5</v>
       </c>
@@ -3189,7 +3227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
         <v>42938</v>
       </c>
@@ -3203,7 +3241,7 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
       <c r="B118" s="6"/>
       <c r="C118" s="1" t="s">
@@ -3213,7 +3251,7 @@
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
       <c r="B119" s="6"/>
       <c r="C119" s="1" t="s">
@@ -3223,7 +3261,7 @@
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
       <c r="B120" s="6"/>
       <c r="C120" s="1" t="s">
@@ -3233,7 +3271,7 @@
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
       <c r="B121" s="6"/>
       <c r="C121" s="1" t="s">
@@ -3243,7 +3281,7 @@
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -3251,7 +3289,7 @@
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
       <c r="B123" s="6"/>
       <c r="C123" s="1"/>
@@ -3259,7 +3297,7 @@
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>
       <c r="B124" s="6"/>
       <c r="C124" s="1"/>
@@ -3267,7 +3305,7 @@
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
       <c r="B125" s="6"/>
       <c r="C125" s="1"/>
@@ -3275,7 +3313,7 @@
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
       <c r="B126" s="6"/>
       <c r="C126" s="1"/>
@@ -3283,7 +3321,7 @@
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="5"/>
       <c r="B127" s="6"/>
       <c r="C127" s="1"/>
@@ -3291,7 +3329,7 @@
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -3299,7 +3337,7 @@
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
       <c r="B129" s="6"/>
       <c r="C129" s="1"/>
@@ -3307,7 +3345,7 @@
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
       <c r="B130" s="6"/>
       <c r="C130" s="1"/>
@@ -3315,7 +3353,7 @@
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
       <c r="B131" s="6"/>
       <c r="C131" s="1"/>
@@ -3323,7 +3361,7 @@
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="5"/>
       <c r="B132" s="6"/>
       <c r="C132" s="1"/>
@@ -3331,7 +3369,7 @@
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="5"/>
       <c r="B133" s="6"/>
       <c r="C133" s="1"/>
@@ -3341,6 +3379,43 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -3349,43 +3424,6 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3399,7 +3437,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3412,7 +3450,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="214">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -979,6 +979,38 @@
   </si>
   <si>
     <t>争做套牌车大佬哈哈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、写饼条形图的底层函数
+2、写测试数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、写测试数据
+2、写流量分析、条形图的底层函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、继续写测试数据
+2、写日志管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、导出测试数据
+2、写日志管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化日志管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>噫 oracle有毒。。。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>。。。。。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1410,8 +1442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2629,15 +2661,21 @@
         <v>190</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="6"/>
       <c r="C71" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
+      <c r="D71" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="72" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
@@ -2715,15 +2753,21 @@
         <v>203</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="6"/>
       <c r="C77" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
+      <c r="D77" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="78" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
@@ -2801,15 +2845,21 @@
         <v>206</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="6"/>
       <c r="C83" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
+      <c r="D83" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="84" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
@@ -3379,43 +3429,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -3424,6 +3437,43 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="232">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -978,10 +978,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>争做套牌车大佬哈哈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、写饼条形图的底层函数
 2、写测试数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1011,6 +1007,92 @@
   </si>
   <si>
     <t>。。。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、套牌车算法初步设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、黑名单基本完成
+2、卡口管理完成部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、黑名单完成
+2、卡口管理完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试局部刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没大问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、卡口管理完成
+2、轨迹回放完成
+3、过车信息完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化所有界面，实现全面的
+局部刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现局部刷新刷表。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、头像上传基本实现
+2、主界面优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化头像上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>像素点太低了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成所有界面更新换代
+2、日志管理实现
+3、测试数据成功导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>争做套牌车大佬哈哈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化代码，增加校验，测试边界，准备答辩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加油..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、头像上传优化
+2、地图一些小细节优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备进入流量统计、实时监
+控阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没啥问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1442,8 +1524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2631,7 +2713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>42930</v>
       </c>
@@ -2641,9 +2723,15 @@
       <c r="C69" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
+      <c r="D69" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
@@ -2671,10 +2759,10 @@
         <v>180</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
@@ -2699,9 +2787,15 @@
       <c r="C73" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
+      <c r="D73" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
@@ -2723,7 +2817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>42931</v>
       </c>
@@ -2733,9 +2827,15 @@
       <c r="C75" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
+      <c r="D75" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="76" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
@@ -2760,13 +2860,13 @@
         <v>14</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="F77" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
@@ -2785,15 +2885,21 @@
         <v>197</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="6"/>
       <c r="C79" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
+      <c r="D79" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
@@ -2815,7 +2921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>42932</v>
       </c>
@@ -2825,9 +2931,15 @@
       <c r="C81" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
+      <c r="D81" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="82" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
@@ -2842,7 +2954,7 @@
         <v>205</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
@@ -2852,13 +2964,13 @@
         <v>14</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="F83" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
@@ -2877,15 +2989,21 @@
         <v>200</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" s="6"/>
       <c r="C85" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
+      <c r="D85" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
@@ -3429,6 +3547,43 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -3437,43 +3592,6 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="235">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1093,6 +1093,20 @@
   </si>
   <si>
     <t>没啥问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、优化日志管理
+2、优化代码、删除部分测试语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完善分页、在页面显示总记录数
+2、优化代码，给代码加上注释                                3、学习如何配置文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不错</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1524,8 +1538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G84" sqref="G84"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3049,15 +3063,21 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="72" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="B89" s="6"/>
       <c r="C89" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
+      <c r="D89" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
@@ -3547,43 +3567,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -3592,6 +3575,43 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="244">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1107,6 +1107,47 @@
   </si>
   <si>
     <t>不错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、写各个条形图、柱状图的底层函数
+2、写dbutil的配置文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、写自动上传数据的底层函数
+2、优化代码、写代码注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脑细胞死了好多。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成开发团队的界面
+2、完成联系我们的界面
+3、优化整个界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成流量统计的界面
+2、书写帮助手册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续各种优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小可爱就是我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成帮助页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗓子疼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1538,8 +1579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="H89" sqref="H89"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3079,15 +3120,21 @@
         <v>234</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="B90" s="6"/>
       <c r="C90" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
+      <c r="D90" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
@@ -3143,25 +3190,37 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="B95" s="6"/>
       <c r="C95" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D95" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="B96" s="6"/>
       <c r="C96" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
+      <c r="D96" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
@@ -3567,6 +3626,43 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -3575,43 +3671,6 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="250">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1148,6 +1148,32 @@
   </si>
   <si>
     <t>嗓子疼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完善套牌车代码
+2、完善界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化套牌车算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听说有个小可爱？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成过车信息实时监控界面
+2、优化部分界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化实时监控界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快结束了呢</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1580,7 +1606,7 @@
   <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A80" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90"/>
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3094,15 +3120,21 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="6"/>
       <c r="C88" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
+      <c r="D88" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="89" spans="1:6" ht="72" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
@@ -3180,15 +3212,21 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="B94" s="6"/>
       <c r="C94" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
+      <c r="D94" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="95" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
@@ -3626,43 +3664,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -3671,6 +3672,43 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="262">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1174,6 +1174,61 @@
   </si>
   <si>
     <t>快结束了呢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、优化各个功能
+2、细节处理
+3、上传头像更新无误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入最后阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再肝几天就好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、套牌车算法优化
+2、考虑实时问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现实时功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现流量统计界面，开始套
+牌车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chart.js 文档太少了!!!!!!!动态修改弄得我头皮发麻啊啊啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成实时监控，使用GOEASY!
+2、开始实现流量统计界面
+3、完善主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、实时监控完成
+2、准备加过滤器，监听器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现过滤，考虑session过期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验还可优化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1605,8 +1660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3106,7 +3161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>42933</v>
       </c>
@@ -3116,9 +3171,15 @@
       <c r="C87" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
+      <c r="D87" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="88" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
@@ -3168,15 +3229,21 @@
         <v>241</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="B91" s="6"/>
       <c r="C91" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
+      <c r="D91" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
@@ -3198,7 +3265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>42934</v>
       </c>
@@ -3208,9 +3275,15 @@
       <c r="C93" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
+      <c r="D93" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="94" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
@@ -3260,15 +3333,21 @@
         <v>243</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="B97" s="6"/>
       <c r="C97" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
+      <c r="D97" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
@@ -3664,6 +3743,43 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -3672,43 +3788,6 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="265">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1229,6 +1229,19 @@
   </si>
   <si>
     <t>校验还可优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、写自动生成过车信息函数
+2、根据弗洛伊德算法写生成最短道路的函数  3、求任意两个点位之间的最短道路的车流量以及一些对数据库操作的底层函数   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化代码、写代码注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊啊啊啊啊啊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1661,7 +1674,7 @@
   <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G97" sqref="G97"/>
+      <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3393,15 +3406,21 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="B101" s="6"/>
       <c r="C101" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
+      <c r="D101" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
@@ -3743,43 +3762,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -3788,6 +3770,43 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="268">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1242,6 +1242,19 @@
   </si>
   <si>
     <t>啊啊啊啊啊啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、实现从数据库取数据运行套牌车算法
+2、优化界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、实现套牌车界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美滋滋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1674,7 +1687,7 @@
   <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G101" sqref="G101"/>
+      <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3396,15 +3409,21 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
       <c r="B100" s="6"/>
       <c r="C100" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
+      <c r="D100" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="101" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
@@ -3762,6 +3781,43 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -3770,43 +3826,6 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="271">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1255,6 +1255,20 @@
   </si>
   <si>
     <t>美滋滋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、帮组长找很好找他却找不到的东西
+2、写帮助手册
+3、做帮助界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分离jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听说组长和某妙龄女组员奋斗到十一点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1686,21 +1700,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F101" sqref="F101"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
-    <col min="4" max="4" width="43.21875" customWidth="1"/>
-    <col min="5" max="5" width="26.21875" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="43.25" customWidth="1"/>
+    <col min="5" max="5" width="26.25" customWidth="1"/>
+    <col min="6" max="6" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>142</v>
       </c>
@@ -1710,7 +1724,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1730,7 +1744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>42919</v>
       </c>
@@ -1750,7 +1764,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="1" t="s">
@@ -1766,7 +1780,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="1" t="s">
@@ -1783,7 +1797,7 @@
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="1" t="s">
@@ -1799,7 +1813,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="1" t="s">
@@ -1815,7 +1829,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1835,7 +1849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>42920</v>
       </c>
@@ -1855,7 +1869,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="1" t="s">
@@ -1871,7 +1885,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="1" t="s">
@@ -1887,7 +1901,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="1" t="s">
@@ -1903,7 +1917,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="1" t="s">
@@ -1919,7 +1933,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1939,7 +1953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="81" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>42921</v>
       </c>
@@ -1959,7 +1973,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="1" t="s">
@@ -1975,7 +1989,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="1" t="s">
@@ -1991,7 +2005,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="1" t="s">
@@ -2007,7 +2021,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="1" t="s">
@@ -2023,7 +2037,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
@@ -2043,7 +2057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>42922</v>
       </c>
@@ -2063,7 +2077,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="1" t="s">
@@ -2079,7 +2093,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="1" t="s">
@@ -2095,7 +2109,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="1" t="s">
@@ -2111,7 +2125,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="1" t="s">
@@ -2127,7 +2141,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
@@ -2147,7 +2161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>42923</v>
       </c>
@@ -2167,7 +2181,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="1" t="s">
@@ -2183,7 +2197,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="1" t="s">
@@ -2199,7 +2213,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="1" t="s">
@@ -2215,7 +2229,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="1" t="s">
@@ -2231,7 +2245,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>5</v>
       </c>
@@ -2251,7 +2265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="72" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A33" s="5">
         <v>42924</v>
       </c>
@@ -2271,7 +2285,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" s="1" t="s">
@@ -2287,7 +2301,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="1" t="s">
@@ -2303,7 +2317,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="1" t="s">
@@ -2319,7 +2333,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="1" t="s">
@@ -2335,7 +2349,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>5</v>
       </c>
@@ -2355,7 +2369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A39" s="5">
         <v>42925</v>
       </c>
@@ -2375,7 +2389,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="1" t="s">
@@ -2391,7 +2405,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="1" t="s">
@@ -2407,7 +2421,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
       <c r="C42" s="1" t="s">
@@ -2423,7 +2437,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="1" t="s">
@@ -2439,7 +2453,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>5</v>
       </c>
@@ -2459,7 +2473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A45" s="5">
         <v>42926</v>
       </c>
@@ -2479,7 +2493,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A46" s="5"/>
       <c r="B46" s="6"/>
       <c r="C46" s="1" t="s">
@@ -2495,7 +2509,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="5"/>
       <c r="B47" s="6"/>
       <c r="C47" s="1" t="s">
@@ -2511,7 +2525,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
       <c r="C48" s="1" t="s">
@@ -2527,7 +2541,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A49" s="5"/>
       <c r="B49" s="6"/>
       <c r="C49" s="1" t="s">
@@ -2543,7 +2557,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>5</v>
       </c>
@@ -2563,7 +2577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A51" s="5">
         <v>42927</v>
       </c>
@@ -2583,7 +2597,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A52" s="5"/>
       <c r="B52" s="6"/>
       <c r="C52" s="1" t="s">
@@ -2599,7 +2613,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="5"/>
       <c r="B53" s="6"/>
       <c r="C53" s="1" t="s">
@@ -2615,7 +2629,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="5"/>
       <c r="B54" s="6"/>
       <c r="C54" s="1" t="s">
@@ -2631,7 +2645,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="5"/>
       <c r="B55" s="6"/>
       <c r="C55" s="1" t="s">
@@ -2647,7 +2661,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>5</v>
       </c>
@@ -2667,7 +2681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A57" s="5">
         <v>42928</v>
       </c>
@@ -2687,7 +2701,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="5"/>
       <c r="B58" s="6"/>
       <c r="C58" s="1" t="s">
@@ -2703,7 +2717,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A59" s="5"/>
       <c r="B59" s="6"/>
       <c r="C59" s="1" t="s">
@@ -2719,7 +2733,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A60" s="5"/>
       <c r="B60" s="6"/>
       <c r="C60" s="1" t="s">
@@ -2735,7 +2749,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="5"/>
       <c r="B61" s="6"/>
       <c r="C61" s="1" t="s">
@@ -2751,7 +2765,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
         <v>5</v>
       </c>
@@ -2771,7 +2785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A63" s="5">
         <v>42929</v>
       </c>
@@ -2791,7 +2805,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="5"/>
       <c r="B64" s="6"/>
       <c r="C64" s="1" t="s">
@@ -2807,7 +2821,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A65" s="5"/>
       <c r="B65" s="6"/>
       <c r="C65" s="1" t="s">
@@ -2823,7 +2837,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A66" s="5"/>
       <c r="B66" s="6"/>
       <c r="C66" s="1" t="s">
@@ -2839,7 +2853,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="5"/>
       <c r="B67" s="6"/>
       <c r="C67" s="1" t="s">
@@ -2855,7 +2869,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
         <v>5</v>
       </c>
@@ -2875,7 +2889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A69" s="5">
         <v>42930</v>
       </c>
@@ -2895,7 +2909,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A70" s="5"/>
       <c r="B70" s="6"/>
       <c r="C70" s="1" t="s">
@@ -2911,7 +2925,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A71" s="5"/>
       <c r="B71" s="6"/>
       <c r="C71" s="1" t="s">
@@ -2927,7 +2941,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="6"/>
       <c r="C72" s="1" t="s">
@@ -2943,7 +2957,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="5"/>
       <c r="B73" s="6"/>
       <c r="C73" s="1" t="s">
@@ -2959,7 +2973,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
         <v>5</v>
       </c>
@@ -2979,7 +2993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A75" s="5">
         <v>42931</v>
       </c>
@@ -2999,7 +3013,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A76" s="5"/>
       <c r="B76" s="6"/>
       <c r="C76" s="1" t="s">
@@ -3015,7 +3029,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A77" s="5"/>
       <c r="B77" s="6"/>
       <c r="C77" s="1" t="s">
@@ -3031,7 +3045,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A78" s="5"/>
       <c r="B78" s="6"/>
       <c r="C78" s="1" t="s">
@@ -3047,7 +3061,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A79" s="5"/>
       <c r="B79" s="6"/>
       <c r="C79" s="1" t="s">
@@ -3063,7 +3077,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
         <v>5</v>
       </c>
@@ -3083,7 +3097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A81" s="5">
         <v>42932</v>
       </c>
@@ -3103,7 +3117,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A82" s="5"/>
       <c r="B82" s="6"/>
       <c r="C82" s="1" t="s">
@@ -3119,7 +3133,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" s="5"/>
       <c r="B83" s="6"/>
       <c r="C83" s="1" t="s">
@@ -3135,7 +3149,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A84" s="5"/>
       <c r="B84" s="6"/>
       <c r="C84" s="1" t="s">
@@ -3151,7 +3165,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A85" s="5"/>
       <c r="B85" s="6"/>
       <c r="C85" s="1" t="s">
@@ -3167,7 +3181,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="3" t="s">
         <v>5</v>
       </c>
@@ -3187,7 +3201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A87" s="5">
         <v>42933</v>
       </c>
@@ -3207,7 +3221,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A88" s="5"/>
       <c r="B88" s="6"/>
       <c r="C88" s="1" t="s">
@@ -3223,7 +3237,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="72" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A89" s="5"/>
       <c r="B89" s="6"/>
       <c r="C89" s="1" t="s">
@@ -3239,7 +3253,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A90" s="5"/>
       <c r="B90" s="6"/>
       <c r="C90" s="1" t="s">
@@ -3255,7 +3269,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A91" s="5"/>
       <c r="B91" s="6"/>
       <c r="C91" s="1" t="s">
@@ -3271,7 +3285,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="3" t="s">
         <v>5</v>
       </c>
@@ -3291,7 +3305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A93" s="5">
         <v>42934</v>
       </c>
@@ -3311,7 +3325,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A94" s="5"/>
       <c r="B94" s="6"/>
       <c r="C94" s="1" t="s">
@@ -3327,7 +3341,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A95" s="5"/>
       <c r="B95" s="6"/>
       <c r="C95" s="1" t="s">
@@ -3343,7 +3357,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A96" s="5"/>
       <c r="B96" s="6"/>
       <c r="C96" s="1" t="s">
@@ -3359,7 +3373,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A97" s="5"/>
       <c r="B97" s="6"/>
       <c r="C97" s="1" t="s">
@@ -3375,7 +3389,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="3" t="s">
         <v>5</v>
       </c>
@@ -3395,7 +3409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="5">
         <v>42935</v>
       </c>
@@ -3409,7 +3423,7 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A100" s="5"/>
       <c r="B100" s="6"/>
       <c r="C100" s="1" t="s">
@@ -3425,7 +3439,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A101" s="5"/>
       <c r="B101" s="6"/>
       <c r="C101" s="1" t="s">
@@ -3441,7 +3455,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="5"/>
       <c r="B102" s="6"/>
       <c r="C102" s="1" t="s">
@@ -3451,7 +3465,7 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" s="5"/>
       <c r="B103" s="6"/>
       <c r="C103" s="1" t="s">
@@ -3461,7 +3475,7 @@
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" s="3" t="s">
         <v>5</v>
       </c>
@@ -3481,7 +3495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="5">
         <v>42936</v>
       </c>
@@ -3495,7 +3509,7 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="5"/>
       <c r="B106" s="6"/>
       <c r="C106" s="1" t="s">
@@ -3505,7 +3519,7 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="5"/>
       <c r="B107" s="6"/>
       <c r="C107" s="1" t="s">
@@ -3515,17 +3529,23 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A108" s="5"/>
       <c r="B108" s="6"/>
       <c r="C108" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D108" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="5"/>
       <c r="B109" s="6"/>
       <c r="C109" s="1" t="s">
@@ -3535,7 +3555,7 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="3" t="s">
         <v>5</v>
       </c>
@@ -3555,7 +3575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="5">
         <v>42937</v>
       </c>
@@ -3569,7 +3589,7 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" s="5"/>
       <c r="B112" s="6"/>
       <c r="C112" s="1" t="s">
@@ -3579,7 +3599,7 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="5"/>
       <c r="B113" s="6"/>
       <c r="C113" s="1" t="s">
@@ -3589,7 +3609,7 @@
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" s="5"/>
       <c r="B114" s="6"/>
       <c r="C114" s="1" t="s">
@@ -3599,7 +3619,7 @@
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" s="5"/>
       <c r="B115" s="6"/>
       <c r="C115" s="1" t="s">
@@ -3609,7 +3629,7 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" s="3" t="s">
         <v>5</v>
       </c>
@@ -3629,7 +3649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" s="5">
         <v>42938</v>
       </c>
@@ -3643,7 +3663,7 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" s="5"/>
       <c r="B118" s="6"/>
       <c r="C118" s="1" t="s">
@@ -3653,7 +3673,7 @@
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" s="5"/>
       <c r="B119" s="6"/>
       <c r="C119" s="1" t="s">
@@ -3663,7 +3683,7 @@
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" s="5"/>
       <c r="B120" s="6"/>
       <c r="C120" s="1" t="s">
@@ -3673,7 +3693,7 @@
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" s="5"/>
       <c r="B121" s="6"/>
       <c r="C121" s="1" t="s">
@@ -3683,7 +3703,7 @@
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -3691,7 +3711,7 @@
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" s="5"/>
       <c r="B123" s="6"/>
       <c r="C123" s="1"/>
@@ -3699,7 +3719,7 @@
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" s="5"/>
       <c r="B124" s="6"/>
       <c r="C124" s="1"/>
@@ -3707,7 +3727,7 @@
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" s="5"/>
       <c r="B125" s="6"/>
       <c r="C125" s="1"/>
@@ -3715,7 +3735,7 @@
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" s="5"/>
       <c r="B126" s="6"/>
       <c r="C126" s="1"/>
@@ -3723,7 +3743,7 @@
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" s="5"/>
       <c r="B127" s="6"/>
       <c r="C127" s="1"/>
@@ -3731,7 +3751,7 @@
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -3739,7 +3759,7 @@
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" s="5"/>
       <c r="B129" s="6"/>
       <c r="C129" s="1"/>
@@ -3747,7 +3767,7 @@
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" s="5"/>
       <c r="B130" s="6"/>
       <c r="C130" s="1"/>
@@ -3755,7 +3775,7 @@
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" s="5"/>
       <c r="B131" s="6"/>
       <c r="C131" s="1"/>
@@ -3763,7 +3783,7 @@
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" s="5"/>
       <c r="B132" s="6"/>
       <c r="C132" s="1"/>
@@ -3771,7 +3791,7 @@
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" s="5"/>
       <c r="B133" s="6"/>
       <c r="C133" s="1"/>
@@ -3781,43 +3801,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -3826,6 +3809,43 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3839,7 +3859,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3852,7 +3872,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="277">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1269,6 +1269,35 @@
   </si>
   <si>
     <t>听说组长和某妙龄女组员奋斗到十一点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、实时监控优化完成
+2、流量统计优化完成
+3、套牌车基本完成
+4、细节优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成系统所有功能，开始分
+离jsp，完善工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加油加油 还有两天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、优化套牌车算法
+2、过滤器完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还可以</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1700,21 +1729,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F108" sqref="F108"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I102" sqref="I102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
-    <col min="4" max="4" width="43.25" customWidth="1"/>
-    <col min="5" max="5" width="26.25" customWidth="1"/>
-    <col min="6" max="6" width="29.625" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" customWidth="1"/>
+    <col min="5" max="5" width="26.21875" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>142</v>
       </c>
@@ -1724,7 +1753,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1744,7 +1773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="81" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>42919</v>
       </c>
@@ -1764,7 +1793,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="1" t="s">
@@ -1780,7 +1809,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="1" t="s">
@@ -1797,7 +1826,7 @@
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="1" t="s">
@@ -1813,7 +1842,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="1" t="s">
@@ -1829,7 +1858,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1849,7 +1878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>42920</v>
       </c>
@@ -1869,7 +1898,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="1" t="s">
@@ -1885,7 +1914,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="1" t="s">
@@ -1901,7 +1930,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="1" t="s">
@@ -1917,7 +1946,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="1" t="s">
@@ -1933,7 +1962,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1953,7 +1982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="81" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>42921</v>
       </c>
@@ -1973,7 +2002,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="1" t="s">
@@ -1989,7 +2018,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="1" t="s">
@@ -2005,7 +2034,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="1" t="s">
@@ -2021,7 +2050,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="1" t="s">
@@ -2037,7 +2066,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
@@ -2057,7 +2086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>42922</v>
       </c>
@@ -2077,7 +2106,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="1" t="s">
@@ -2093,7 +2122,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="1" t="s">
@@ -2109,7 +2138,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="1" t="s">
@@ -2125,7 +2154,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="1" t="s">
@@ -2141,7 +2170,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
@@ -2161,7 +2190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>42923</v>
       </c>
@@ -2181,7 +2210,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="1" t="s">
@@ -2197,7 +2226,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="1" t="s">
@@ -2213,7 +2242,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="1" t="s">
@@ -2229,7 +2258,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="1" t="s">
@@ -2245,7 +2274,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>5</v>
       </c>
@@ -2265,7 +2294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" ht="72" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>42924</v>
       </c>
@@ -2285,7 +2314,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" s="1" t="s">
@@ -2301,7 +2330,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="1" t="s">
@@ -2317,7 +2346,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="1" t="s">
@@ -2333,7 +2362,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="1" t="s">
@@ -2349,7 +2378,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>5</v>
       </c>
@@ -2369,7 +2398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>42925</v>
       </c>
@@ -2389,7 +2418,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="1" t="s">
@@ -2405,7 +2434,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="1" t="s">
@@ -2421,7 +2450,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
       <c r="C42" s="1" t="s">
@@ -2437,7 +2466,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="1" t="s">
@@ -2453,7 +2482,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>5</v>
       </c>
@@ -2473,7 +2502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>42926</v>
       </c>
@@ -2493,7 +2522,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="6"/>
       <c r="C46" s="1" t="s">
@@ -2509,7 +2538,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="6"/>
       <c r="C47" s="1" t="s">
@@ -2525,7 +2554,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
       <c r="C48" s="1" t="s">
@@ -2541,7 +2570,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="6"/>
       <c r="C49" s="1" t="s">
@@ -2557,7 +2586,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>5</v>
       </c>
@@ -2577,7 +2606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>42927</v>
       </c>
@@ -2597,7 +2626,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="6"/>
       <c r="C52" s="1" t="s">
@@ -2613,7 +2642,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="6"/>
       <c r="C53" s="1" t="s">
@@ -2629,7 +2658,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="6"/>
       <c r="C54" s="1" t="s">
@@ -2645,7 +2674,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="6"/>
       <c r="C55" s="1" t="s">
@@ -2661,7 +2690,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>5</v>
       </c>
@@ -2681,7 +2710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>42928</v>
       </c>
@@ -2701,7 +2730,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="6"/>
       <c r="C58" s="1" t="s">
@@ -2717,7 +2746,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="6"/>
       <c r="C59" s="1" t="s">
@@ -2733,7 +2762,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="6"/>
       <c r="C60" s="1" t="s">
@@ -2749,7 +2778,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="6"/>
       <c r="C61" s="1" t="s">
@@ -2765,7 +2794,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>5</v>
       </c>
@@ -2785,7 +2814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>42929</v>
       </c>
@@ -2805,7 +2834,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="6"/>
       <c r="C64" s="1" t="s">
@@ -2821,7 +2850,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" s="6"/>
       <c r="C65" s="1" t="s">
@@ -2837,7 +2866,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="6"/>
       <c r="C66" s="1" t="s">
@@ -2853,7 +2882,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="6"/>
       <c r="C67" s="1" t="s">
@@ -2869,7 +2898,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>5</v>
       </c>
@@ -2889,7 +2918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>42930</v>
       </c>
@@ -2909,7 +2938,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="6"/>
       <c r="C70" s="1" t="s">
@@ -2925,7 +2954,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="6"/>
       <c r="C71" s="1" t="s">
@@ -2941,7 +2970,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="6"/>
       <c r="C72" s="1" t="s">
@@ -2957,7 +2986,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="6"/>
       <c r="C73" s="1" t="s">
@@ -2973,7 +3002,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>5</v>
       </c>
@@ -2993,7 +3022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>42931</v>
       </c>
@@ -3013,7 +3042,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="B76" s="6"/>
       <c r="C76" s="1" t="s">
@@ -3029,7 +3058,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="6"/>
       <c r="C77" s="1" t="s">
@@ -3045,7 +3074,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" s="6"/>
       <c r="C78" s="1" t="s">
@@ -3061,7 +3090,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="6"/>
       <c r="C79" s="1" t="s">
@@ -3077,7 +3106,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>5</v>
       </c>
@@ -3097,7 +3126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>42932</v>
       </c>
@@ -3117,7 +3146,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" s="6"/>
       <c r="C82" s="1" t="s">
@@ -3133,7 +3162,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="6"/>
       <c r="C83" s="1" t="s">
@@ -3149,7 +3178,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="B84" s="6"/>
       <c r="C84" s="1" t="s">
@@ -3165,7 +3194,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" s="6"/>
       <c r="C85" s="1" t="s">
@@ -3181,7 +3210,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>5</v>
       </c>
@@ -3201,7 +3230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>42933</v>
       </c>
@@ -3221,7 +3250,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="6"/>
       <c r="C88" s="1" t="s">
@@ -3237,7 +3266,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" ht="72" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="B89" s="6"/>
       <c r="C89" s="1" t="s">
@@ -3253,7 +3282,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="B90" s="6"/>
       <c r="C90" s="1" t="s">
@@ -3269,7 +3298,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="B91" s="6"/>
       <c r="C91" s="1" t="s">
@@ -3285,7 +3314,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>5</v>
       </c>
@@ -3305,7 +3334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>42934</v>
       </c>
@@ -3325,7 +3354,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="B94" s="6"/>
       <c r="C94" s="1" t="s">
@@ -3341,7 +3370,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="B95" s="6"/>
       <c r="C95" s="1" t="s">
@@ -3357,7 +3386,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="B96" s="6"/>
       <c r="C96" s="1" t="s">
@@ -3373,7 +3402,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="B97" s="6"/>
       <c r="C97" s="1" t="s">
@@ -3389,7 +3418,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>5</v>
       </c>
@@ -3409,7 +3438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>42935</v>
       </c>
@@ -3419,11 +3448,17 @@
       <c r="C99" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-    </row>
-    <row r="100" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="D99" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
       <c r="B100" s="6"/>
       <c r="C100" s="1" t="s">
@@ -3439,7 +3474,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="B101" s="6"/>
       <c r="C101" s="1" t="s">
@@ -3455,27 +3490,39 @@
         <v>264</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
       <c r="B102" s="6"/>
       <c r="C102" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D102" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
       <c r="B103" s="6"/>
       <c r="C103" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D103" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>5</v>
       </c>
@@ -3495,7 +3542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>42936</v>
       </c>
@@ -3509,7 +3556,7 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
       <c r="B106" s="6"/>
       <c r="C106" s="1" t="s">
@@ -3519,7 +3566,7 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
       <c r="B107" s="6"/>
       <c r="C107" s="1" t="s">
@@ -3529,23 +3576,17 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
       <c r="B108" s="6"/>
       <c r="C108" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D108" s="2"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
       <c r="B109" s="6"/>
       <c r="C109" s="1" t="s">
@@ -3555,7 +3596,7 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>5</v>
       </c>
@@ -3575,7 +3616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>42937</v>
       </c>
@@ -3589,7 +3630,7 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
       <c r="B112" s="6"/>
       <c r="C112" s="1" t="s">
@@ -3599,7 +3640,7 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
       <c r="B113" s="6"/>
       <c r="C113" s="1" t="s">
@@ -3609,7 +3650,7 @@
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
       <c r="B114" s="6"/>
       <c r="C114" s="1" t="s">
@@ -3619,7 +3660,7 @@
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
       <c r="B115" s="6"/>
       <c r="C115" s="1" t="s">
@@ -3629,7 +3670,7 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>5</v>
       </c>
@@ -3649,7 +3690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
         <v>42938</v>
       </c>
@@ -3663,7 +3704,7 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
       <c r="B118" s="6"/>
       <c r="C118" s="1" t="s">
@@ -3673,7 +3714,7 @@
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
       <c r="B119" s="6"/>
       <c r="C119" s="1" t="s">
@@ -3683,7 +3724,7 @@
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
       <c r="B120" s="6"/>
       <c r="C120" s="1" t="s">
@@ -3693,7 +3734,7 @@
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
       <c r="B121" s="6"/>
       <c r="C121" s="1" t="s">
@@ -3703,7 +3744,7 @@
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -3711,7 +3752,7 @@
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
       <c r="B123" s="6"/>
       <c r="C123" s="1"/>
@@ -3719,7 +3760,7 @@
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>
       <c r="B124" s="6"/>
       <c r="C124" s="1"/>
@@ -3727,7 +3768,7 @@
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
       <c r="B125" s="6"/>
       <c r="C125" s="1"/>
@@ -3735,7 +3776,7 @@
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
       <c r="B126" s="6"/>
       <c r="C126" s="1"/>
@@ -3743,7 +3784,7 @@
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="5"/>
       <c r="B127" s="6"/>
       <c r="C127" s="1"/>
@@ -3751,7 +3792,7 @@
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -3759,7 +3800,7 @@
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
       <c r="B129" s="6"/>
       <c r="C129" s="1"/>
@@ -3767,7 +3808,7 @@
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
       <c r="B130" s="6"/>
       <c r="C130" s="1"/>
@@ -3775,7 +3816,7 @@
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
       <c r="B131" s="6"/>
       <c r="C131" s="1"/>
@@ -3783,7 +3824,7 @@
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="5"/>
       <c r="B132" s="6"/>
       <c r="C132" s="1"/>
@@ -3791,7 +3832,7 @@
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="5"/>
       <c r="B133" s="6"/>
       <c r="C133" s="1"/>
@@ -3801,6 +3842,43 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -3809,43 +3887,6 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3859,7 +3900,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3872,7 +3913,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="285">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1298,6 +1298,38 @@
   </si>
   <si>
     <t>还可以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答辩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答辩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>END</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1729,8 +1761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I102" sqref="I102"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K109" sqref="K109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3572,9 +3604,15 @@
       <c r="C107" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
+      <c r="D107" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
@@ -3646,9 +3684,15 @@
       <c r="C113" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
+      <c r="D113" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
@@ -3720,9 +3764,15 @@
       <c r="C119" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
+      <c r="D119" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
@@ -3842,43 +3892,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -3887,6 +3900,43 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="290">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1330,6 +1330,27 @@
   </si>
   <si>
     <t>END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、优化套牌车算法
+2、优化界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哦？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究网页播放视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诶？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答辩答辩答辩！！！！！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1761,8 +1782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K109" sqref="K109"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3588,15 +3609,19 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
       <c r="B106" s="6"/>
       <c r="C106" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D106" s="1"/>
+      <c r="D106" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
+      <c r="F106" s="1" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
@@ -3674,9 +3699,15 @@
       <c r="C112" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
+      <c r="D112" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
@@ -3892,6 +3923,43 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -3900,43 +3968,6 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/JAVA实训_第五小组_开发日报表.xlsx
+++ b/Doc/JAVA实训_第五小组_开发日报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="295">
   <si>
     <t>开发组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1351,6 +1351,29 @@
   </si>
   <si>
     <t>答辩答辩答辩！！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是小可爱~~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、做答辩ppt
+2、完善需求文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天天加班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备答辩的东西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、帮组长完成流量统计
+2、jsp分离
+3、优化代码结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1782,21 +1805,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E112" sqref="E112"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
-    <col min="4" max="4" width="43.21875" customWidth="1"/>
-    <col min="5" max="5" width="26.21875" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="43.25" customWidth="1"/>
+    <col min="5" max="5" width="26.25" customWidth="1"/>
+    <col min="6" max="6" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>142</v>
       </c>
@@ -1806,7 +1829,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1826,7 +1849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>42919</v>
       </c>
@@ -1846,7 +1869,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="1" t="s">
@@ -1862,7 +1885,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="1" t="s">
@@ -1879,7 +1902,7 @@
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="1" t="s">
@@ -1895,7 +1918,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="1" t="s">
@@ -1911,7 +1934,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1931,7 +1954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>42920</v>
       </c>
@@ -1951,7 +1974,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="1" t="s">
@@ -1967,7 +1990,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="1" t="s">
@@ -1983,7 +2006,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="1" t="s">
@@ -1999,7 +2022,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="1" t="s">
@@ -2015,7 +2038,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -2035,7 +2058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="81" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>42921</v>
       </c>
@@ -2055,7 +2078,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="1" t="s">
@@ -2071,7 +2094,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="1" t="s">
@@ -2087,7 +2110,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="1" t="s">
@@ -2103,7 +2126,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="1" t="s">
@@ -2119,7 +2142,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
@@ -2139,7 +2162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>42922</v>
       </c>
@@ -2159,7 +2182,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="1" t="s">
@@ -2175,7 +2198,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="1" t="s">
@@ -2191,7 +2214,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="1" t="s">
@@ -2207,7 +2230,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="1" t="s">
@@ -2223,7 +2246,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
@@ -2243,7 +2266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>42923</v>
       </c>
@@ -2263,7 +2286,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="1" t="s">
@@ -2279,7 +2302,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="1" t="s">
@@ -2295,7 +2318,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="1" t="s">
@@ -2311,7 +2334,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="1" t="s">
@@ -2327,7 +2350,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>5</v>
       </c>
@@ -2347,7 +2370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="72" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A33" s="5">
         <v>42924</v>
       </c>
@@ -2367,7 +2390,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" s="1" t="s">
@@ -2383,7 +2406,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="1" t="s">
@@ -2399,7 +2422,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="1" t="s">
@@ -2415,7 +2438,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="1" t="s">
@@ -2431,7 +2454,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>5</v>
       </c>
@@ -2451,7 +2474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A39" s="5">
         <v>42925</v>
       </c>
@@ -2471,7 +2494,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="1" t="s">
@@ -2487,7 +2510,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="1" t="s">
@@ -2503,7 +2526,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
       <c r="C42" s="1" t="s">
@@ -2519,7 +2542,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="1" t="s">
@@ -2535,7 +2558,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>5</v>
       </c>
@@ -2555,7 +2578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A45" s="5">
         <v>42926</v>
       </c>
@@ -2575,7 +2598,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A46" s="5"/>
       <c r="B46" s="6"/>
       <c r="C46" s="1" t="s">
@@ -2591,7 +2614,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="5"/>
       <c r="B47" s="6"/>
       <c r="C47" s="1" t="s">
@@ -2607,7 +2630,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
       <c r="C48" s="1" t="s">
@@ -2623,7 +2646,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A49" s="5"/>
       <c r="B49" s="6"/>
       <c r="C49" s="1" t="s">
@@ -2639,7 +2662,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>5</v>
       </c>
@@ -2659,7 +2682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A51" s="5">
         <v>42927</v>
       </c>
@@ -2679,7 +2702,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A52" s="5"/>
       <c r="B52" s="6"/>
       <c r="C52" s="1" t="s">
@@ -2695,7 +2718,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="5"/>
       <c r="B53" s="6"/>
       <c r="C53" s="1" t="s">
@@ -2711,7 +2734,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="5"/>
       <c r="B54" s="6"/>
       <c r="C54" s="1" t="s">
@@ -2727,7 +2750,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="5"/>
       <c r="B55" s="6"/>
       <c r="C55" s="1" t="s">
@@ -2743,7 +2766,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>5</v>
       </c>
@@ -2763,7 +2786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A57" s="5">
         <v>42928</v>
       </c>
@@ -2783,7 +2806,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="5"/>
       <c r="B58" s="6"/>
       <c r="C58" s="1" t="s">
@@ -2799,7 +2822,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A59" s="5"/>
       <c r="B59" s="6"/>
       <c r="C59" s="1" t="s">
@@ -2815,7 +2838,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A60" s="5"/>
       <c r="B60" s="6"/>
       <c r="C60" s="1" t="s">
@@ -2831,7 +2854,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="5"/>
       <c r="B61" s="6"/>
       <c r="C61" s="1" t="s">
@@ -2847,7 +2870,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
         <v>5</v>
       </c>
@@ -2867,7 +2890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A63" s="5">
         <v>42929</v>
       </c>
@@ -2887,7 +2910,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="5"/>
       <c r="B64" s="6"/>
       <c r="C64" s="1" t="s">
@@ -2903,7 +2926,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A65" s="5"/>
       <c r="B65" s="6"/>
       <c r="C65" s="1" t="s">
@@ -2919,7 +2942,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A66" s="5"/>
       <c r="B66" s="6"/>
       <c r="C66" s="1" t="s">
@@ -2935,7 +2958,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="5"/>
       <c r="B67" s="6"/>
       <c r="C67" s="1" t="s">
@@ -2951,7 +2974,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
         <v>5</v>
       </c>
@@ -2971,7 +2994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A69" s="5">
         <v>42930</v>
       </c>
@@ -2991,7 +3014,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A70" s="5"/>
       <c r="B70" s="6"/>
       <c r="C70" s="1" t="s">
@@ -3007,7 +3030,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A71" s="5"/>
       <c r="B71" s="6"/>
       <c r="C71" s="1" t="s">
@@ -3023,7 +3046,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="6"/>
       <c r="C72" s="1" t="s">
@@ -3039,7 +3062,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="5"/>
       <c r="B73" s="6"/>
       <c r="C73" s="1" t="s">
@@ -3055,7 +3078,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
         <v>5</v>
       </c>
@@ -3075,7 +3098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A75" s="5">
         <v>42931</v>
       </c>
@@ -3095,7 +3118,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A76" s="5"/>
       <c r="B76" s="6"/>
       <c r="C76" s="1" t="s">
@@ -3111,7 +3134,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A77" s="5"/>
       <c r="B77" s="6"/>
       <c r="C77" s="1" t="s">
@@ -3127,7 +3150,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A78" s="5"/>
       <c r="B78" s="6"/>
       <c r="C78" s="1" t="s">
@@ -3143,7 +3166,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A79" s="5"/>
       <c r="B79" s="6"/>
       <c r="C79" s="1" t="s">
@@ -3159,7 +3182,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
         <v>5</v>
       </c>
@@ -3179,7 +3202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A81" s="5">
         <v>42932</v>
       </c>
@@ -3199,7 +3222,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A82" s="5"/>
       <c r="B82" s="6"/>
       <c r="C82" s="1" t="s">
@@ -3215,7 +3238,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" s="5"/>
       <c r="B83" s="6"/>
       <c r="C83" s="1" t="s">
@@ -3231,7 +3254,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A84" s="5"/>
       <c r="B84" s="6"/>
       <c r="C84" s="1" t="s">
@@ -3247,7 +3270,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A85" s="5"/>
       <c r="B85" s="6"/>
       <c r="C85" s="1" t="s">
@@ -3263,7 +3286,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="3" t="s">
         <v>5</v>
       </c>
@@ -3283,7 +3306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A87" s="5">
         <v>42933</v>
       </c>
@@ -3303,7 +3326,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A88" s="5"/>
       <c r="B88" s="6"/>
       <c r="C88" s="1" t="s">
@@ -3319,7 +3342,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="72" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A89" s="5"/>
       <c r="B89" s="6"/>
       <c r="C89" s="1" t="s">
@@ -3335,7 +3358,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A90" s="5"/>
       <c r="B90" s="6"/>
       <c r="C90" s="1" t="s">
@@ -3351,7 +3374,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A91" s="5"/>
       <c r="B91" s="6"/>
       <c r="C91" s="1" t="s">
@@ -3367,7 +3390,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="3" t="s">
         <v>5</v>
       </c>
@@ -3387,7 +3410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A93" s="5">
         <v>42934</v>
       </c>
@@ -3407,7 +3430,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A94" s="5"/>
       <c r="B94" s="6"/>
       <c r="C94" s="1" t="s">
@@ -3423,7 +3446,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A95" s="5"/>
       <c r="B95" s="6"/>
       <c r="C95" s="1" t="s">
@@ -3439,7 +3462,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A96" s="5"/>
       <c r="B96" s="6"/>
       <c r="C96" s="1" t="s">
@@ -3455,7 +3478,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A97" s="5"/>
       <c r="B97" s="6"/>
       <c r="C97" s="1" t="s">
@@ -3471,7 +3494,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="3" t="s">
         <v>5</v>
       </c>
@@ -3491,7 +3514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A99" s="5">
         <v>42935</v>
       </c>
@@ -3511,7 +3534,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A100" s="5"/>
       <c r="B100" s="6"/>
       <c r="C100" s="1" t="s">
@@ -3527,7 +3550,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A101" s="5"/>
       <c r="B101" s="6"/>
       <c r="C101" s="1" t="s">
@@ -3543,7 +3566,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A102" s="5"/>
       <c r="B102" s="6"/>
       <c r="C102" s="1" t="s">
@@ -3559,7 +3582,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A103" s="5"/>
       <c r="B103" s="6"/>
       <c r="C103" s="1" t="s">
@@ -3575,7 +3598,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" s="3" t="s">
         <v>5</v>
       </c>
@@ -3595,7 +3618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="5">
         <v>42936</v>
       </c>
@@ -3609,7 +3632,7 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A106" s="5"/>
       <c r="B106" s="6"/>
       <c r="C106" s="1" t="s">
@@ -3623,7 +3646,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="5"/>
       <c r="B107" s="6"/>
       <c r="C107" s="1" t="s">
@@ -3639,17 +3662,23 @@
         <v>282</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A108" s="5"/>
       <c r="B108" s="6"/>
       <c r="C108" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D108" s="2"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D108" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="5"/>
       <c r="B109" s="6"/>
       <c r="C109" s="1" t="s">
@@ -3659,7 +3688,7 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="3" t="s">
         <v>5</v>
       </c>
@@ -3679,7 +3708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="5">
         <v>42937</v>
       </c>
@@ -3693,7 +3722,7 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" s="5"/>
       <c r="B112" s="6"/>
       <c r="C112" s="1" t="s">
@@ -3709,7 +3738,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="5"/>
       <c r="B113" s="6"/>
       <c r="C113" s="1" t="s">
@@ -3725,17 +3754,23 @@
         <v>283</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A114" s="5"/>
       <c r="B114" s="6"/>
       <c r="C114" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D114" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" s="5"/>
       <c r="B115" s="6"/>
       <c r="C115" s="1" t="s">
@@ -3745,7 +3780,7 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" s="3" t="s">
         <v>5</v>
       </c>
@@ -3765,7 +3800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" s="5">
         <v>42938</v>
       </c>
@@ -3779,7 +3814,7 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" s="5"/>
       <c r="B118" s="6"/>
       <c r="C118" s="1" t="s">
@@ -3789,7 +3824,7 @@
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" s="5"/>
       <c r="B119" s="6"/>
       <c r="C119" s="1" t="s">
@@ -3805,17 +3840,23 @@
         <v>284</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" s="5"/>
       <c r="B120" s="6"/>
       <c r="C120" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D120" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" s="5"/>
       <c r="B121" s="6"/>
       <c r="C121" s="1" t="s">
@@ -3825,7 +3866,7 @@
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -3833,7 +3874,7 @@
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" s="5"/>
       <c r="B123" s="6"/>
       <c r="C123" s="1"/>
@@ -3841,7 +3882,7 @@
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" s="5"/>
       <c r="B124" s="6"/>
       <c r="C124" s="1"/>
@@ -3849,7 +3890,7 @@
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" s="5"/>
       <c r="B125" s="6"/>
       <c r="C125" s="1"/>
@@ -3857,7 +3898,7 @@
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" s="5"/>
       <c r="B126" s="6"/>
       <c r="C126" s="1"/>
@@ -3865,7 +3906,7 @@
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" s="5"/>
       <c r="B127" s="6"/>
       <c r="C127" s="1"/>
@@ -3873,7 +3914,7 @@
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -3881,7 +3922,7 @@
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" s="5"/>
       <c r="B129" s="6"/>
       <c r="C129" s="1"/>
@@ -3889,7 +3930,7 @@
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" s="5"/>
       <c r="B130" s="6"/>
       <c r="C130" s="1"/>
@@ -3897,7 +3938,7 @@
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" s="5"/>
       <c r="B131" s="6"/>
       <c r="C131" s="1"/>
@@ -3905,7 +3946,7 @@
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" s="5"/>
       <c r="B132" s="6"/>
       <c r="C132" s="1"/>
@@ -3913,7 +3954,7 @@
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" s="5"/>
       <c r="B133" s="6"/>
       <c r="C133" s="1"/>
@@ -3923,43 +3964,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="B129:B133"/>
     <mergeCell ref="A111:A115"/>
@@ -3968,6 +3972,43 @@
     <mergeCell ref="B117:B121"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="B123:B127"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3981,7 +4022,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3994,7 +4035,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
